--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EMSYS-CYB 2024-2025\Cloud networking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35FCEF-61EB-44FE-99F8-CBE9170B1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A81691-EC22-4BD9-ADA2-86CE1A5480A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1385,7 +1385,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -1403,6 +1403,87 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1525,143 +1606,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
@@ -1712,7 +1656,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1720,6 +1663,70 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2021,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8132,29 +8139,16 @@
       <c r="A32" t="s">
         <v>147</v>
       </c>
-      <c r="H32" t="s">
-        <v>148</v>
-      </c>
-      <c r="J32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" t="s">
-        <v>152</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N41 BE2:BE41 V2:X29 AR2:AT3 AR18:AT20 AR23:AT27 AJ2:AJ41 AR5:AT15">
-    <cfRule type="colorScale" priority="125">
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8163,185 +8157,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:T29">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W29 BN2:BO29 AF28 AD29:AH29 AD2:AD3 AD16:AG17 AD18:AD20 AD23:AD28 AD5:AD15 AD21:AG22 AD4:AH4">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:AC29">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4:AP4 AL28:AP29 AL16:AP17 AL21:AP22">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AQ1048576 AQ1 AQ4 AQ16:AQ17 AQ21:AQ22">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR28:AR29 AR4 AR16:AR17 AR21:AR22">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB28:BD28 AY28:AZ28 AZ17:BD17 F2:F29 AY29:BD29 AY22:BA27 BD22:BD27 AY12:BD13 AZ11:BD11 AY14:BA16 AY21:BD21 AY18:BA20 BC18:BD20 BC14:BD16 AY9:BD10 AY7:BA8 BC7:BD8 AY3:AY6 AZ2:BD6">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ2:AZ29">
-    <cfRule type="duplicateValues" dxfId="48" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BA28">
-    <cfRule type="duplicateValues" dxfId="47" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG2:BK29">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL1:BL1048576">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BM29">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29 BP2:BR29 AF28 AD29:AH29 AD2:AD3 AD16:AG17 AD18:AD20 AD23:AD28 AD5:AD15 AD21:AG22 AD4:AH4">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I29">
-    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13 J16:J29">
-    <cfRule type="duplicateValues" dxfId="45" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="44" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="duplicateValues" dxfId="43" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J29">
-    <cfRule type="duplicateValues" dxfId="42" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E29">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E9">
-    <cfRule type="colorScale" priority="110">
+  <conditionalFormatting sqref="D16:D29">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8410,12 +8227,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="41" priority="102"/>
-    <cfRule type="top10" priority="103" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D29">
-    <cfRule type="colorScale" priority="101">
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8424,8 +8237,95 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="E16:E29">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G29 BP2:BR29 AF28 AD29:AH29 AD2:AD3 AD16:AG17 AD18:AD20 AD23:AD28 AD5:AD15 AD21:AG22 AD4:AH4">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I29">
+    <cfRule type="duplicateValues" dxfId="49" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J31 J34:J1048576">
+    <cfRule type="top10" priority="103" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J13 J16:J29">
+    <cfRule type="duplicateValues" dxfId="47" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J29">
+    <cfRule type="duplicateValues" dxfId="46" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="45" priority="115"/>
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="duplicateValues" dxfId="44" priority="113"/>
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N41 BE2:BE41 V2:X29 AR2:AT3 AR18:AT20 AR23:AT27 AJ2:AJ41 AR5:AT15">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:T29">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W29 BN2:BO29 AF28 AD29:AH29 AD2:AD3 AD16:AG17 AD18:AD20 AD23:AD28 AD5:AD15 AD21:AG22 AD4:AH4">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8444,8 +8344,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS28:AS29 AS4 AS16:AS17 AS21:AS22">
-    <cfRule type="colorScale" priority="98">
+  <conditionalFormatting sqref="Y2:AC29">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8454,8 +8354,69 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AX13 AU16:AX29 AV14:AX15">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="AE2:AE3">
+    <cfRule type="duplicateValues" dxfId="43" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE5:AE6">
+    <cfRule type="duplicateValues" dxfId="42" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7:AE8">
+    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9:AE13">
+    <cfRule type="duplicateValues" dxfId="40" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="duplicateValues" dxfId="39" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE18:AE20">
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23:AE25">
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="duplicateValues" dxfId="35" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="duplicateValues" dxfId="34" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="duplicateValues" dxfId="33" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF3">
+    <cfRule type="top10" priority="69" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AF6">
+    <cfRule type="duplicateValues" dxfId="29" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="61"/>
+    <cfRule type="top10" priority="60" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7:AF8">
+    <cfRule type="duplicateValues" dxfId="26" priority="50"/>
+    <cfRule type="top10" priority="51" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9:AF13">
+    <cfRule type="duplicateValues" dxfId="23" priority="43"/>
+    <cfRule type="top10" priority="42" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="top10" priority="17" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8464,8 +8425,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT28:AT29 AT4 AT16:AT17 AT21:AT22">
-    <cfRule type="colorScale" priority="95">
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="top10" priority="11" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8474,11 +8439,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="duplicateValues" dxfId="40" priority="94"/>
+  <conditionalFormatting sqref="AF18:AF20">
+    <cfRule type="top10" priority="33" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL27:AP27">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="AF23:AF25">
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
+    <cfRule type="top10" priority="24" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="duplicateValues" dxfId="8" priority="77"/>
+    <cfRule type="top10" priority="78" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="duplicateValues" dxfId="5" priority="86"/>
+    <cfRule type="top10" priority="87" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AP3">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8487,20 +8473,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS27">
-    <cfRule type="colorScale" priority="93">
+  <conditionalFormatting sqref="AL4:AP4 AL28:AP29 AL16:AP17 AL21:AP22">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8509,21 +8483,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="duplicateValues" dxfId="39" priority="90"/>
+  <conditionalFormatting sqref="AL5:AP6">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="duplicateValues" dxfId="38" priority="89"/>
+  <conditionalFormatting sqref="AL7:AP8">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="duplicateValues" dxfId="37" priority="88"/>
+  <conditionalFormatting sqref="AL9:AP13">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="duplicateValues" dxfId="36" priority="86"/>
-    <cfRule type="top10" priority="87" percent="1" rank="10"/>
+  <conditionalFormatting sqref="AL14:AP15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="AL18:AP20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23:AP25">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8542,53 +8553,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS26">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
-    <cfRule type="duplicateValues" dxfId="35" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="duplicateValues" dxfId="34" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="duplicateValues" dxfId="33" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="duplicateValues" dxfId="32" priority="77"/>
-    <cfRule type="top10" priority="78" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT26">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AP3">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="AL27:AP27">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8609,49 +8575,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS3">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE3">
-    <cfRule type="duplicateValues" dxfId="31" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF3">
-    <cfRule type="duplicateValues" dxfId="30" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF3">
-    <cfRule type="duplicateValues" dxfId="29" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF3">
-    <cfRule type="duplicateValues" dxfId="28" priority="68"/>
-    <cfRule type="top10" priority="69" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:AT3">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AP6">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AQ5:AQ6">
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -8661,49 +8584,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS5:AS6">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE5:AE6">
-    <cfRule type="duplicateValues" dxfId="27" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AF6">
-    <cfRule type="duplicateValues" dxfId="26" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AF6">
-    <cfRule type="duplicateValues" dxfId="25" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AF6">
-    <cfRule type="duplicateValues" dxfId="24" priority="59"/>
-    <cfRule type="top10" priority="60" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT5:AT6">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL7:AP8">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8719,49 +8599,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS7:AS8">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7:AE8">
-    <cfRule type="duplicateValues" dxfId="23" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:AF8">
-    <cfRule type="duplicateValues" dxfId="22" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:AF8">
-    <cfRule type="duplicateValues" dxfId="21" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:AF8">
-    <cfRule type="duplicateValues" dxfId="20" priority="50"/>
-    <cfRule type="top10" priority="51" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT7:AT8">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9:AP13">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AQ13">
     <cfRule type="colorScale" priority="46">
       <colorScale>
@@ -8774,46 +8611,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS9:AS13">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="AQ14:AQ15">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9:AE13">
-    <cfRule type="duplicateValues" dxfId="19" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AF13">
-    <cfRule type="duplicateValues" dxfId="18" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AF13">
-    <cfRule type="duplicateValues" dxfId="17" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AF13">
-    <cfRule type="duplicateValues" dxfId="16" priority="41"/>
-    <cfRule type="top10" priority="42" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT9:AT13">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL18:AP20">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8829,49 +8635,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS18:AS20">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE18:AE20">
-    <cfRule type="duplicateValues" dxfId="15" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AF20">
-    <cfRule type="duplicateValues" dxfId="14" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AF20">
-    <cfRule type="duplicateValues" dxfId="13" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AF20">
-    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
-    <cfRule type="top10" priority="33" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT18:AT20">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL23:AP25">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AQ23:AQ25">
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -8881,6 +8644,112 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28:AQ1048576 AQ1 AQ4 AQ16:AQ17 AQ21:AQ22">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR28:AR29 AR4 AR16:AR17 AR21:AR22">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS2:AS3">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS5:AS6">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS7:AS8">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS9:AS13">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS14:AS15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS18:AS20">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8894,18 +8763,95 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE23:AE25">
-    <cfRule type="duplicateValues" dxfId="11" priority="27"/>
+  <conditionalFormatting sqref="AS26">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF23:AF25">
-    <cfRule type="duplicateValues" dxfId="10" priority="26"/>
+  <conditionalFormatting sqref="AS27">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF23:AF25">
-    <cfRule type="duplicateValues" dxfId="9" priority="25"/>
+  <conditionalFormatting sqref="AS28:AS29 AS4 AS16:AS17 AS21:AS22">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF23:AF25">
-    <cfRule type="duplicateValues" dxfId="8" priority="23"/>
-    <cfRule type="top10" priority="24" percent="1" rank="10"/>
+  <conditionalFormatting sqref="AT2:AT3">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT5:AT6">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT7:AT8">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT9:AT13">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14:AT15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT18:AT20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT23:AT25">
     <cfRule type="colorScale" priority="22">
@@ -8917,11 +8863,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
-    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="AT26">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8930,21 +8873,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
-    <cfRule type="top10" priority="17" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
-    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="AT27">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8953,18 +8883,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="top10" priority="11" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU14:AU15">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AT28:AT29 AT4 AT16:AT17 AT21:AT22">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8982,9 +8902,7 @@
         <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14:AP15">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8993,8 +8911,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ14:AQ15">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AU2:AX13 AU16:AX29 AV14:AX15">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ2:AZ29">
+    <cfRule type="duplicateValues" dxfId="2" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA2:BA28">
+    <cfRule type="duplicateValues" dxfId="1" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB28:BD28 AY28:AZ28 AZ17:BD17 F2:F29 AY29:BD29 AY22:BA27 BD22:BD27 AY12:BD13 AZ11:BD11 AY14:BA16 AY21:BD21 AY18:BA20 BC18:BD20 BC14:BD16 AY9:BD10 AY7:BA8 BC7:BD8 AY3:AY6 AZ2:BD6">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG2:BK29">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL1:BL1048576">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9005,18 +8959,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS14:AS15">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AT15">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="BM2:BM29">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9054,17 +8998,16 @@
     <hyperlink ref="H18" r:id="rId26" xr:uid="{ABAE2D6D-40BF-4AF7-9DCB-E101DCA5CE73}"/>
     <hyperlink ref="H20" r:id="rId27" xr:uid="{4A8003B5-3A4F-4C14-BF30-BEE7EC63462C}"/>
     <hyperlink ref="H21" r:id="rId28" xr:uid="{198706E4-5B2B-4756-9005-E9AFC0E00908}"/>
-    <hyperlink ref="H33" r:id="rId29" xr:uid="{95E2A05A-369B-4344-AD59-5FFF02681F97}"/>
-    <hyperlink ref="AD28" r:id="rId30" xr:uid="{2D8742CC-7FF5-4600-A7F8-3CB28046E08E}"/>
-    <hyperlink ref="AD4" r:id="rId31" xr:uid="{3B5DACAC-DF3A-4370-95B6-401E89942937}"/>
-    <hyperlink ref="AD10" r:id="rId32" xr:uid="{956A4CBE-7E83-4385-BA43-E0876D5D6A66}"/>
-    <hyperlink ref="AD11" r:id="rId33" xr:uid="{ACBEE397-C2DF-412A-B6FF-12B6FCE6C821}"/>
-    <hyperlink ref="AD15" r:id="rId34" xr:uid="{E75323CA-87B5-456F-AC39-C5858CACEB2C}"/>
-    <hyperlink ref="AD14" r:id="rId35" xr:uid="{C71534F7-5D5D-48ED-8B3D-C4F9F0637D6F}"/>
-    <hyperlink ref="AD16" r:id="rId36" xr:uid="{C73D7E9F-25DB-4190-A983-1CEEEC57A64C}"/>
-    <hyperlink ref="AD17" r:id="rId37" xr:uid="{07FAEE3C-7C87-4EF5-9859-8332D21BC6CC}"/>
-    <hyperlink ref="AD21" r:id="rId38" xr:uid="{05532FDF-5CF3-4558-95FA-DF260A79465E}"/>
-    <hyperlink ref="AD22" r:id="rId39" xr:uid="{D1E48C50-DC4D-4758-8A7E-95D42A33D032}"/>
+    <hyperlink ref="AD28" r:id="rId29" xr:uid="{2D8742CC-7FF5-4600-A7F8-3CB28046E08E}"/>
+    <hyperlink ref="AD4" r:id="rId30" xr:uid="{3B5DACAC-DF3A-4370-95B6-401E89942937}"/>
+    <hyperlink ref="AD10" r:id="rId31" xr:uid="{956A4CBE-7E83-4385-BA43-E0876D5D6A66}"/>
+    <hyperlink ref="AD11" r:id="rId32" xr:uid="{ACBEE397-C2DF-412A-B6FF-12B6FCE6C821}"/>
+    <hyperlink ref="AD15" r:id="rId33" xr:uid="{E75323CA-87B5-456F-AC39-C5858CACEB2C}"/>
+    <hyperlink ref="AD14" r:id="rId34" xr:uid="{C71534F7-5D5D-48ED-8B3D-C4F9F0637D6F}"/>
+    <hyperlink ref="AD16" r:id="rId35" xr:uid="{C73D7E9F-25DB-4190-A983-1CEEEC57A64C}"/>
+    <hyperlink ref="AD17" r:id="rId36" xr:uid="{07FAEE3C-7C87-4EF5-9859-8332D21BC6CC}"/>
+    <hyperlink ref="AD21" r:id="rId37" xr:uid="{05532FDF-5CF3-4558-95FA-DF260A79465E}"/>
+    <hyperlink ref="AD22" r:id="rId38" xr:uid="{D1E48C50-DC4D-4758-8A7E-95D42A33D032}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9072,10 +9015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9AA0DC-D18F-4ED5-BA67-EF937AC170F3}">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9278,9 +9221,26 @@
         <v>378</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9289,6 +9249,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C19">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="top10" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" xr:uid="{95E2A05A-369B-4344-AD59-5FFF02681F97}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9297,7 +9264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE927A1-C973-43D1-853A-BE2EED60170A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -9803,7 +9770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB691B-88E4-4552-BE42-2A756A8BB771}">
   <dimension ref="A2:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A81691-EC22-4BD9-ADA2-86CE1A5480A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09418640-9FCE-4B7B-BAF1-5256FEBEC75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="422">
   <si>
     <t>Company</t>
   </si>
@@ -482,16 +482,10 @@
     <t>Login Netherlands</t>
   </si>
   <si>
-    <t>DIGID</t>
-  </si>
-  <si>
     <t>https://digid.nl/inloggen</t>
   </si>
   <si>
     <t>100% internet.nl</t>
-  </si>
-  <si>
-    <t>eidas</t>
   </si>
   <si>
     <t>https://eidas.minez.nl/</t>
@@ -2026,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR33"/>
+  <dimension ref="A1:BR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2111,67 +2105,67 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
         <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" t="s">
         <v>174</v>
       </c>
-      <c r="K1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" t="s">
-        <v>203</v>
-      </c>
-      <c r="O1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>175</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>176</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>177</v>
       </c>
-      <c r="T1" t="s">
-        <v>178</v>
-      </c>
-      <c r="U1" t="s">
-        <v>179</v>
-      </c>
       <c r="V1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="W1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Y1" t="s">
         <v>138</v>
@@ -2183,61 +2177,61 @@
         <v>140</v>
       </c>
       <c r="AB1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AC1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AD1" t="s">
         <v>134</v>
       </c>
       <c r="AE1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AF1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN1" t="s">
         <v>166</v>
       </c>
-      <c r="AG1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>167</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>168</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>169</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>170</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>171</v>
       </c>
-      <c r="AR1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>173</v>
-      </c>
       <c r="AT1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AU1" t="s">
         <v>142</v>
@@ -2249,67 +2243,67 @@
         <v>144</v>
       </c>
       <c r="AX1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AY1" t="s">
         <v>136</v>
       </c>
       <c r="AZ1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BA1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BB1" t="s">
         <v>145</v>
       </c>
       <c r="BC1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BD1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BE1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BF1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BG1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI1" t="s">
         <v>155</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>156</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>157</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>158</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>159</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>161</v>
       </c>
       <c r="BN1" t="s">
         <v>146</v>
       </c>
       <c r="BO1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BP1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR1" t="s">
         <v>162</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.3">
@@ -2338,25 +2332,25 @@
         <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -2401,28 +2395,28 @@
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AE2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ2">
         <v>1</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL2">
         <v>1</v>
@@ -2464,28 +2458,28 @@
         <v>1</v>
       </c>
       <c r="AY2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AZ2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BA2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BB2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BC2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BD2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE2">
         <v>1</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG2">
         <v>1</v>
@@ -2550,25 +2544,25 @@
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -2613,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="AD3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AE3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL3">
         <v>1</v>
@@ -2676,28 +2670,28 @@
         <v>1</v>
       </c>
       <c r="AY3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AZ3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BA3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BB3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BC3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BD3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE3">
         <v>1</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -2762,25 +2756,25 @@
         <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -2825,28 +2819,28 @@
         <v>0</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AE4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ4">
         <v>1</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AL4">
         <v>1</v>
@@ -2888,28 +2882,28 @@
         <v>1</v>
       </c>
       <c r="AY4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>275</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>277</v>
-      </c>
       <c r="BA4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BB4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BC4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BD4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE4">
         <v>1</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -2974,25 +2968,25 @@
         <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -3037,28 +3031,28 @@
         <v>1</v>
       </c>
       <c r="AD5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AE5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ5">
         <v>1</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL5">
         <v>1</v>
@@ -3100,28 +3094,28 @@
         <v>1</v>
       </c>
       <c r="AY5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BA5" t="s">
         <v>276</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>278</v>
-      </c>
       <c r="BB5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BC5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BD5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE5">
         <v>1</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -3186,25 +3180,25 @@
         <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -3249,28 +3243,28 @@
         <v>1</v>
       </c>
       <c r="AD6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ6">
         <v>1</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL6">
         <v>1</v>
@@ -3312,28 +3306,28 @@
         <v>1</v>
       </c>
       <c r="AY6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AZ6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BA6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BB6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BC6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BD6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE6">
         <v>1</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -3398,10 +3392,10 @@
         <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L7" t="s">
         <v>9</v>
@@ -3413,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3458,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="AD7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AE7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH7" t="s">
         <v>9</v>
@@ -3476,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -3518,28 +3512,28 @@
         <v>1</v>
       </c>
       <c r="AY7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>283</v>
+      </c>
+      <c r="BA7" t="s">
         <v>282</v>
       </c>
-      <c r="AZ7" t="s">
-        <v>285</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>284</v>
-      </c>
       <c r="BB7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BD7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BE7">
         <v>1</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -3604,10 +3598,10 @@
         <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -3619,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3664,13 +3658,13 @@
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AE8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH8" t="s">
         <v>9</v>
@@ -3682,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -3724,28 +3718,28 @@
         <v>1</v>
       </c>
       <c r="AY8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>283</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>285</v>
-      </c>
       <c r="BA8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BB8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BD8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BE8">
         <v>1</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -3810,22 +3804,22 @@
         <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3870,25 +3864,25 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AE9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AH9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ9">
         <v>1</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -3930,28 +3924,28 @@
         <v>1</v>
       </c>
       <c r="AY9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AZ9" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="BA9" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BB9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BC9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE9">
         <v>1</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -4013,25 +4007,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4076,25 +4070,25 @@
         <v>1</v>
       </c>
       <c r="AD10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ10">
         <v>1</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -4136,28 +4130,28 @@
         <v>1</v>
       </c>
       <c r="AY10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AZ10" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="BA10" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BB10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BC10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE10">
         <v>1</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -4222,22 +4216,22 @@
         <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -4282,25 +4276,25 @@
         <v>1</v>
       </c>
       <c r="AD11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AH11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ11">
         <v>1</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -4342,28 +4336,28 @@
         <v>1</v>
       </c>
       <c r="AY11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="BA11" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AZ11" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BA11" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="BB11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BC11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE11">
         <v>1</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -4428,25 +4422,25 @@
         <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -4491,28 +4485,28 @@
         <v>1</v>
       </c>
       <c r="AD12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ12">
         <v>1</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL12">
         <v>1</v>
@@ -4554,28 +4548,28 @@
         <v>1</v>
       </c>
       <c r="AY12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AZ12" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BA12" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BB12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BC12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE12">
         <v>1</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -4640,25 +4634,25 @@
         <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -4703,28 +4697,28 @@
         <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ13">
         <v>1</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -4766,28 +4760,28 @@
         <v>1</v>
       </c>
       <c r="AY13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AZ13" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BB13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BC13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE13">
         <v>1</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -4852,25 +4846,25 @@
         <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -4915,28 +4909,28 @@
         <v>0</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ14">
         <v>1</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL14">
         <v>1</v>
@@ -4978,28 +4972,28 @@
         <v>1</v>
       </c>
       <c r="AY14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AZ14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BA14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BB14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BD14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BE14">
         <v>1</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -5064,25 +5058,25 @@
         <v>92</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -5127,28 +5121,28 @@
         <v>0</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ15">
         <v>1</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -5190,28 +5184,28 @@
         <v>1</v>
       </c>
       <c r="AY15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AZ15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BA15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BB15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BD15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BE15">
         <v>1</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -5276,22 +5270,22 @@
         <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -5336,28 +5330,28 @@
         <v>0</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AF16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AJ16">
         <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AL16">
         <v>1</v>
@@ -5399,25 +5393,25 @@
         <v>1</v>
       </c>
       <c r="AY16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AZ16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BB16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="BC16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE16">
         <v>1</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BG16">
         <v>1</v>
@@ -5482,25 +5476,25 @@
         <v>93</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -5545,28 +5539,28 @@
         <v>0</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AE17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AF17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AH17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ17">
         <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AL17">
         <v>1</v>
@@ -5608,25 +5602,25 @@
         <v>1</v>
       </c>
       <c r="AY17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AZ17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BB17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BC17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BD17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BE17">
         <v>1</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -5691,22 +5685,22 @@
         <v>94</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -5751,25 +5745,25 @@
         <v>1</v>
       </c>
       <c r="AD18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ18">
         <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -5811,28 +5805,28 @@
         <v>1</v>
       </c>
       <c r="AY18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AZ18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BA18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BB18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BC18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE18">
         <v>1</v>
       </c>
       <c r="BF18" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG18">
         <v>1</v>
@@ -5897,22 +5891,22 @@
         <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -5957,25 +5951,25 @@
         <v>1</v>
       </c>
       <c r="AD19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ19">
         <v>1</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -6017,28 +6011,28 @@
         <v>1</v>
       </c>
       <c r="AY19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AZ19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BA19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BB19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BC19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE19">
         <v>1</v>
       </c>
       <c r="BF19" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG19">
         <v>1</v>
@@ -6103,22 +6097,22 @@
         <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -6163,25 +6157,25 @@
         <v>1</v>
       </c>
       <c r="AD20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ20">
         <v>1</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -6223,28 +6217,28 @@
         <v>1</v>
       </c>
       <c r="AY20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AZ20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BA20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BB20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BC20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE20">
         <v>1</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG20">
         <v>1</v>
@@ -6309,25 +6303,25 @@
         <v>95</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -6372,28 +6366,28 @@
         <v>0</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AE21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AH21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ21">
         <v>1</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AL21">
         <v>1</v>
@@ -6435,28 +6429,28 @@
         <v>1</v>
       </c>
       <c r="AY21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AZ21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BA21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BB21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BC21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BD21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE21">
         <v>1</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG21">
         <v>1</v>
@@ -6521,25 +6515,25 @@
         <v>84</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -6584,28 +6578,28 @@
         <v>0</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AE22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AH22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ22">
         <v>1</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AL22">
         <v>1</v>
@@ -6647,28 +6641,28 @@
         <v>1</v>
       </c>
       <c r="AY22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AZ22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BA22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BB22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BC22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BD22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE22">
         <v>1</v>
       </c>
       <c r="BF22" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BG22">
         <v>1</v>
@@ -6733,22 +6727,22 @@
         <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -6793,28 +6787,28 @@
         <v>1</v>
       </c>
       <c r="AD23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ23">
         <v>1</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -6856,25 +6850,25 @@
         <v>1</v>
       </c>
       <c r="AY23" t="s">
+        <v>308</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>310</v>
       </c>
-      <c r="AZ23" t="s">
-        <v>312</v>
-      </c>
       <c r="BB23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BC23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BD23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BE23">
         <v>1</v>
       </c>
       <c r="BF23" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG23">
         <v>0</v>
@@ -6939,22 +6933,22 @@
         <v>83</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -6999,25 +6993,25 @@
         <v>1</v>
       </c>
       <c r="AD24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ24">
         <v>1</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -7059,25 +7053,25 @@
         <v>1</v>
       </c>
       <c r="AY24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AZ24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BB24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BC24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BD24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BE24">
         <v>1</v>
       </c>
       <c r="BF24" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -7142,22 +7136,22 @@
         <v>68</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -7202,25 +7196,25 @@
         <v>1</v>
       </c>
       <c r="AD25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AJ25">
         <v>1</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -7262,25 +7256,25 @@
         <v>1</v>
       </c>
       <c r="AY25" t="s">
+        <v>313</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>315</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BB25" t="s">
         <v>317</v>
       </c>
-      <c r="BB25" t="s">
-        <v>319</v>
-      </c>
       <c r="BC25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BD25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BE25">
         <v>1</v>
       </c>
       <c r="BF25" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -7345,22 +7339,22 @@
         <v>75</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="L26" t="s">
+        <v>374</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L26" t="s">
-        <v>376</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -7405,25 +7399,25 @@
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AE26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG26" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AH26" t="s">
-        <v>376</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="AJ26">
         <v>1</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -7465,25 +7459,25 @@
         <v>1</v>
       </c>
       <c r="AY26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AZ26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BB26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BC26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BD26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BE26">
         <v>1</v>
       </c>
       <c r="BF26" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -7548,22 +7542,22 @@
         <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -7608,25 +7602,25 @@
         <v>1</v>
       </c>
       <c r="AD27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AE27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AJ27">
         <v>1</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -7668,25 +7662,25 @@
         <v>1</v>
       </c>
       <c r="AY27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AZ27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BB27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BC27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BD27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BE27">
         <v>1</v>
       </c>
       <c r="BF27" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -7751,22 +7745,22 @@
         <v>82</v>
       </c>
       <c r="I28" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" t="s">
         <v>180</v>
       </c>
-      <c r="K28" t="s">
-        <v>182</v>
-      </c>
       <c r="L28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -7814,23 +7808,23 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AG28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AH28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AI28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AJ28">
         <v>1</v>
       </c>
       <c r="AK28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -7872,25 +7866,25 @@
         <v>1</v>
       </c>
       <c r="AY28" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AZ28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BB28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BC28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="BD28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="BE28">
         <v>1</v>
       </c>
       <c r="BF28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -7955,25 +7949,25 @@
         <v>81</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -8018,25 +8012,25 @@
         <v>0</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AE29" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>321</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -8078,25 +8072,25 @@
         <v>1</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AZ29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BB29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BC29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="BD29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="BE29">
         <v>1</v>
       </c>
       <c r="BF29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BG29">
         <v>0</v>
@@ -8133,16 +8127,6 @@
       </c>
       <c r="BR29">
         <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -9025,147 +9009,147 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
         <v>320</v>
       </c>
-      <c r="C4" t="s">
-        <v>322</v>
-      </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" t="s">
         <v>326</v>
       </c>
-      <c r="C5" t="s">
-        <v>328</v>
-      </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
         <v>333</v>
       </c>
-      <c r="C6" t="s">
-        <v>335</v>
-      </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s">
         <v>350</v>
       </c>
-      <c r="B9" t="s">
-        <v>352</v>
-      </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" t="s">
         <v>357</v>
-      </c>
-      <c r="D10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -9173,69 +9157,69 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
         <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -9978,7 +9962,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10018,207 +10002,207 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" t="s">
         <v>224</v>
       </c>
-      <c r="C86" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" t="s">
-        <v>226</v>
-      </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C91">
         <v>33480</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F91" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508EDB59-18AA-46E2-B89D-4A30ED6C34B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9583B5-6C1B-461D-B106-BDDED764EA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,9 +446,6 @@
     <t>Ideas for graph</t>
   </si>
   <si>
-    <t>https://scheepvaartnet.nl/azvz-zorgverzekering/aanvraagformulier-azvz/</t>
-  </si>
-  <si>
     <t>Home cookies</t>
   </si>
   <si>
@@ -1178,9 +1175,6 @@
     <t>Registration IPv4</t>
   </si>
   <si>
-    <t>https://service.zorgenzekerheid.nl/advies/uwnawgegevens.html</t>
-  </si>
-  <si>
     <t>193.173.52.131</t>
   </si>
   <si>
@@ -1416,6 +1410,12 @@
   </si>
   <si>
     <t>www.service.zorgenzekerheid.nl</t>
+  </si>
+  <si>
+    <t>https://www.scheepvaartnet.nl/azvz-zorgverzekering/aanvraagformulier-azvz/</t>
+  </si>
+  <si>
+    <t>https://www.service.zorgenzekerheid.nl/advies/uwnawgegevens.html</t>
   </si>
 </sst>
 </file>
@@ -1558,6 +1558,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
@@ -1637,6 +1644,7 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1644,7 +1652,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1688,7 +1695,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1696,13 +1702,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2132,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF24" sqref="AF24"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6:AZ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2215,211 +2215,211 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" t="s">
-        <v>150</v>
       </c>
       <c r="H1" t="s">
         <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T1" t="s">
+        <v>172</v>
+      </c>
+      <c r="U1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W1" t="s">
         <v>184</v>
       </c>
-      <c r="N1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>170</v>
-      </c>
-      <c r="R1" t="s">
-        <v>171</v>
-      </c>
-      <c r="S1" t="s">
-        <v>172</v>
-      </c>
-      <c r="T1" t="s">
-        <v>173</v>
-      </c>
-      <c r="U1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W1" t="s">
-        <v>185</v>
-      </c>
       <c r="X1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA1" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>137</v>
       </c>
-      <c r="AB1" t="s">
-        <v>138</v>
-      </c>
       <c r="AC1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AD1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AE1" t="s">
         <v>133</v>
       </c>
       <c r="AF1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AG1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AH1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO1" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>409</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BG1" t="s">
         <v>201</v>
       </c>
-      <c r="AN1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>411</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>449</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP1" t="s">
         <v>143</v>
       </c>
-      <c r="BE1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR1" t="s">
         <v>157</v>
       </c>
-      <c r="BP1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>343</v>
-      </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>158</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>159</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.3">
@@ -2448,28 +2448,28 @@
         <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" t="s">
         <v>243</v>
       </c>
-      <c r="K2" t="s">
-        <v>244</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2514,31 +2514,31 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AG2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH2" t="s">
         <v>243</v>
       </c>
-      <c r="AH2" t="s">
-        <v>244</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -2577,31 +2577,31 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BB2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC2" t="s">
         <v>273</v>
       </c>
-      <c r="BC2" t="s">
-        <v>274</v>
-      </c>
       <c r="BD2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BF2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BG2">
         <v>1</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI2">
         <v>1</v>
@@ -2666,28 +2666,28 @@
         <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" t="s">
         <v>243</v>
       </c>
-      <c r="K3" t="s">
-        <v>244</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2732,31 +2732,31 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AF3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH3" t="s">
         <v>243</v>
       </c>
-      <c r="AH3" t="s">
-        <v>244</v>
-      </c>
       <c r="AI3" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -2795,31 +2795,31 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BB3" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC3" t="s">
         <v>273</v>
       </c>
-      <c r="BC3" t="s">
-        <v>274</v>
-      </c>
       <c r="BD3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BF3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BG3">
         <v>1</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI3">
         <v>1</v>
@@ -2884,28 +2884,28 @@
         <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" t="s">
         <v>243</v>
       </c>
-      <c r="K4" t="s">
-        <v>244</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2950,31 +2950,31 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AG4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AH4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AI4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AJ4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -3013,31 +3013,31 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BB4" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC4" t="s">
         <v>273</v>
       </c>
-      <c r="BC4" t="s">
-        <v>274</v>
-      </c>
       <c r="BD4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BF4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BG4">
         <v>1</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI4">
         <v>1</v>
@@ -3102,28 +3102,28 @@
         <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" t="s">
         <v>243</v>
       </c>
-      <c r="K5" t="s">
-        <v>244</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3168,31 +3168,31 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AF5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH5" t="s">
         <v>243</v>
       </c>
-      <c r="AH5" t="s">
-        <v>244</v>
-      </c>
       <c r="AI5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB5" t="s">
         <v>272</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>273</v>
       </c>
-      <c r="BC5" t="s">
-        <v>274</v>
-      </c>
       <c r="BD5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BF5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BG5">
         <v>1</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI5">
         <v>1</v>
@@ -3320,28 +3320,28 @@
         <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" t="s">
         <v>243</v>
       </c>
-      <c r="K6" t="s">
-        <v>244</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -3386,31 +3386,31 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AF6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH6" t="s">
         <v>243</v>
       </c>
-      <c r="AH6" t="s">
-        <v>244</v>
-      </c>
       <c r="AI6" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -3449,31 +3449,31 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC6" t="s">
         <v>273</v>
       </c>
-      <c r="BC6" t="s">
-        <v>274</v>
-      </c>
       <c r="BD6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BF6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BG6">
         <v>1</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI6">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3601,16 +3601,16 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AF7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ7" t="s">
         <v>9</v>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -3661,31 +3661,31 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BB7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BC7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BD7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BF7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BG7">
         <v>1</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BI7">
         <v>1</v>
@@ -3750,13 +3750,13 @@
         <v>84</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3813,16 +3813,16 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ8" t="s">
         <v>9</v>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -3873,31 +3873,31 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="s">
+        <v>278</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC8" t="s">
         <v>279</v>
       </c>
-      <c r="BB8" t="s">
-        <v>281</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>280</v>
-      </c>
       <c r="BD8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BF8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BG8">
         <v>1</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BI8">
         <v>1</v>
@@ -3962,25 +3962,25 @@
         <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4025,28 +4025,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AJ9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -4085,31 +4085,31 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BB9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BC9" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="BD9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BE9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG9">
         <v>1</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI9">
         <v>1</v>
@@ -4171,28 +4171,28 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -4237,28 +4237,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AF10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -4297,31 +4297,31 @@
         <v>0</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BB10" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC10" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BC10" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="BD10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BE10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG10">
         <v>1</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI10">
         <v>1</v>
@@ -4386,25 +4386,25 @@
         <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4449,28 +4449,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AJ11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -4509,31 +4509,31 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="s">
+        <v>282</v>
+      </c>
+      <c r="BB11" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BB11" s="3" t="s">
+      <c r="BC11" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BC11" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="BD11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BE11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG11">
         <v>1</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI11">
         <v>1</v>
@@ -4598,28 +4598,28 @@
         <v>89</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -4664,31 +4664,31 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AF12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AI12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AJ12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN12">
         <v>1</v>
@@ -4727,31 +4727,31 @@
         <v>0</v>
       </c>
       <c r="AZ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BB12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC12" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BC12" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="BD12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BE12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG12">
         <v>1</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI12">
         <v>1</v>
@@ -4816,28 +4816,28 @@
         <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" t="s">
         <v>251</v>
       </c>
-      <c r="K13" t="s">
-        <v>252</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -4882,31 +4882,31 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH13" t="s">
         <v>251</v>
       </c>
-      <c r="AH13" t="s">
-        <v>252</v>
-      </c>
       <c r="AI13" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AJ13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN13">
         <v>1</v>
@@ -4945,31 +4945,31 @@
         <v>0</v>
       </c>
       <c r="AZ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC13" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BC13" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="BD13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BE13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG13">
         <v>1</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI13">
         <v>1</v>
@@ -5034,28 +5034,28 @@
         <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -5100,31 +5100,31 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AF14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN14">
         <v>1</v>
@@ -5163,31 +5163,31 @@
         <v>0</v>
       </c>
       <c r="AZ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="s">
+        <v>289</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC14" t="s">
         <v>290</v>
       </c>
-      <c r="BB14" t="s">
-        <v>253</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>291</v>
-      </c>
       <c r="BD14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BF14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BG14">
         <v>1</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI14">
         <v>1</v>
@@ -5252,28 +5252,28 @@
         <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -5318,31 +5318,31 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AF15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN15">
         <v>1</v>
@@ -5381,31 +5381,31 @@
         <v>0</v>
       </c>
       <c r="AZ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BB15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BC15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BD15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BE15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BF15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BG15">
         <v>1</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI15">
         <v>1</v>
@@ -5470,25 +5470,25 @@
         <v>90</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5533,31 +5533,31 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AF16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AH16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AJ16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN16">
         <v>1</v>
@@ -5596,28 +5596,28 @@
         <v>0</v>
       </c>
       <c r="AZ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BB16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BD16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BE16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG16">
         <v>1</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BI16">
         <v>1</v>
@@ -5682,28 +5682,28 @@
         <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -5748,31 +5748,31 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AF17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AG17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AH17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AJ17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN17">
         <v>1</v>
@@ -5811,28 +5811,28 @@
         <v>0</v>
       </c>
       <c r="AZ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB17" t="s">
         <v>304</v>
       </c>
-      <c r="BB17" t="s">
-        <v>305</v>
-      </c>
       <c r="BD17" t="s">
+        <v>337</v>
+      </c>
+      <c r="BE17" t="s">
         <v>338</v>
       </c>
-      <c r="BE17" t="s">
-        <v>339</v>
-      </c>
       <c r="BF17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BG17">
         <v>1</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BI17">
         <v>0</v>
@@ -5897,25 +5897,25 @@
         <v>93</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5960,28 +5960,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AF18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -6020,31 +6020,31 @@
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BB18" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC18" t="s">
         <v>284</v>
       </c>
-      <c r="BC18" t="s">
-        <v>285</v>
-      </c>
       <c r="BD18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BE18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG18">
         <v>1</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI18">
         <v>1</v>
@@ -6109,25 +6109,25 @@
         <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -6172,28 +6172,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AF19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN19">
         <v>0</v>
@@ -6232,31 +6232,31 @@
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BB19" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC19" t="s">
         <v>284</v>
       </c>
-      <c r="BC19" t="s">
-        <v>285</v>
-      </c>
       <c r="BD19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BE19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG19">
         <v>1</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI19">
         <v>1</v>
@@ -6321,25 +6321,25 @@
         <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -6384,28 +6384,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AF20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -6444,31 +6444,31 @@
         <v>0</v>
       </c>
       <c r="AZ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BB20" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC20" t="s">
         <v>284</v>
       </c>
-      <c r="BC20" t="s">
-        <v>285</v>
-      </c>
       <c r="BD20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BE20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BF20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG20">
         <v>1</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI20">
         <v>1</v>
@@ -6533,28 +6533,28 @@
         <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" t="s">
         <v>261</v>
       </c>
-      <c r="K21" t="s">
-        <v>262</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -6599,31 +6599,31 @@
         <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AF21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AH21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AJ21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AN21">
         <v>1</v>
@@ -6662,31 +6662,31 @@
         <v>0</v>
       </c>
       <c r="AZ21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BB21" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC21" t="s">
         <v>273</v>
       </c>
-      <c r="BC21" t="s">
-        <v>274</v>
-      </c>
       <c r="BD21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BE21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BF21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BG21">
         <v>1</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI21">
         <v>1</v>
@@ -6751,28 +6751,28 @@
         <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -6817,31 +6817,31 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AF22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AG22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AH22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AJ22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AN22">
         <v>1</v>
@@ -6880,31 +6880,31 @@
         <v>1</v>
       </c>
       <c r="AZ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC22" t="s">
         <v>300</v>
       </c>
-      <c r="BB22" t="s">
-        <v>303</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>301</v>
-      </c>
       <c r="BD22" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE22" t="s">
         <v>325</v>
       </c>
-      <c r="BE22" t="s">
-        <v>326</v>
-      </c>
       <c r="BF22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BG22">
         <v>1</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BI22">
         <v>1</v>
@@ -6969,25 +6969,25 @@
         <v>88</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -7032,31 +7032,31 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN23">
         <v>0</v>
@@ -7095,28 +7095,28 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BB23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BD23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BE23" t="s">
+        <v>319</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>319</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG23">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="BI23">
         <v>0</v>
@@ -7181,25 +7181,25 @@
         <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -7244,28 +7244,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AF24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI24" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -7304,28 +7304,28 @@
         <v>0</v>
       </c>
       <c r="AZ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BB24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BD24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BE24" t="s">
+        <v>319</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>319</v>
+      </c>
+      <c r="BG24">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG24">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="BI24">
         <v>0</v>
@@ -7390,25 +7390,25 @@
         <v>68</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -7453,28 +7453,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI25" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -7513,28 +7513,28 @@
         <v>0</v>
       </c>
       <c r="AZ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BB25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BD25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BE25" t="s">
+        <v>319</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>319</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG25">
-        <v>1</v>
-      </c>
-      <c r="BH25" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="BI25">
         <v>0</v>
@@ -7599,25 +7599,25 @@
         <v>75</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="M26" t="s">
         <v>371</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -7662,28 +7662,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AF26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AG26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AI26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>371</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AK26" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN26">
         <v>0</v>
@@ -7722,28 +7722,28 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BB26" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD26" t="s">
         <v>314</v>
       </c>
-      <c r="BD26" t="s">
-        <v>315</v>
-      </c>
       <c r="BE26" t="s">
+        <v>319</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>319</v>
+      </c>
+      <c r="BG26">
+        <v>1</v>
+      </c>
+      <c r="BH26" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG26">
-        <v>1</v>
-      </c>
-      <c r="BH26" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="BI26">
         <v>0</v>
@@ -7808,25 +7808,25 @@
         <v>80</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7871,28 +7871,28 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AF27" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AG27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN27">
         <v>0</v>
@@ -7931,28 +7931,28 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BB27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BD27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BE27" t="s">
+        <v>319</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>319</v>
+      </c>
+      <c r="BG27">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG27">
-        <v>1</v>
-      </c>
-      <c r="BH27" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="BI27">
         <v>0</v>
@@ -8014,28 +8014,28 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -8080,29 +8080,29 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>135</v>
+        <v>457</v>
       </c>
       <c r="AF28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AJ28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -8141,28 +8141,28 @@
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BB28" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD28" t="s">
         <v>182</v>
       </c>
-      <c r="BD28" t="s">
-        <v>183</v>
-      </c>
       <c r="BE28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BF28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BG28">
         <v>1</v>
       </c>
       <c r="BH28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BI28">
         <v>0</v>
@@ -8227,28 +8227,28 @@
         <v>81</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
         <v>258</v>
       </c>
-      <c r="K29" t="s">
-        <v>259</v>
-      </c>
       <c r="L29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -8293,28 +8293,28 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="AF29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AG29" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>317</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AL29">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -8353,28 +8353,28 @@
         <v>0</v>
       </c>
       <c r="AZ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BB29" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD29" t="s">
         <v>182</v>
       </c>
-      <c r="BD29" t="s">
-        <v>183</v>
-      </c>
       <c r="BE29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BF29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BG29">
         <v>1</v>
       </c>
       <c r="BH29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BI29">
         <v>0</v>
@@ -8529,8 +8529,8 @@
     <cfRule type="duplicateValues" dxfId="49" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K31 K34:K1048576">
+    <cfRule type="top10" priority="103" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="48" priority="102"/>
-    <cfRule type="top10" priority="103" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K13 K16:K29">
     <cfRule type="duplicateValues" dxfId="47" priority="117"/>
@@ -8656,34 +8656,34 @@
     <cfRule type="duplicateValues" dxfId="33" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH3">
+    <cfRule type="top10" priority="69" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="32" priority="68"/>
-    <cfRule type="top10" priority="69" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="31" priority="70"/>
     <cfRule type="duplicateValues" dxfId="30" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH6">
-    <cfRule type="duplicateValues" dxfId="29" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="61"/>
     <cfRule type="top10" priority="60" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH8">
     <cfRule type="duplicateValues" dxfId="26" priority="50"/>
     <cfRule type="top10" priority="51" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH9:AH13">
-    <cfRule type="duplicateValues" dxfId="23" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="43"/>
     <cfRule type="top10" priority="42" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="41"/>
     <cfRule type="duplicateValues" dxfId="21" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
     <cfRule type="top10" priority="17" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8708,16 +8708,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18:AH20">
-    <cfRule type="duplicateValues" dxfId="14" priority="32"/>
     <cfRule type="top10" priority="33" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH23:AH25">
-    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
     <cfRule type="top10" priority="24" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH26">
     <cfRule type="duplicateValues" dxfId="8" priority="77"/>
@@ -9179,7 +9179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW2:AZ13 AW16:AZ29 AX14:AZ15">
+  <conditionalFormatting sqref="AW16:AY29 AX14:AY15 AW2:AZ5 AW6:AY13 AZ6:AZ29">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9332,6 +9332,7 @@
     <hyperlink ref="AF25" r:id="rId92" xr:uid="{DF10C723-F06F-42D2-BBC2-631BB4973626}"/>
     <hyperlink ref="AF19" r:id="rId93" xr:uid="{70A5BAAA-5790-4919-8346-E017C3255984}"/>
     <hyperlink ref="AF14" r:id="rId94" xr:uid="{9129E375-E5C7-43F9-AB82-3C6F6638EBD4}"/>
+    <hyperlink ref="AE29" r:id="rId95" xr:uid="{952A0304-5B2C-4D4B-BA4A-D4C03F0B7612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9349,147 +9350,147 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
         <v>327</v>
-      </c>
-      <c r="C2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" t="s">
-        <v>189</v>
-      </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" t="s">
         <v>323</v>
       </c>
-      <c r="B5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
-      </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
         <v>330</v>
       </c>
-      <c r="B6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" t="s">
-        <v>331</v>
-      </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" t="s">
         <v>334</v>
       </c>
-      <c r="C7" t="s">
-        <v>335</v>
-      </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" t="s">
         <v>339</v>
       </c>
-      <c r="C8" t="s">
-        <v>340</v>
-      </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" t="s">
         <v>346</v>
       </c>
-      <c r="B9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>347</v>
-      </c>
-      <c r="D9" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" t="s">
         <v>354</v>
       </c>
-      <c r="B10" t="s">
-        <v>355</v>
-      </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" t="s">
         <v>180</v>
       </c>
-      <c r="B11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" t="s">
-        <v>181</v>
-      </c>
       <c r="D11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -9497,69 +9498,69 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" t="s">
         <v>363</v>
-      </c>
-      <c r="D13" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" t="s">
         <v>366</v>
-      </c>
-      <c r="D14" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" t="s">
         <v>374</v>
       </c>
-      <c r="C16" t="s">
-        <v>375</v>
-      </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
         <v>145</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -10302,7 +10303,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10337,212 +10338,212 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" t="s">
         <v>213</v>
-      </c>
-      <c r="B81" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" t="s">
         <v>233</v>
-      </c>
-      <c r="C82" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" t="s">
         <v>215</v>
-      </c>
-      <c r="B83" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" t="s">
         <v>220</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>221</v>
       </c>
-      <c r="D86" t="s">
-        <v>222</v>
-      </c>
       <c r="E86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C91">
         <v>33480</v>
       </c>
       <c r="E91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" t="s">
         <v>228</v>
-      </c>
-      <c r="F91" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
+        <v>237</v>
+      </c>
+      <c r="F92" t="s">
         <v>238</v>
-      </c>
-      <c r="F92" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" t="s">
         <v>205</v>
-      </c>
-      <c r="B95" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" t="s">
         <v>208</v>
-      </c>
-      <c r="B97" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
         <v>211</v>
-      </c>
-      <c r="B99" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9583B5-6C1B-461D-B106-BDDED764EA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466BD0A1-48B8-4008-933F-675F53FE6502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="459">
   <si>
     <t>Company</t>
   </si>
@@ -848,574 +848,574 @@
     <t>apps.zorgenzekerheid.nl</t>
   </si>
   <si>
+    <t>13.248.206.174;76.223.71.132</t>
+  </si>
+  <si>
+    <t>2600:9000:a61c:a0a1:422:c6a5:8963:492c;2600:9000:a50f:9f2b:9243:9933:1f8c:a16c</t>
+  </si>
+  <si>
+    <t>Check mijnzorg.fbto.nl where client see informations</t>
+  </si>
+  <si>
+    <t>2a02:26f0:c900:b::5f65:4a0c;2a02:26f0:c900:b::5f65:4a2c</t>
+  </si>
+  <si>
+    <t>2.18.244.78;2.18.244.78</t>
+  </si>
+  <si>
+    <t>104.16.146.28;104.16.147.28</t>
+  </si>
+  <si>
+    <t>2606:4700::6810:921c;2606:4700::6810:931c</t>
+  </si>
+  <si>
+    <t>Login ISP</t>
+  </si>
+  <si>
+    <t>Login cloud</t>
+  </si>
+  <si>
+    <t>2a02:26f0:c900:b::5f65:4a13;2a02:26f0:c900:b::5f65:4a32</t>
+  </si>
+  <si>
+    <t>Support iDIN</t>
+  </si>
+  <si>
+    <t>2603:1026:3000:148::7;2603:1026:3000:148::10;2603:1026:3000:150::a;2603:1026:3000:148::e;2603:1026:3000:150::5;2603:1026:3000:150::6;2603:1027:1:158::8;2603:1026:3000:150::8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>20.190.160.17;20.190.160.22;40.126.32.76;40.126.32.136;20.190.160.14;40.126.32.140;40.126.32.68;40.126.32.74</t>
+  </si>
+  <si>
+    <t>109.68.90.49</t>
+  </si>
+  <si>
+    <t>141.193.179.212</t>
+  </si>
+  <si>
+    <t>141.193.179.165</t>
+  </si>
+  <si>
+    <t>inloggen.vgz.nl</t>
+  </si>
+  <si>
+    <t>Support login</t>
+  </si>
+  <si>
+    <t>64.113.50.231</t>
+  </si>
+  <si>
+    <t>141.193.179.238</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>ManagedWay</t>
+  </si>
+  <si>
+    <t>KPN</t>
+  </si>
+  <si>
+    <t>AS53292 ManagedWay;ManagedWay (managedway.com);ManagedWay;MWAY</t>
+  </si>
+  <si>
+    <t>ManagedWay;MWAY</t>
+  </si>
+  <si>
+    <t>MWAY</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft </t>
+  </si>
+  <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>AS8075 Microsoft Corporation;Microsoft Corporation;Microsoft Corporation (microsoft.com)</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc.;Amazon.com, Inc.;AMAZON-02</t>
+  </si>
+  <si>
+    <t>AS16509 Amazon.com, Inc.;Amazon.com, Inc. (aws.com);AMAZON-02</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>CloudFlare</t>
+  </si>
+  <si>
+    <t>Cloudflare</t>
+  </si>
+  <si>
+    <t>AS13335 Cloudflare, Inc.;Cloudflare, Inc.;CLOUDFLARENET</t>
+  </si>
+  <si>
+    <t>CloudFlare Inc.;CLOUDFLARENET;Cloudflare</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>AS25148 ORANGE BUSINESS DIGITAL NORWAY AS;Signicat Vips</t>
+  </si>
+  <si>
+    <t>Orange Business Digital Norway AS;ORANGE BUSINESS DIGITAL NORWAY AS;Orange Business NO Network;ORANGE BUSINESS DIGITAL NORWAY AS;Basefarm Webdeal network</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Login Europa</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Akamai Technologies Inc.; Akamai International B.V.</t>
+  </si>
+  <si>
+    <t>AS20940 Akamai International B.V.;Akamai Technologies, Inc.;Akamai Technologies, Inc. (akamai.com);Akamai International B.V.</t>
+  </si>
+  <si>
+    <t>Akamai</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Home Location IP</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>A100 ROW GmbH</t>
+  </si>
+  <si>
+    <t>A100 ROW GmbH;Amazon.com Inc.;Amazon.com, Inc.;AMAZON-02</t>
+  </si>
+  <si>
+    <t>Amazon germany</t>
+  </si>
+  <si>
+    <t>Amazone</t>
+  </si>
+  <si>
+    <t>Home in Europa</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>ASR Nederland N.V.;Asr Nederland N.V.;ASR Nederland N.V.</t>
+  </si>
+  <si>
+    <t>AS50737 ASR Nederland N.V.; Asr Nederland N.V. (asr.nl); ASR Nederland N.V.</t>
+  </si>
+  <si>
+    <t>Tilburg</t>
+  </si>
+  <si>
+    <t>AS1136 KPN B.V.;Cz Groep Zorgverzekeringen (kpn.net);KPN B.V.</t>
+  </si>
+  <si>
+    <t>KPN CZ</t>
+  </si>
+  <si>
+    <t>KPN B.V.</t>
+  </si>
+  <si>
+    <t>AS16625 Akamai Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Akamai Amsterdam</t>
+  </si>
+  <si>
+    <t>Akamai Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>AS9150 Interconnect;ML Consultancy;Indicia e-Business B.V.</t>
+  </si>
+  <si>
+    <t>Indicia e-Business B.V.; MLC/InterConnect; Ml Consultancy; MLC/InterConnect routed block</t>
+  </si>
+  <si>
+    <t>s-Hertogenbosch</t>
+  </si>
+  <si>
+    <t>Interconnect</t>
+  </si>
+  <si>
+    <t>interconnect</t>
+  </si>
+  <si>
+    <t>Claranet</t>
+  </si>
+  <si>
+    <t>AS8426 Claranet Limited;UnitedConsumers Brand &amp; IP B.V;Unitedconsumers Brand &amp; Ip B.V. (unitedconsumers.com)</t>
+  </si>
+  <si>
+    <t>UnitedConsumers Brand &amp; IP B.V.;Claranet Limited</t>
+  </si>
+  <si>
+    <t>Registration europa</t>
+  </si>
+  <si>
+    <t>Registration IPv4</t>
+  </si>
+  <si>
+    <t>193.173.52.131</t>
+  </si>
+  <si>
+    <t>Registration Location</t>
+  </si>
+  <si>
+    <t>Netherlandse</t>
+  </si>
+  <si>
+    <t>https://www.unitedconsumers.com/zorgverzekering/aanmelden/offerte.asp</t>
+  </si>
+  <si>
+    <t>https://www.zekur.nl/zorgverzekering/afsluiten</t>
+  </si>
+  <si>
+    <t>https://www.defriesland.nl/zorgverzekering/premie-berekenen/persoonsgegevens</t>
+  </si>
+  <si>
+    <t>https://www.fbto.nl/zorgverzekering/premie-berekenen/naam</t>
+  </si>
+  <si>
+    <t>https://bankieren.rabobank.nl/</t>
+  </si>
+  <si>
+    <t>https://www.dechristelijkezorgverzekeraar.nl/zorgverzekering/premie-berekenen/persoonsgegevens</t>
+  </si>
+  <si>
+    <t>https://www.zilverenkruis.nl/consumenten/zorgverzekering/premie-berekenen/persoonsgegevens</t>
+  </si>
+  <si>
+    <t>https://www.asr.nl/verzekeringen/zorgverzekering/afsluiten#/user-data</t>
+  </si>
+  <si>
+    <t>https://www.asr.nl/verzekeringen/zorgverzekering/ikkieszelf/afsluiten#/user-data</t>
+  </si>
+  <si>
+    <t>https://www.cz.nl/zorgverzekering/premie-berekenen/aanmelden</t>
+  </si>
+  <si>
+    <t>https://www.just.nl/zorgverzekering/premie-berekenen/aanmelden</t>
+  </si>
+  <si>
+    <t>https://www.czdirect.cz.nl/zorgverzekering/premie-berekenen/aanmelden</t>
+  </si>
+  <si>
+    <t>https://www.nn.nl/Particulier/Zorgverzekering/Zorgverzekering-aanvragen.htm#aanvrager</t>
+  </si>
+  <si>
+    <t>https://www.ohra.nl/zorgverzekering/berekenen#aanvrager</t>
+  </si>
+  <si>
+    <t>https://aanmelden.dsw.nl/aanmelden</t>
+  </si>
+  <si>
+    <t>https://aanmelden.stadholland.nl/</t>
+  </si>
+  <si>
+    <t>Registration traditioneel</t>
+  </si>
+  <si>
+    <t>https://aanvraag.salland.nl/persoonsgegevens</t>
+  </si>
+  <si>
+    <t>https://aanvragen.aevitae.com/nl/44086/personal_data</t>
+  </si>
+  <si>
+    <t>https://www.anderzorg.nl/premie-berekenen-en-aanvragen</t>
+  </si>
+  <si>
+    <t>https://www.menzis.nl/premie-berekenen-en-aanvragen</t>
+  </si>
+  <si>
+    <t>https://www.vinkvink.nl/premie-berekenen-en-aanvragen</t>
+  </si>
+  <si>
+    <t>https://aanvragen.onvz.nl/index.html</t>
+  </si>
+  <si>
+    <t>https://aanvragen.vvaazorgverzekering.nl/index.html</t>
+  </si>
+  <si>
+    <t>https://www.vgzbewuzt.nl/premie-berekenen/stap4</t>
+  </si>
+  <si>
+    <t>https://www.vgz.nl/zorgverzekering/premie-berekenen-en-afsluiten#/stap2</t>
+  </si>
+  <si>
+    <t>https://www.unive.nl/verzekeringspakket/premieberekenen-en-afsluiten/Gegevens?AanvraagId=54542</t>
+  </si>
+  <si>
+    <t>Registration vs Home</t>
+  </si>
+  <si>
+    <t>Login vs Home</t>
+  </si>
+  <si>
+    <t>13.107.246.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2620:1ec:bdf::67</t>
+  </si>
+  <si>
+    <t>141.101.90.104;141.101.90.105;141.101.90.106;141.101.90.107</t>
+  </si>
+  <si>
+    <t>2a06:98c1:3200::90:80;2a06:98c1:3200::90:81;2a06:98c1:3200::90:82;2a06:98c1:3200::90:83</t>
+  </si>
+  <si>
+    <t>2a05:d014:145:aa02:39cc:ca87:679c:1a44;2a05:d014:145:aa01:e7ed:1bdf:317c:168e;2a05:d014:145:aa00:63e4:ad8e:c1c7:8675</t>
+  </si>
+  <si>
+    <t>3.125.189.196;3.126.216.110;3.127.11.115</t>
+  </si>
+  <si>
+    <t>2a02:26f0:c900:b::5f65:4a23;2a02:26f0:c900:b::5f65:4a27;2a02:26f0:c900:b::5f65:4a29;2a02:26f0:c900:b::5f65:4a31;2a02:26f0:c900:b::5f65:4a36</t>
+  </si>
+  <si>
+    <t>2.18.244.95; 2.18.244.99</t>
+  </si>
+  <si>
+    <t>Home Domain</t>
+  </si>
+  <si>
+    <t>www.defriesland.nl</t>
+  </si>
+  <si>
+    <t>www.fbto.nl</t>
+  </si>
+  <si>
+    <t>www.interpolis.nl</t>
+  </si>
+  <si>
+    <t>www.dechristelijkezorgverzekeraar.nl</t>
+  </si>
+  <si>
+    <t>www.zilverenkruis.nl</t>
+  </si>
+  <si>
+    <t>www.asr.nl</t>
+  </si>
+  <si>
+    <t>www.cz.nl</t>
+  </si>
+  <si>
+    <t>www.czdirect.cz.nl</t>
+  </si>
+  <si>
+    <t>www.nn.nl</t>
+  </si>
+  <si>
+    <t>www.just.nl</t>
+  </si>
+  <si>
+    <t>www.ohra.nl</t>
+  </si>
+  <si>
+    <t>www.dsw.nl</t>
+  </si>
+  <si>
+    <t>www.stadholland.nl</t>
+  </si>
+  <si>
+    <t>www.zorgenzekerheid.nl</t>
+  </si>
+  <si>
+    <t>www.unitedconsumers.com</t>
+  </si>
+  <si>
+    <t>www.salland.nl</t>
+  </si>
+  <si>
+    <t>www.anderzorg.nl</t>
+  </si>
+  <si>
+    <t>www.aevitae.com</t>
+  </si>
+  <si>
+    <t>www.menzis.nl</t>
+  </si>
+  <si>
+    <t>www.vgz.nl</t>
+  </si>
+  <si>
+    <t>www.vgzbewuzt.nl</t>
+  </si>
+  <si>
+    <t>www.zekur.nl</t>
+  </si>
+  <si>
+    <t>www.unive.nl</t>
+  </si>
+  <si>
+    <t>www.onvz.nl</t>
+  </si>
+  <si>
+    <t>www.vinkvink.nl</t>
+  </si>
+  <si>
+    <t>www.vvaa.nl</t>
+  </si>
+  <si>
+    <t>www.scheepvaartnet.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.scheepvaartnet.nl/azvz-zorgverzekering/ </t>
+  </si>
+  <si>
+    <t>Login domain</t>
+  </si>
+  <si>
+    <t>Registration domain</t>
+  </si>
+  <si>
+    <t>www.bankieren.rabobank.nl</t>
+  </si>
+  <si>
+    <t>www.aanmelden.dsw.nl</t>
+  </si>
+  <si>
+    <t>www.aanmelden.stadholland.nl</t>
+  </si>
+  <si>
+    <t>www.aanvragen.aevitae.com</t>
+  </si>
+  <si>
+    <t>www.aanvraag.salland.nl</t>
+  </si>
+  <si>
+    <t>www.aanvragen.onvz.nl</t>
+  </si>
+  <si>
+    <t>www.aanvragen.vvaa.nl</t>
+  </si>
+  <si>
+    <t>www.service.zorgenzekerheid.nl</t>
+  </si>
+  <si>
+    <t>https://www.scheepvaartnet.nl/azvz-zorgverzekering/aanvraagformulier-azvz/</t>
+  </si>
+  <si>
+    <t>https://www.service.zorgenzekerheid.nl/advies/uwnawgegevens.html</t>
+  </si>
+  <si>
+    <t>www.login-select.fbto.nl</t>
+  </si>
+  <si>
+    <t>www.login-select.interpolis.nl</t>
+  </si>
+  <si>
+    <t>www.login-select.dechristelijkezorgverzekeraar.nl</t>
+  </si>
+  <si>
+    <t>www.login-select.zilverenkruis.nl</t>
+  </si>
+  <si>
+    <t>www.authenticatie.mijnzorg.asr.nl</t>
+  </si>
+  <si>
+    <t>www.authenticatie.mijnzorg-ikkieszelf.asr.nl</t>
+  </si>
+  <si>
+    <t>www.login.cz.nl</t>
+  </si>
+  <si>
+    <t>www.login.just.nl</t>
+  </si>
+  <si>
+    <t>www.login.nn-zorg.nl</t>
+  </si>
+  <si>
+    <t>www.login.ohra-zorg.nl</t>
+  </si>
+  <si>
+    <t>www.authenticatie.dsw.nl</t>
+  </si>
+  <si>
+    <t>www.authenticatie.stadholland.nl</t>
+  </si>
+  <si>
+    <t>www.mijn.salland.nl</t>
+  </si>
+  <si>
+    <t>www.idin.aevitae.com</t>
+  </si>
+  <si>
+    <t>www.inlog.anderzorg.nl</t>
+  </si>
+  <si>
+    <t>www.inlog.menzis.nl</t>
+  </si>
+  <si>
+    <t>www.inlog.vinkvink.nl</t>
+  </si>
+  <si>
+    <t>www.inlog.onvz.nl</t>
+  </si>
+  <si>
+    <t>www.prdledenvvaa.b2clogin.com</t>
+  </si>
+  <si>
+    <t>www.inloggen.mijnunivezorg.nl</t>
+  </si>
+  <si>
+    <t>www.inloggen.vgz.nl</t>
+  </si>
+  <si>
+    <t>www.inloggen.vgzbewuzt.nl</t>
+  </si>
+  <si>
+    <t>www.inloggen.mijnzekurzorg.nl</t>
+  </si>
+  <si>
     <t>login-select.defriesland.nl</t>
-  </si>
-  <si>
-    <t>login-select.interpolis.nl</t>
-  </si>
-  <si>
-    <t>login-select.dechristelijkezorgverzekeraar.nl</t>
-  </si>
-  <si>
-    <t>13.248.206.174;76.223.71.132</t>
-  </si>
-  <si>
-    <t>2600:9000:a61c:a0a1:422:c6a5:8963:492c;2600:9000:a50f:9f2b:9243:9933:1f8c:a16c</t>
-  </si>
-  <si>
-    <t>Check mijnzorg.fbto.nl where client see informations</t>
-  </si>
-  <si>
-    <t>login-select.fbto.nl</t>
-  </si>
-  <si>
-    <t>login-select.zilverenkruis.nl</t>
-  </si>
-  <si>
-    <t>authenticatie.mijnzorg.asr.nl</t>
-  </si>
-  <si>
-    <t>authenticatie.mijnzorg-ikkieszelf.asr.nl</t>
-  </si>
-  <si>
-    <t>2a02:26f0:c900:b::5f65:4a0c;2a02:26f0:c900:b::5f65:4a2c</t>
-  </si>
-  <si>
-    <t>2.18.244.78;2.18.244.78</t>
-  </si>
-  <si>
-    <t>login.cz.nl</t>
-  </si>
-  <si>
-    <t>login.just.nl</t>
-  </si>
-  <si>
-    <t>104.16.146.28;104.16.147.28</t>
-  </si>
-  <si>
-    <t>2606:4700::6810:921c;2606:4700::6810:931c</t>
-  </si>
-  <si>
-    <t>login.nn-zorg.nl</t>
-  </si>
-  <si>
-    <t>login.ohra-zorg.nl</t>
-  </si>
-  <si>
-    <t>Login ISP</t>
-  </si>
-  <si>
-    <t>Login cloud</t>
-  </si>
-  <si>
-    <t>authenticatie.dsw.nl</t>
-  </si>
-  <si>
-    <t>2a02:26f0:c900:b::5f65:4a13;2a02:26f0:c900:b::5f65:4a32</t>
-  </si>
-  <si>
-    <t>authenticatie.stadholland.nl</t>
-  </si>
-  <si>
-    <t>185.53.178.50</t>
-  </si>
-  <si>
-    <t>mijn.salland.nl</t>
-  </si>
-  <si>
-    <t>Support iDIN</t>
-  </si>
-  <si>
-    <t>inlog.anderzorg.nl</t>
-  </si>
-  <si>
-    <t>inlog.menzis.nl</t>
-  </si>
-  <si>
-    <t>inlog.vinkvink.nl</t>
-  </si>
-  <si>
-    <t>inlog.onvz.nl</t>
-  </si>
-  <si>
-    <t>prdledenvvaa.b2clogin.com</t>
-  </si>
-  <si>
-    <t>2603:1026:3000:148::7;2603:1026:3000:148::10;2603:1026:3000:150::a;2603:1026:3000:148::e;2603:1026:3000:150::5;2603:1026:3000:150::6;2603:1027:1:158::8;2603:1026:3000:150::8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t>20.190.160.17;20.190.160.22;40.126.32.76;40.126.32.136;20.190.160.14;40.126.32.140;40.126.32.68;40.126.32.74</t>
-  </si>
-  <si>
-    <t>idin.aevitae.com</t>
-  </si>
-  <si>
-    <t>109.68.90.49</t>
-  </si>
-  <si>
-    <t>inloggen.mijnunivezorg.nl</t>
-  </si>
-  <si>
-    <t>inloggen.mijnzekurzorg.nl</t>
-  </si>
-  <si>
-    <t>141.193.179.212</t>
-  </si>
-  <si>
-    <t>141.193.179.165</t>
-  </si>
-  <si>
-    <t>inloggen.vgz.nl</t>
-  </si>
-  <si>
-    <t>inloggen.vgzbewuzt.nl</t>
-  </si>
-  <si>
-    <t>Support login</t>
-  </si>
-  <si>
-    <t>64.113.50.231</t>
-  </si>
-  <si>
-    <t>141.193.179.238</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>ManagedWay</t>
-  </si>
-  <si>
-    <t>KPN</t>
-  </si>
-  <si>
-    <t>AS53292 ManagedWay;ManagedWay (managedway.com);ManagedWay;MWAY</t>
-  </si>
-  <si>
-    <t>ManagedWay;MWAY</t>
-  </si>
-  <si>
-    <t>MWAY</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft </t>
-  </si>
-  <si>
-    <t>Microsoft Corporation</t>
-  </si>
-  <si>
-    <t>AS8075 Microsoft Corporation;Microsoft Corporation;Microsoft Corporation (microsoft.com)</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>ISP</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Amazon.com Inc.;Amazon.com, Inc.;AMAZON-02</t>
-  </si>
-  <si>
-    <t>AS16509 Amazon.com, Inc.;Amazon.com, Inc. (aws.com);AMAZON-02</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>CloudFlare</t>
-  </si>
-  <si>
-    <t>Cloudflare</t>
-  </si>
-  <si>
-    <t>AS13335 Cloudflare, Inc.;Cloudflare, Inc.;CLOUDFLARENET</t>
-  </si>
-  <si>
-    <t>CloudFlare Inc.;CLOUDFLARENET;Cloudflare</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>AS25148 ORANGE BUSINESS DIGITAL NORWAY AS;Signicat Vips</t>
-  </si>
-  <si>
-    <t>Orange Business Digital Norway AS;ORANGE BUSINESS DIGITAL NORWAY AS;Orange Business NO Network;ORANGE BUSINESS DIGITAL NORWAY AS;Basefarm Webdeal network</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Login Europa</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Munich</t>
-  </si>
-  <si>
-    <t>Akamai Technologies Inc.; Akamai International B.V.</t>
-  </si>
-  <si>
-    <t>AS20940 Akamai International B.V.;Akamai Technologies, Inc.;Akamai Technologies, Inc. (akamai.com);Akamai International B.V.</t>
-  </si>
-  <si>
-    <t>Akamai</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>Home Location IP</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>A100 ROW GmbH</t>
-  </si>
-  <si>
-    <t>A100 ROW GmbH;Amazon.com Inc.;Amazon.com, Inc.;AMAZON-02</t>
-  </si>
-  <si>
-    <t>Amazon germany</t>
-  </si>
-  <si>
-    <t>Amazone</t>
-  </si>
-  <si>
-    <t>Home in Europa</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>ASR Nederland N.V.;Asr Nederland N.V.;ASR Nederland N.V.</t>
-  </si>
-  <si>
-    <t>AS50737 ASR Nederland N.V.; Asr Nederland N.V. (asr.nl); ASR Nederland N.V.</t>
-  </si>
-  <si>
-    <t>Tilburg</t>
-  </si>
-  <si>
-    <t>AS1136 KPN B.V.;Cz Groep Zorgverzekeringen (kpn.net);KPN B.V.</t>
-  </si>
-  <si>
-    <t>KPN CZ</t>
-  </si>
-  <si>
-    <t>KPN B.V.</t>
-  </si>
-  <si>
-    <t>AS16625 Akamai Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Akamai Amsterdam</t>
-  </si>
-  <si>
-    <t>Akamai Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>AS9150 Interconnect;ML Consultancy;Indicia e-Business B.V.</t>
-  </si>
-  <si>
-    <t>Indicia e-Business B.V.; MLC/InterConnect; Ml Consultancy; MLC/InterConnect routed block</t>
-  </si>
-  <si>
-    <t>s-Hertogenbosch</t>
-  </si>
-  <si>
-    <t>Interconnect</t>
-  </si>
-  <si>
-    <t>interconnect</t>
-  </si>
-  <si>
-    <t>Claranet</t>
-  </si>
-  <si>
-    <t>AS8426 Claranet Limited;UnitedConsumers Brand &amp; IP B.V;Unitedconsumers Brand &amp; Ip B.V. (unitedconsumers.com)</t>
-  </si>
-  <si>
-    <t>UnitedConsumers Brand &amp; IP B.V.;Claranet Limited</t>
-  </si>
-  <si>
-    <t>Registration europa</t>
-  </si>
-  <si>
-    <t>Registration IPv4</t>
-  </si>
-  <si>
-    <t>193.173.52.131</t>
-  </si>
-  <si>
-    <t>Registration Location</t>
-  </si>
-  <si>
-    <t>Netherlandse</t>
-  </si>
-  <si>
-    <t>https://www.unitedconsumers.com/zorgverzekering/aanmelden/offerte.asp</t>
-  </si>
-  <si>
-    <t>https://www.zekur.nl/zorgverzekering/afsluiten</t>
-  </si>
-  <si>
-    <t>https://www.defriesland.nl/zorgverzekering/premie-berekenen/persoonsgegevens</t>
-  </si>
-  <si>
-    <t>https://www.fbto.nl/zorgverzekering/premie-berekenen/naam</t>
-  </si>
-  <si>
-    <t>https://bankieren.rabobank.nl/</t>
-  </si>
-  <si>
-    <t>https://www.dechristelijkezorgverzekeraar.nl/zorgverzekering/premie-berekenen/persoonsgegevens</t>
-  </si>
-  <si>
-    <t>https://www.zilverenkruis.nl/consumenten/zorgverzekering/premie-berekenen/persoonsgegevens</t>
-  </si>
-  <si>
-    <t>https://www.asr.nl/verzekeringen/zorgverzekering/afsluiten#/user-data</t>
-  </si>
-  <si>
-    <t>https://www.asr.nl/verzekeringen/zorgverzekering/ikkieszelf/afsluiten#/user-data</t>
-  </si>
-  <si>
-    <t>https://www.cz.nl/zorgverzekering/premie-berekenen/aanmelden</t>
-  </si>
-  <si>
-    <t>https://www.just.nl/zorgverzekering/premie-berekenen/aanmelden</t>
-  </si>
-  <si>
-    <t>https://www.czdirect.cz.nl/zorgverzekering/premie-berekenen/aanmelden</t>
-  </si>
-  <si>
-    <t>https://www.nn.nl/Particulier/Zorgverzekering/Zorgverzekering-aanvragen.htm#aanvrager</t>
-  </si>
-  <si>
-    <t>https://www.ohra.nl/zorgverzekering/berekenen#aanvrager</t>
-  </si>
-  <si>
-    <t>https://aanmelden.dsw.nl/aanmelden</t>
-  </si>
-  <si>
-    <t>https://aanmelden.stadholland.nl/</t>
-  </si>
-  <si>
-    <t>Registration traditioneel</t>
-  </si>
-  <si>
-    <t>https://aanvraag.salland.nl/persoonsgegevens</t>
-  </si>
-  <si>
-    <t>https://aanvragen.aevitae.com/nl/44086/personal_data</t>
-  </si>
-  <si>
-    <t>https://www.anderzorg.nl/premie-berekenen-en-aanvragen</t>
-  </si>
-  <si>
-    <t>https://www.menzis.nl/premie-berekenen-en-aanvragen</t>
-  </si>
-  <si>
-    <t>https://www.vinkvink.nl/premie-berekenen-en-aanvragen</t>
-  </si>
-  <si>
-    <t>https://aanvragen.onvz.nl/index.html</t>
-  </si>
-  <si>
-    <t>https://aanvragen.vvaazorgverzekering.nl/index.html</t>
-  </si>
-  <si>
-    <t>https://www.vgzbewuzt.nl/premie-berekenen/stap4</t>
-  </si>
-  <si>
-    <t>https://www.vgz.nl/zorgverzekering/premie-berekenen-en-afsluiten#/stap2</t>
-  </si>
-  <si>
-    <t>https://www.unive.nl/verzekeringspakket/premieberekenen-en-afsluiten/Gegevens?AanvraagId=54542</t>
-  </si>
-  <si>
-    <t>Registration vs Home</t>
-  </si>
-  <si>
-    <t>Login vs Home</t>
-  </si>
-  <si>
-    <t>13.107.246.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2620:1ec:bdf::67</t>
-  </si>
-  <si>
-    <t>141.101.90.104;141.101.90.105;141.101.90.106;141.101.90.107</t>
-  </si>
-  <si>
-    <t>2a06:98c1:3200::90:80;2a06:98c1:3200::90:81;2a06:98c1:3200::90:82;2a06:98c1:3200::90:83</t>
-  </si>
-  <si>
-    <t>2a05:d014:145:aa02:39cc:ca87:679c:1a44;2a05:d014:145:aa01:e7ed:1bdf:317c:168e;2a05:d014:145:aa00:63e4:ad8e:c1c7:8675</t>
-  </si>
-  <si>
-    <t>3.125.189.196;3.126.216.110;3.127.11.115</t>
-  </si>
-  <si>
-    <t>2a02:26f0:c900:b::5f65:4a23;2a02:26f0:c900:b::5f65:4a27;2a02:26f0:c900:b::5f65:4a29;2a02:26f0:c900:b::5f65:4a31;2a02:26f0:c900:b::5f65:4a36</t>
-  </si>
-  <si>
-    <t>2.18.244.95; 2.18.244.99</t>
-  </si>
-  <si>
-    <t>Home Domain</t>
-  </si>
-  <si>
-    <t>www.defriesland.nl</t>
-  </si>
-  <si>
-    <t>www.fbto.nl</t>
-  </si>
-  <si>
-    <t>www.interpolis.nl</t>
-  </si>
-  <si>
-    <t>www.dechristelijkezorgverzekeraar.nl</t>
-  </si>
-  <si>
-    <t>www.zilverenkruis.nl</t>
-  </si>
-  <si>
-    <t>www.asr.nl</t>
-  </si>
-  <si>
-    <t>www.cz.nl</t>
-  </si>
-  <si>
-    <t>www.czdirect.cz.nl</t>
-  </si>
-  <si>
-    <t>www.nn.nl</t>
-  </si>
-  <si>
-    <t>www.just.nl</t>
-  </si>
-  <si>
-    <t>www.ohra.nl</t>
-  </si>
-  <si>
-    <t>www.dsw.nl</t>
-  </si>
-  <si>
-    <t>www.stadholland.nl</t>
-  </si>
-  <si>
-    <t>www.zorgenzekerheid.nl</t>
-  </si>
-  <si>
-    <t>www.unitedconsumers.com</t>
-  </si>
-  <si>
-    <t>www.salland.nl</t>
-  </si>
-  <si>
-    <t>www.anderzorg.nl</t>
-  </si>
-  <si>
-    <t>www.aevitae.com</t>
-  </si>
-  <si>
-    <t>www.menzis.nl</t>
-  </si>
-  <si>
-    <t>www.vgz.nl</t>
-  </si>
-  <si>
-    <t>www.vgzbewuzt.nl</t>
-  </si>
-  <si>
-    <t>www.zekur.nl</t>
-  </si>
-  <si>
-    <t>www.unive.nl</t>
-  </si>
-  <si>
-    <t>www.onvz.nl</t>
-  </si>
-  <si>
-    <t>www.vinkvink.nl</t>
-  </si>
-  <si>
-    <t>www.vvaa.nl</t>
-  </si>
-  <si>
-    <t>www.scheepvaartnet.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.scheepvaartnet.nl/azvz-zorgverzekering/ </t>
-  </si>
-  <si>
-    <t>Login domain</t>
-  </si>
-  <si>
-    <t>Registration domain</t>
-  </si>
-  <si>
-    <t>www.bankieren.rabobank.nl</t>
-  </si>
-  <si>
-    <t>www.aanmelden.dsw.nl</t>
-  </si>
-  <si>
-    <t>www.aanmelden.stadholland.nl</t>
-  </si>
-  <si>
-    <t>www.aanvragen.aevitae.com</t>
-  </si>
-  <si>
-    <t>www.aanvraag.salland.nl</t>
-  </si>
-  <si>
-    <t>www.aanvragen.onvz.nl</t>
-  </si>
-  <si>
-    <t>www.aanvragen.vvaa.nl</t>
-  </si>
-  <si>
-    <t>www.service.zorgenzekerheid.nl</t>
-  </si>
-  <si>
-    <t>https://www.scheepvaartnet.nl/azvz-zorgverzekering/aanvraagformulier-azvz/</t>
-  </si>
-  <si>
-    <t>https://www.service.zorgenzekerheid.nl/advies/uwnawgegevens.html</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2133,7 @@
   <dimension ref="A1:BT29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ6" sqref="AZ6:AZ29"/>
+      <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2215,10 +2215,10 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F1" t="s">
         <v>148</v>
@@ -2230,7 +2230,7 @@
         <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="J1" t="s">
         <v>262</v>
@@ -2239,7 +2239,7 @@
         <v>169</v>
       </c>
       <c r="L1" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="M1" t="s">
         <v>183</v>
@@ -2278,7 +2278,7 @@
         <v>160</v>
       </c>
       <c r="Y1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="Z1" t="s">
         <v>135</v>
@@ -2290,25 +2290,25 @@
         <v>137</v>
       </c>
       <c r="AC1" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AD1" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="AE1" t="s">
         <v>133</v>
       </c>
       <c r="AF1" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="AG1" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="AH1" t="s">
         <v>161</v>
       </c>
       <c r="AI1" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AJ1" t="s">
         <v>185</v>
@@ -2347,7 +2347,7 @@
         <v>168</v>
       </c>
       <c r="AV1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="AW1" t="s">
         <v>139</v>
@@ -2359,10 +2359,10 @@
         <v>141</v>
       </c>
       <c r="AZ1" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="BA1" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="BB1" t="s">
         <v>266</v>
@@ -2374,10 +2374,10 @@
         <v>142</v>
       </c>
       <c r="BE1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="BF1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="BG1" t="s">
         <v>201</v>
@@ -2410,7 +2410,7 @@
         <v>143</v>
       </c>
       <c r="BQ1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="BR1" t="s">
         <v>157</v>
@@ -2448,7 +2448,7 @@
         <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="J2" t="s">
         <v>242</v>
@@ -2457,13 +2457,13 @@
         <v>243</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2514,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="AF2" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="AG2" t="s">
         <v>242</v>
@@ -2526,13 +2526,13 @@
         <v>243</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL2">
         <v>1</v>
@@ -2579,29 +2579,29 @@
       <c r="AZ2">
         <v>0</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BA2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="BB2" t="s">
         <v>269</v>
       </c>
-      <c r="BB2" t="s">
-        <v>272</v>
-      </c>
       <c r="BC2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BD2" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="BE2" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BF2" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BG2">
         <v>1</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI2">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="J3" t="s">
         <v>242</v>
@@ -2675,13 +2675,13 @@
         <v>243</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2732,10 +2732,10 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="AF3" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="AG3" t="s">
         <v>242</v>
@@ -2744,13 +2744,13 @@
         <v>243</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL3">
         <v>1</v>
@@ -2797,29 +2797,29 @@
       <c r="AZ3">
         <v>0</v>
       </c>
-      <c r="BA3" t="s">
-        <v>275</v>
+      <c r="BA3" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="BB3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BC3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BD3" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="BE3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BF3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BG3">
         <v>1</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI3">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="J4" t="s">
         <v>242</v>
@@ -2893,13 +2893,13 @@
         <v>243</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="AF4" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="AG4" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AH4" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="AI4" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="AJ4" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL4">
         <v>1</v>
@@ -3015,29 +3015,29 @@
       <c r="AZ4">
         <v>0</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC4" t="s">
         <v>270</v>
       </c>
-      <c r="BB4" t="s">
-        <v>272</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>273</v>
-      </c>
       <c r="BD4" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="BE4" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BF4" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BG4">
         <v>1</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI4">
         <v>1</v>
@@ -3102,7 +3102,7 @@
         <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="J5" t="s">
         <v>242</v>
@@ -3111,13 +3111,13 @@
         <v>243</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M5" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N5" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -3168,10 +3168,10 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="AF5" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AG5" t="s">
         <v>242</v>
@@ -3180,13 +3180,13 @@
         <v>243</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ5" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK5" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL5">
         <v>1</v>
@@ -3233,29 +3233,29 @@
       <c r="AZ5">
         <v>0</v>
       </c>
-      <c r="BA5" t="s">
-        <v>271</v>
+      <c r="BA5" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="BB5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BC5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BD5" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="BE5" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BF5" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BG5">
         <v>1</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI5">
         <v>1</v>
@@ -3320,7 +3320,7 @@
         <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
         <v>242</v>
@@ -3329,13 +3329,13 @@
         <v>243</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M6" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N6" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -3386,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="AF6" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="AG6" t="s">
         <v>242</v>
@@ -3398,13 +3398,13 @@
         <v>243</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ6" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK6" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL6">
         <v>1</v>
@@ -3451,29 +3451,29 @@
       <c r="AZ6">
         <v>0</v>
       </c>
-      <c r="BA6" t="s">
-        <v>276</v>
+      <c r="BA6" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="BB6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BC6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BD6" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="BE6" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BF6" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BG6">
         <v>1</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI6">
         <v>1</v>
@@ -3538,13 +3538,13 @@
         <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="J7" t="s">
         <v>244</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -3601,16 +3601,16 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="AF7" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="AG7" t="s">
         <v>244</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ7" t="s">
         <v>9</v>
@@ -3663,23 +3663,23 @@
       <c r="AZ7">
         <v>0</v>
       </c>
-      <c r="BA7" t="s">
-        <v>277</v>
+      <c r="BA7" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="BB7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="BC7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="BD7" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="BE7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="BF7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -3750,13 +3750,13 @@
         <v>84</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="J8" t="s">
         <v>244</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -3813,16 +3813,16 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="AF8" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="AG8" t="s">
         <v>244</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ8" t="s">
         <v>9</v>
@@ -3875,23 +3875,23 @@
       <c r="AZ8">
         <v>0</v>
       </c>
-      <c r="BA8" t="s">
-        <v>278</v>
+      <c r="BA8" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="BB8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="BC8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="BD8" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="BE8" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="BF8" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -3962,19 +3962,19 @@
         <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="J9" t="s">
         <v>245</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="M9" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="N9" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -4025,22 +4025,22 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="AF9" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="AG9" t="s">
         <v>245</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AJ9" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK9" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL9">
         <v>1</v>
@@ -4087,29 +4087,29 @@
       <c r="AZ9">
         <v>0</v>
       </c>
-      <c r="BA9" t="s">
-        <v>281</v>
+      <c r="BA9" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BC9" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BD9" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="BE9" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BF9" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BG9">
         <v>1</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI9">
         <v>1</v>
@@ -4174,19 +4174,19 @@
         <v>247</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>246</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M10" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="N10" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -4237,22 +4237,22 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="AF10" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>246</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ10" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK10" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL10">
         <v>1</v>
@@ -4299,29 +4299,29 @@
       <c r="AZ10">
         <v>0</v>
       </c>
-      <c r="BA10" t="s">
-        <v>281</v>
+      <c r="BA10" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BD10" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="BE10" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BF10" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BG10">
         <v>1</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI10">
         <v>1</v>
@@ -4386,25 +4386,25 @@
         <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>245</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="M11" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="N11" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4449,28 +4449,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="AF11" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>245</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AJ11" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK11" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -4511,29 +4511,29 @@
       <c r="AZ11">
         <v>0</v>
       </c>
-      <c r="BA11" t="s">
-        <v>282</v>
+      <c r="BA11" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="BB11" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BD11" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="BE11" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BF11" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BG11">
         <v>1</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI11">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>89</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>253</v>
@@ -4607,13 +4607,13 @@
         <v>249</v>
       </c>
       <c r="L12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="M12" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -4664,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="AF12" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>253</v>
@@ -4676,13 +4676,13 @@
         <v>249</v>
       </c>
       <c r="AI12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="AJ12" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL12">
         <v>1</v>
@@ -4729,29 +4729,29 @@
       <c r="AZ12">
         <v>0</v>
       </c>
-      <c r="BA12" t="s">
-        <v>285</v>
+      <c r="BA12" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BC12" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BD12" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="BE12" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BF12" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BG12">
         <v>1</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI12">
         <v>1</v>
@@ -4816,7 +4816,7 @@
         <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>250</v>
@@ -4825,13 +4825,13 @@
         <v>251</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="M13" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -4882,10 +4882,10 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="AF13" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>250</v>
@@ -4894,13 +4894,13 @@
         <v>251</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="AJ13" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -4947,29 +4947,29 @@
       <c r="AZ13">
         <v>0</v>
       </c>
-      <c r="BA13" t="s">
-        <v>286</v>
+      <c r="BA13" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BD13" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="BE13" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BF13" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BG13">
         <v>1</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI13">
         <v>1</v>
@@ -5034,22 +5034,22 @@
         <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>252</v>
       </c>
       <c r="K14" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M14" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -5100,25 +5100,25 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="AF14" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>252</v>
       </c>
       <c r="AH14" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ14" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL14">
         <v>1</v>
@@ -5165,29 +5165,29 @@
       <c r="AZ14">
         <v>0</v>
       </c>
-      <c r="BA14" t="s">
-        <v>289</v>
+      <c r="BA14" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="BB14" t="s">
         <v>252</v>
       </c>
       <c r="BC14" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="BD14" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="BE14" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="BF14" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="BG14">
         <v>1</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI14">
         <v>1</v>
@@ -5252,22 +5252,22 @@
         <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>252</v>
       </c>
       <c r="K15" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M15" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -5318,25 +5318,25 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AF15" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>252</v>
       </c>
       <c r="AH15" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ15" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -5383,29 +5383,29 @@
       <c r="AZ15">
         <v>0</v>
       </c>
-      <c r="BA15" t="s">
-        <v>291</v>
+      <c r="BA15" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="BB15" t="s">
         <v>252</v>
       </c>
       <c r="BC15" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="BD15" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="BE15" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="BF15" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="BG15">
         <v>1</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI15">
         <v>1</v>
@@ -5470,19 +5470,19 @@
         <v>90</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>254</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M16" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -5533,25 +5533,25 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AF16" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="AH16" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="AJ16" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AL16">
         <v>1</v>
@@ -5598,26 +5598,29 @@
       <c r="AZ16">
         <v>0</v>
       </c>
-      <c r="BA16" t="s">
-        <v>293</v>
+      <c r="BA16" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="BB16" t="s">
-        <v>292</v>
+        <v>388</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>389</v>
       </c>
       <c r="BD16" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="BE16" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BF16" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BG16">
         <v>1</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="BI16">
         <v>1</v>
@@ -5682,7 +5685,7 @@
         <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>256</v>
@@ -5691,19 +5694,19 @@
         <v>255</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="M17" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -5748,25 +5751,25 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AF17" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="AG17" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="AH17" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="AJ17" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL17">
         <v>1</v>
@@ -5813,26 +5816,26 @@
       <c r="AZ17">
         <v>0</v>
       </c>
-      <c r="BA17" t="s">
-        <v>303</v>
+      <c r="BA17" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="BB17" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="BD17" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="BE17" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="BF17" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="BG17">
         <v>1</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="BI17">
         <v>0</v>
@@ -5897,19 +5900,19 @@
         <v>93</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>259</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M18" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -5960,22 +5963,22 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AF18" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ18" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL18">
         <v>1</v>
@@ -6022,29 +6025,29 @@
       <c r="AZ18">
         <v>0</v>
       </c>
-      <c r="BA18" t="s">
-        <v>295</v>
+      <c r="BA18" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="BB18" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BC18" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BD18" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="BE18" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BF18" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BG18">
         <v>1</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI18">
         <v>1</v>
@@ -6109,19 +6112,19 @@
         <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>259</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M19" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -6172,22 +6175,22 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="AF19" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ19" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL19">
         <v>1</v>
@@ -6234,29 +6237,29 @@
       <c r="AZ19">
         <v>0</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BA19" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>275</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>309</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>309</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>283</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>284</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>349</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>333</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>333</v>
-      </c>
-      <c r="BG19">
-        <v>1</v>
-      </c>
-      <c r="BH19" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="BI19">
         <v>1</v>
@@ -6321,19 +6324,19 @@
         <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>259</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M20" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -6384,22 +6387,22 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AF20" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ20" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL20">
         <v>1</v>
@@ -6446,29 +6449,29 @@
       <c r="AZ20">
         <v>0</v>
       </c>
-      <c r="BA20" t="s">
-        <v>297</v>
+      <c r="BA20" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="BB20" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BC20" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BD20" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="BE20" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BF20" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="BG20">
         <v>1</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI20">
         <v>1</v>
@@ -6533,7 +6536,7 @@
         <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>260</v>
@@ -6542,19 +6545,19 @@
         <v>261</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="M21" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -6599,31 +6602,31 @@
         <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="AF21" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="AG21" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="AH21" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="AJ21" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="AN21">
         <v>1</v>
@@ -6664,29 +6667,29 @@
       <c r="AZ21">
         <v>0</v>
       </c>
-      <c r="BA21" t="s">
-        <v>298</v>
+      <c r="BA21" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="BB21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BC21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BD21" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="BE21" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BF21" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="BG21">
         <v>1</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI21">
         <v>1</v>
@@ -6751,7 +6754,7 @@
         <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>256</v>
@@ -6760,19 +6763,19 @@
         <v>255</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="M22" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -6817,31 +6820,31 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="AF22" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="AG22" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="AH22" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="AJ22" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="AN22">
         <v>1</v>
@@ -6882,23 +6885,23 @@
       <c r="AZ22">
         <v>0</v>
       </c>
-      <c r="BA22" t="s">
-        <v>299</v>
+      <c r="BA22" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="BB22" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="BC22" t="s">
+        <v>280</v>
+      </c>
+      <c r="BD22" t="s">
         <v>300</v>
       </c>
-      <c r="BD22" t="s">
-        <v>324</v>
-      </c>
       <c r="BE22" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="BF22" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="BG22">
         <v>1</v>
@@ -6969,19 +6972,19 @@
         <v>88</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>263</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M23" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -7032,25 +7035,25 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="AF23" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="AG23" s="1" t="s">
         <v>263</v>
       </c>
       <c r="AH23" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>301</v>
       </c>
-      <c r="AI23" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>325</v>
-      </c>
       <c r="AK23" s="1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL23">
         <v>1</v>
@@ -7097,26 +7100,26 @@
       <c r="AZ23">
         <v>0</v>
       </c>
-      <c r="BA23" t="s">
-        <v>305</v>
+      <c r="BA23" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="BB23" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="BD23" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="BE23" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BF23" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BG23">
         <v>1</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI23">
         <v>0</v>
@@ -7181,19 +7184,19 @@
         <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>264</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M24" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N24" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -7244,22 +7247,22 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="AF24" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="AG24" s="1" t="s">
         <v>264</v>
       </c>
       <c r="AI24" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ24" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK24" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL24">
         <v>1</v>
@@ -7306,26 +7309,26 @@
       <c r="AZ24">
         <v>0</v>
       </c>
-      <c r="BA24" t="s">
-        <v>309</v>
+      <c r="BA24" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="BB24" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="BD24" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="BE24" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BF24" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BG24">
         <v>1</v>
       </c>
       <c r="BH24" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI24">
         <v>0</v>
@@ -7390,19 +7393,19 @@
         <v>68</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>264</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M25" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="N25" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -7453,22 +7456,22 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AF25" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>264</v>
       </c>
       <c r="AI25" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ25" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AK25" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AL25">
         <v>1</v>
@@ -7515,26 +7518,26 @@
       <c r="AZ25">
         <v>0</v>
       </c>
-      <c r="BA25" t="s">
-        <v>310</v>
+      <c r="BA25" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="BB25" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="BD25" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="BE25" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BF25" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BG25">
         <v>1</v>
       </c>
       <c r="BH25" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI25">
         <v>0</v>
@@ -7599,19 +7602,19 @@
         <v>75</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="J26" t="s">
         <v>241</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="M26" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -7662,22 +7665,22 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="AF26" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="AG26" t="s">
         <v>241</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="AJ26" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AL26">
         <v>1</v>
@@ -7724,26 +7727,26 @@
       <c r="AZ26">
         <v>0</v>
       </c>
-      <c r="BA26" t="s">
-        <v>306</v>
+      <c r="BA26" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="BB26" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="BD26" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="BE26" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BF26" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BG26">
         <v>1</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI26">
         <v>0</v>
@@ -7808,19 +7811,19 @@
         <v>80</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="J27" t="s">
         <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="M27" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -7871,22 +7874,22 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="AF27" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="AG27" t="s">
         <v>240</v>
       </c>
       <c r="AI27" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AJ27" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="AL27">
         <v>1</v>
@@ -7933,26 +7936,26 @@
       <c r="AZ27">
         <v>0</v>
       </c>
-      <c r="BA27" t="s">
-        <v>309</v>
+      <c r="BA27" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="BB27" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="BD27" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="BE27" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BF27" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="BG27">
         <v>1</v>
       </c>
       <c r="BH27" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="BI27">
         <v>0</v>
@@ -8014,10 +8017,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="J28" t="s">
         <v>175</v>
@@ -8026,10 +8029,10 @@
         <v>177</v>
       </c>
       <c r="M28" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="N28" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -8080,10 +8083,10 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="AF28" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="AG28" t="s">
         <v>175</v>
@@ -8093,10 +8096,10 @@
         <v>177</v>
       </c>
       <c r="AJ28" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="AK28" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="AL28">
         <v>1</v>
@@ -8153,10 +8156,10 @@
         <v>182</v>
       </c>
       <c r="BE28" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="BF28" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="BG28">
         <v>1</v>
@@ -8227,7 +8230,7 @@
         <v>81</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>257</v>
@@ -8236,19 +8239,19 @@
         <v>258</v>
       </c>
       <c r="L29" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -8293,28 +8296,28 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="AF29" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="AG29" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AI29" t="s">
         <v>182</v>
       </c>
       <c r="AJ29" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -8365,10 +8368,10 @@
         <v>182</v>
       </c>
       <c r="BE29" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="BF29" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="BG29">
         <v>1</v>
@@ -9333,6 +9336,32 @@
     <hyperlink ref="AF19" r:id="rId93" xr:uid="{70A5BAAA-5790-4919-8346-E017C3255984}"/>
     <hyperlink ref="AF14" r:id="rId94" xr:uid="{9129E375-E5C7-43F9-AB82-3C6F6638EBD4}"/>
     <hyperlink ref="AE29" r:id="rId95" xr:uid="{952A0304-5B2C-4D4B-BA4A-D4C03F0B7612}"/>
+    <hyperlink ref="BA2" r:id="rId96" display="www.login-select.defriesland.nl" xr:uid="{0DDE0281-20FA-4487-9DA2-33A55F53257D}"/>
+    <hyperlink ref="BA3" r:id="rId97" xr:uid="{036F04D4-28B1-4A93-AF12-F2496F10EE17}"/>
+    <hyperlink ref="BA4" r:id="rId98" xr:uid="{90E9A6A1-A3BB-4174-8382-22CFE2944455}"/>
+    <hyperlink ref="BA5" r:id="rId99" xr:uid="{7D7AD1B5-E971-43C8-8BCE-E0CEEFEF2C08}"/>
+    <hyperlink ref="BA6" r:id="rId100" xr:uid="{F6A59FE3-1075-431D-BEED-E05A288E1B1E}"/>
+    <hyperlink ref="BA7" r:id="rId101" xr:uid="{EACA0B4B-086C-425D-BF2A-2C9D9021EE71}"/>
+    <hyperlink ref="BA8" r:id="rId102" xr:uid="{22E99511-D9A2-4E9B-A92C-80D00A18043D}"/>
+    <hyperlink ref="BA9" r:id="rId103" xr:uid="{6C435B83-9690-4EAF-891D-1DC5CB0E91C8}"/>
+    <hyperlink ref="BA10" r:id="rId104" xr:uid="{D1A97DE9-BA5E-41DC-A0C2-0725799FCE1B}"/>
+    <hyperlink ref="BA11" r:id="rId105" xr:uid="{2078425F-9C83-4AA3-820D-3801DB190F75}"/>
+    <hyperlink ref="BA12" r:id="rId106" xr:uid="{3A491BF6-69EC-4639-A95D-71D1A0A6D5F5}"/>
+    <hyperlink ref="BA13" r:id="rId107" xr:uid="{F21DF260-3ADF-4FFC-89F8-6D57D34A7F9B}"/>
+    <hyperlink ref="BA14" r:id="rId108" xr:uid="{ECBB63B6-798A-4B39-AB6E-5B312E6A2E88}"/>
+    <hyperlink ref="BA15" r:id="rId109" xr:uid="{6733EE79-87A3-4E41-8BF5-2383B09DDB83}"/>
+    <hyperlink ref="BA16" r:id="rId110" xr:uid="{D5299527-4779-4E5C-9371-03A039584659}"/>
+    <hyperlink ref="BA17" r:id="rId111" xr:uid="{0DB09F74-398F-4AFE-87BB-9C06F7C4D3CE}"/>
+    <hyperlink ref="BA18" r:id="rId112" xr:uid="{C4CB4073-EA13-4845-BA77-E73A2C93C5A5}"/>
+    <hyperlink ref="BA19" r:id="rId113" xr:uid="{40549E75-A603-42DE-A106-3AFE97E9F915}"/>
+    <hyperlink ref="BA20" r:id="rId114" xr:uid="{080618EA-2DEF-479D-82CD-F61076A7E41B}"/>
+    <hyperlink ref="BA21" r:id="rId115" xr:uid="{A9C8C6F0-DE6E-4EB9-871B-F106E0BCFB8B}"/>
+    <hyperlink ref="BA22" r:id="rId116" xr:uid="{FE321390-15EF-451E-9F9E-C80B543C5A11}"/>
+    <hyperlink ref="BA23" r:id="rId117" xr:uid="{313B98A9-6FCE-4DCE-A251-D5F188F6F88E}"/>
+    <hyperlink ref="BA24" r:id="rId118" xr:uid="{150B704A-0B2E-4822-B767-4D27CEBF9DF8}"/>
+    <hyperlink ref="BA25" r:id="rId119" xr:uid="{4CA00F3E-582B-4E64-BE24-599F8270A784}"/>
+    <hyperlink ref="BA26" r:id="rId120" xr:uid="{C9ADAA93-351D-401A-B916-33915CE73013}"/>
+    <hyperlink ref="BA27" r:id="rId121" display="www.inloggen.vgz.nl" xr:uid="{A6F5ECBC-E26E-4A20-9B8B-A9CBA50BF8E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9350,10 +9379,10 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -9361,111 +9390,111 @@
         <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
         <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -9473,24 +9502,24 @@
         <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
         <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -9498,52 +9527,52 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10095,8 +10124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB691B-88E4-4552-BE42-2A756A8BB771}">
   <dimension ref="A2:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10543,7 +10572,7 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466BD0A1-48B8-4008-933F-675F53FE6502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD95345D-5CF0-4308-9198-5548DD920416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1346,12 +1346,6 @@
     <t>https://www.service.zorgenzekerheid.nl/advies/uwnawgegevens.html</t>
   </si>
   <si>
-    <t>www.login-select.fbto.nl</t>
-  </si>
-  <si>
-    <t>www.login-select.interpolis.nl</t>
-  </si>
-  <si>
     <t>www.login-select.dechristelijkezorgverzekeraar.nl</t>
   </si>
   <si>
@@ -1416,6 +1410,12 @@
   </si>
   <si>
     <t>login-select.defriesland.nl</t>
+  </si>
+  <si>
+    <t>login-select.fbto.nl</t>
+  </si>
+  <si>
+    <t>login-select.interpolis.nl</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2133,7 @@
   <dimension ref="A1:BT29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+      <selection activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BB2" t="s">
         <v>269</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="BB3" t="s">
         <v>269</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="BB4" t="s">
         <v>269</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="BB5" t="s">
         <v>269</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BB6" t="s">
         <v>269</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BB7" t="s">
         <v>273</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="BB8" t="s">
         <v>273</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="BB9" s="3" t="s">
         <v>274</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="BB10" s="3" t="s">
         <v>274</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="BB11" s="3" t="s">
         <v>274</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BB12" s="3" t="s">
         <v>274</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BB13" s="3" t="s">
         <v>274</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="BB14" t="s">
         <v>252</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BB15" t="s">
         <v>252</v>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="BB16" t="s">
         <v>388</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="BB17" t="s">
         <v>283</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="BB18" t="s">
         <v>274</v>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BB19" t="s">
         <v>274</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="BB20" t="s">
         <v>274</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BB21" t="s">
         <v>269</v>
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BB22" t="s">
         <v>282</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BB23" t="s">
         <v>284</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BB24" t="s">
         <v>285</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BB25" t="s">
         <v>288</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BB26" t="s">
         <v>289</v>
@@ -9337,8 +9337,8 @@
     <hyperlink ref="AF14" r:id="rId94" xr:uid="{9129E375-E5C7-43F9-AB82-3C6F6638EBD4}"/>
     <hyperlink ref="AE29" r:id="rId95" xr:uid="{952A0304-5B2C-4D4B-BA4A-D4C03F0B7612}"/>
     <hyperlink ref="BA2" r:id="rId96" display="www.login-select.defriesland.nl" xr:uid="{0DDE0281-20FA-4487-9DA2-33A55F53257D}"/>
-    <hyperlink ref="BA3" r:id="rId97" xr:uid="{036F04D4-28B1-4A93-AF12-F2496F10EE17}"/>
-    <hyperlink ref="BA4" r:id="rId98" xr:uid="{90E9A6A1-A3BB-4174-8382-22CFE2944455}"/>
+    <hyperlink ref="BA3" r:id="rId97" display="www.login-select.fbto.nl" xr:uid="{036F04D4-28B1-4A93-AF12-F2496F10EE17}"/>
+    <hyperlink ref="BA4" r:id="rId98" display="www.login-select.interpolis.nl" xr:uid="{90E9A6A1-A3BB-4174-8382-22CFE2944455}"/>
     <hyperlink ref="BA5" r:id="rId99" xr:uid="{7D7AD1B5-E971-43C8-8BCE-E0CEEFEF2C08}"/>
     <hyperlink ref="BA6" r:id="rId100" xr:uid="{F6A59FE3-1075-431D-BEED-E05A288E1B1E}"/>
     <hyperlink ref="BA7" r:id="rId101" xr:uid="{EACA0B4B-086C-425D-BF2A-2C9D9021EE71}"/>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD95345D-5CF0-4308-9198-5548DD920416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF26955-E8B9-4F0F-848F-99674A68800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="458">
   <si>
     <t>Company</t>
   </si>
@@ -1316,99 +1316,12 @@
     <t>Registration domain</t>
   </si>
   <si>
-    <t>www.bankieren.rabobank.nl</t>
-  </si>
-  <si>
-    <t>www.aanmelden.dsw.nl</t>
-  </si>
-  <si>
-    <t>www.aanmelden.stadholland.nl</t>
-  </si>
-  <si>
-    <t>www.aanvragen.aevitae.com</t>
-  </si>
-  <si>
-    <t>www.aanvraag.salland.nl</t>
-  </si>
-  <si>
-    <t>www.aanvragen.onvz.nl</t>
-  </si>
-  <si>
-    <t>www.aanvragen.vvaa.nl</t>
-  </si>
-  <si>
-    <t>www.service.zorgenzekerheid.nl</t>
-  </si>
-  <si>
     <t>https://www.scheepvaartnet.nl/azvz-zorgverzekering/aanvraagformulier-azvz/</t>
   </si>
   <si>
     <t>https://www.service.zorgenzekerheid.nl/advies/uwnawgegevens.html</t>
   </si>
   <si>
-    <t>www.login-select.dechristelijkezorgverzekeraar.nl</t>
-  </si>
-  <si>
-    <t>www.login-select.zilverenkruis.nl</t>
-  </si>
-  <si>
-    <t>www.authenticatie.mijnzorg.asr.nl</t>
-  </si>
-  <si>
-    <t>www.authenticatie.mijnzorg-ikkieszelf.asr.nl</t>
-  </si>
-  <si>
-    <t>www.login.cz.nl</t>
-  </si>
-  <si>
-    <t>www.login.just.nl</t>
-  </si>
-  <si>
-    <t>www.login.nn-zorg.nl</t>
-  </si>
-  <si>
-    <t>www.login.ohra-zorg.nl</t>
-  </si>
-  <si>
-    <t>www.authenticatie.dsw.nl</t>
-  </si>
-  <si>
-    <t>www.authenticatie.stadholland.nl</t>
-  </si>
-  <si>
-    <t>www.mijn.salland.nl</t>
-  </si>
-  <si>
-    <t>www.idin.aevitae.com</t>
-  </si>
-  <si>
-    <t>www.inlog.anderzorg.nl</t>
-  </si>
-  <si>
-    <t>www.inlog.menzis.nl</t>
-  </si>
-  <si>
-    <t>www.inlog.vinkvink.nl</t>
-  </si>
-  <si>
-    <t>www.inlog.onvz.nl</t>
-  </si>
-  <si>
-    <t>www.prdledenvvaa.b2clogin.com</t>
-  </si>
-  <si>
-    <t>www.inloggen.mijnunivezorg.nl</t>
-  </si>
-  <si>
-    <t>www.inloggen.vgz.nl</t>
-  </si>
-  <si>
-    <t>www.inloggen.vgzbewuzt.nl</t>
-  </si>
-  <si>
-    <t>www.inloggen.mijnzekurzorg.nl</t>
-  </si>
-  <si>
     <t>login-select.defriesland.nl</t>
   </si>
   <si>
@@ -1416,6 +1329,90 @@
   </si>
   <si>
     <t>login-select.interpolis.nl</t>
+  </si>
+  <si>
+    <t>bankieren.rabobank.nl</t>
+  </si>
+  <si>
+    <t>login-select.dechristelijkezorgverzekeraar.nl</t>
+  </si>
+  <si>
+    <t>authenticatie.mijnzorg.asr.nl</t>
+  </si>
+  <si>
+    <t>login-select.zilverenkruis.nl</t>
+  </si>
+  <si>
+    <t>authenticatie.mijnzorg-ikkieszelf.asr.nl</t>
+  </si>
+  <si>
+    <t>login.cz.nl</t>
+  </si>
+  <si>
+    <t>login.just.nl</t>
+  </si>
+  <si>
+    <t>login.nn-zorg.nl</t>
+  </si>
+  <si>
+    <t>login.ohra-zorg.nl</t>
+  </si>
+  <si>
+    <t>authenticatie.dsw.nl</t>
+  </si>
+  <si>
+    <t>authenticatie.stadholland.nl</t>
+  </si>
+  <si>
+    <t>idin.aevitae.com</t>
+  </si>
+  <si>
+    <t>mijn.salland.nl</t>
+  </si>
+  <si>
+    <t>inlog.anderzorg.nl</t>
+  </si>
+  <si>
+    <t>inlog.menzis.nl</t>
+  </si>
+  <si>
+    <t>inlog.vinkvink.nl</t>
+  </si>
+  <si>
+    <t>inlog.onvz.nl</t>
+  </si>
+  <si>
+    <t>prdledenvvaa.b2clogin.com</t>
+  </si>
+  <si>
+    <t>inloggen.mijnunivezorg.nl</t>
+  </si>
+  <si>
+    <t>inloggen.vgzbewuzt.nl</t>
+  </si>
+  <si>
+    <t>inloggen.mijnzekurzorg.nl</t>
+  </si>
+  <si>
+    <t>service.zorgenzekerheid.nl</t>
+  </si>
+  <si>
+    <t>aanvragen.aevitae.com</t>
+  </si>
+  <si>
+    <t>aanmelden.stadholland.nl</t>
+  </si>
+  <si>
+    <t>aanmelden.dsw.nl</t>
+  </si>
+  <si>
+    <t>aanvraag.salland.nl</t>
+  </si>
+  <si>
+    <t>aanvragen.onvz.nl</t>
+  </si>
+  <si>
+    <t>aanvragen.vvaazorgverzekering.nl</t>
   </si>
 </sst>
 </file>
@@ -2132,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA4" sqref="BA4"/>
+    <sheetView tabSelected="1" topLeftCell="AE9" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2580,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="BB2" t="s">
         <v>269</v>
@@ -2798,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="BB3" t="s">
         <v>269</v>
@@ -2953,7 +2950,7 @@
         <v>361</v>
       </c>
       <c r="AF4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AG4" t="s">
         <v>393</v>
@@ -3016,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="BB4" t="s">
         <v>269</v>
@@ -3234,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="BB5" t="s">
         <v>269</v>
@@ -3452,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="BB6" t="s">
         <v>269</v>
@@ -3664,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="BB7" t="s">
         <v>273</v>
@@ -3876,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="BB8" t="s">
         <v>273</v>
@@ -4088,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="BB9" s="3" t="s">
         <v>274</v>
@@ -4300,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="BB10" s="3" t="s">
         <v>274</v>
@@ -4512,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="BB11" s="3" t="s">
         <v>274</v>
@@ -4730,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="BB12" s="3" t="s">
         <v>274</v>
@@ -4948,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="BB13" s="3" t="s">
         <v>274</v>
@@ -5103,7 +5100,7 @@
         <v>371</v>
       </c>
       <c r="AF14" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>252</v>
@@ -5166,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="BB14" t="s">
         <v>252</v>
@@ -5321,7 +5318,7 @@
         <v>372</v>
       </c>
       <c r="AF15" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>252</v>
@@ -5384,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="BB15" t="s">
         <v>252</v>
@@ -5536,7 +5533,7 @@
         <v>374</v>
       </c>
       <c r="AF16" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>388</v>
@@ -5599,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="BB16" t="s">
         <v>388</v>
@@ -5754,7 +5751,7 @@
         <v>375</v>
       </c>
       <c r="AF17" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="AG17" t="s">
         <v>386</v>
@@ -5817,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="BB17" t="s">
         <v>283</v>
@@ -6026,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="BB18" t="s">
         <v>274</v>
@@ -6238,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="BB19" t="s">
         <v>274</v>
@@ -6450,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="BB20" t="s">
         <v>274</v>
@@ -6605,7 +6602,7 @@
         <v>379</v>
       </c>
       <c r="AF21" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="AG21" t="s">
         <v>391</v>
@@ -6668,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="BB21" t="s">
         <v>269</v>
@@ -6823,7 +6820,7 @@
         <v>380</v>
       </c>
       <c r="AF22" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="AG22" t="s">
         <v>391</v>
@@ -6886,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="BB22" t="s">
         <v>282</v>
@@ -7101,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="BB23" t="s">
         <v>284</v>
@@ -7310,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>453</v>
+        <v>286</v>
       </c>
       <c r="BB24" t="s">
         <v>285</v>
@@ -7519,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="BB25" t="s">
         <v>288</v>
@@ -7728,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="BB26" t="s">
         <v>289</v>
@@ -8083,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="AF28" t="s">
         <v>421</v>
@@ -8296,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="AF29" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="AG29" t="s">
         <v>354</v>
@@ -9307,7 +9304,7 @@
     <hyperlink ref="I25" r:id="rId64" xr:uid="{08FEA981-1552-4A9C-9590-7E6336F9BF62}"/>
     <hyperlink ref="I19" r:id="rId65" xr:uid="{5141E2F4-893B-4293-B6A5-548E8E7A0229}"/>
     <hyperlink ref="I14" r:id="rId66" xr:uid="{B3CB2A82-6AF4-4048-BD30-3CA31B2F92C9}"/>
-    <hyperlink ref="AF4" r:id="rId67" xr:uid="{5FE1D236-540D-4861-87E9-A93C0FDCBE28}"/>
+    <hyperlink ref="AF4" r:id="rId67" display="www.bankieren.rabobank.nl" xr:uid="{5FE1D236-540D-4861-87E9-A93C0FDCBE28}"/>
     <hyperlink ref="AF2" r:id="rId68" xr:uid="{273588AF-838B-4FE7-8A5B-64FEE4B18D95}"/>
     <hyperlink ref="AF3" r:id="rId69" xr:uid="{9BB4DD91-F663-4B40-8602-861FCE5B4767}"/>
     <hyperlink ref="AF5" r:id="rId70" xr:uid="{B70F1634-D038-4C10-8A51-B9A8429E126B}"/>
@@ -9317,50 +9314,50 @@
     <hyperlink ref="AF8" r:id="rId74" xr:uid="{2B10A3C9-F829-48FE-B3CF-421A80B015ED}"/>
     <hyperlink ref="AF9" r:id="rId75" xr:uid="{82152D3E-B618-41DF-8EBD-787A97AE3ADB}"/>
     <hyperlink ref="AF10" r:id="rId76" xr:uid="{EA827CEE-735B-4D89-87B6-E29D31944E70}"/>
-    <hyperlink ref="AF21" r:id="rId77" xr:uid="{FE4E1AC0-5F8B-40B0-A29A-3A6452E6C624}"/>
+    <hyperlink ref="AF21" r:id="rId77" display="www.aanvragen.onvz.nl" xr:uid="{FE4E1AC0-5F8B-40B0-A29A-3A6452E6C624}"/>
     <hyperlink ref="AF20" r:id="rId78" xr:uid="{C734F6DC-379D-4CE0-A310-8FC858FB6B18}"/>
     <hyperlink ref="AF18" r:id="rId79" xr:uid="{B59B8212-17F3-409F-9DD1-AC175DF81B6A}"/>
-    <hyperlink ref="AF17" r:id="rId80" xr:uid="{775FFE01-18F0-424C-B3D2-A092D3625942}"/>
-    <hyperlink ref="AF15" r:id="rId81" xr:uid="{E1394DBA-303A-4DD1-B385-42DC7BAFE3A8}"/>
-    <hyperlink ref="AF16" r:id="rId82" xr:uid="{6113B00B-62A3-419B-836D-F75B09B13901}"/>
+    <hyperlink ref="AF17" r:id="rId80" display="www.aanvragen.aevitae.com" xr:uid="{775FFE01-18F0-424C-B3D2-A092D3625942}"/>
+    <hyperlink ref="AF15" r:id="rId81" display="www.aanmelden.stadholland.nl" xr:uid="{E1394DBA-303A-4DD1-B385-42DC7BAFE3A8}"/>
+    <hyperlink ref="AF16" r:id="rId82" display="www.aanvraag.salland.nl" xr:uid="{6113B00B-62A3-419B-836D-F75B09B13901}"/>
     <hyperlink ref="AF13" r:id="rId83" xr:uid="{8E6D4EBC-CC03-4559-8866-1D400AD58BE1}"/>
     <hyperlink ref="AF12" r:id="rId84" xr:uid="{75B82680-59C6-42CF-8AC4-2BCCD726334E}"/>
     <hyperlink ref="AF23" r:id="rId85" xr:uid="{62AFE57D-7F31-43FD-BC99-F250F62EBAE3}"/>
-    <hyperlink ref="AF22" r:id="rId86" xr:uid="{62EF86B0-E0B0-46DA-BF58-C963E208C98A}"/>
+    <hyperlink ref="AF22" r:id="rId86" display="www.aanvragen.vvaa.nl" xr:uid="{62EF86B0-E0B0-46DA-BF58-C963E208C98A}"/>
     <hyperlink ref="AF24" r:id="rId87" xr:uid="{FCA93A1C-D6C6-41DE-B232-B26716C72526}"/>
     <hyperlink ref="AF28" r:id="rId88" xr:uid="{3DF09DAA-A424-46A2-A17D-56E060B4C95B}"/>
-    <hyperlink ref="AF29" r:id="rId89" xr:uid="{EEAC4137-F912-46BE-8F4E-9E8BA97DFC6D}"/>
+    <hyperlink ref="AF29" r:id="rId89" display="www.service.zorgenzekerheid.nl" xr:uid="{EEAC4137-F912-46BE-8F4E-9E8BA97DFC6D}"/>
     <hyperlink ref="AF27" r:id="rId90" xr:uid="{1DC83C01-A74B-42BC-BD4E-5E0E4676C789}"/>
     <hyperlink ref="AF26" r:id="rId91" xr:uid="{2DB195F0-5F71-41C7-B41B-5A9668CAB889}"/>
     <hyperlink ref="AF25" r:id="rId92" xr:uid="{DF10C723-F06F-42D2-BBC2-631BB4973626}"/>
     <hyperlink ref="AF19" r:id="rId93" xr:uid="{70A5BAAA-5790-4919-8346-E017C3255984}"/>
-    <hyperlink ref="AF14" r:id="rId94" xr:uid="{9129E375-E5C7-43F9-AB82-3C6F6638EBD4}"/>
+    <hyperlink ref="AF14" r:id="rId94" display="www.aanmelden.dsw.nl" xr:uid="{9129E375-E5C7-43F9-AB82-3C6F6638EBD4}"/>
     <hyperlink ref="AE29" r:id="rId95" xr:uid="{952A0304-5B2C-4D4B-BA4A-D4C03F0B7612}"/>
     <hyperlink ref="BA2" r:id="rId96" display="www.login-select.defriesland.nl" xr:uid="{0DDE0281-20FA-4487-9DA2-33A55F53257D}"/>
     <hyperlink ref="BA3" r:id="rId97" display="www.login-select.fbto.nl" xr:uid="{036F04D4-28B1-4A93-AF12-F2496F10EE17}"/>
     <hyperlink ref="BA4" r:id="rId98" display="www.login-select.interpolis.nl" xr:uid="{90E9A6A1-A3BB-4174-8382-22CFE2944455}"/>
-    <hyperlink ref="BA5" r:id="rId99" xr:uid="{7D7AD1B5-E971-43C8-8BCE-E0CEEFEF2C08}"/>
-    <hyperlink ref="BA6" r:id="rId100" xr:uid="{F6A59FE3-1075-431D-BEED-E05A288E1B1E}"/>
-    <hyperlink ref="BA7" r:id="rId101" xr:uid="{EACA0B4B-086C-425D-BF2A-2C9D9021EE71}"/>
-    <hyperlink ref="BA8" r:id="rId102" xr:uid="{22E99511-D9A2-4E9B-A92C-80D00A18043D}"/>
-    <hyperlink ref="BA9" r:id="rId103" xr:uid="{6C435B83-9690-4EAF-891D-1DC5CB0E91C8}"/>
-    <hyperlink ref="BA10" r:id="rId104" xr:uid="{D1A97DE9-BA5E-41DC-A0C2-0725799FCE1B}"/>
-    <hyperlink ref="BA11" r:id="rId105" xr:uid="{2078425F-9C83-4AA3-820D-3801DB190F75}"/>
-    <hyperlink ref="BA12" r:id="rId106" xr:uid="{3A491BF6-69EC-4639-A95D-71D1A0A6D5F5}"/>
-    <hyperlink ref="BA13" r:id="rId107" xr:uid="{F21DF260-3ADF-4FFC-89F8-6D57D34A7F9B}"/>
-    <hyperlink ref="BA14" r:id="rId108" xr:uid="{ECBB63B6-798A-4B39-AB6E-5B312E6A2E88}"/>
-    <hyperlink ref="BA15" r:id="rId109" xr:uid="{6733EE79-87A3-4E41-8BF5-2383B09DDB83}"/>
-    <hyperlink ref="BA16" r:id="rId110" xr:uid="{D5299527-4779-4E5C-9371-03A039584659}"/>
-    <hyperlink ref="BA17" r:id="rId111" xr:uid="{0DB09F74-398F-4AFE-87BB-9C06F7C4D3CE}"/>
-    <hyperlink ref="BA18" r:id="rId112" xr:uid="{C4CB4073-EA13-4845-BA77-E73A2C93C5A5}"/>
-    <hyperlink ref="BA19" r:id="rId113" xr:uid="{40549E75-A603-42DE-A106-3AFE97E9F915}"/>
-    <hyperlink ref="BA20" r:id="rId114" xr:uid="{080618EA-2DEF-479D-82CD-F61076A7E41B}"/>
-    <hyperlink ref="BA21" r:id="rId115" xr:uid="{A9C8C6F0-DE6E-4EB9-871B-F106E0BCFB8B}"/>
-    <hyperlink ref="BA22" r:id="rId116" xr:uid="{FE321390-15EF-451E-9F9E-C80B543C5A11}"/>
-    <hyperlink ref="BA23" r:id="rId117" xr:uid="{313B98A9-6FCE-4DCE-A251-D5F188F6F88E}"/>
-    <hyperlink ref="BA24" r:id="rId118" xr:uid="{150B704A-0B2E-4822-B767-4D27CEBF9DF8}"/>
-    <hyperlink ref="BA25" r:id="rId119" xr:uid="{4CA00F3E-582B-4E64-BE24-599F8270A784}"/>
-    <hyperlink ref="BA26" r:id="rId120" xr:uid="{C9ADAA93-351D-401A-B916-33915CE73013}"/>
+    <hyperlink ref="BA5" r:id="rId99" display="www.login-select.dechristelijkezorgverzekeraar.nl" xr:uid="{7D7AD1B5-E971-43C8-8BCE-E0CEEFEF2C08}"/>
+    <hyperlink ref="BA6" r:id="rId100" display="www.login-select.zilverenkruis.nl" xr:uid="{F6A59FE3-1075-431D-BEED-E05A288E1B1E}"/>
+    <hyperlink ref="BA7" r:id="rId101" display="www.authenticatie.mijnzorg.asr.nl" xr:uid="{EACA0B4B-086C-425D-BF2A-2C9D9021EE71}"/>
+    <hyperlink ref="BA8" r:id="rId102" display="www.authenticatie.mijnzorg-ikkieszelf.asr.nl" xr:uid="{22E99511-D9A2-4E9B-A92C-80D00A18043D}"/>
+    <hyperlink ref="BA9" r:id="rId103" display="www.login.cz.nl" xr:uid="{6C435B83-9690-4EAF-891D-1DC5CB0E91C8}"/>
+    <hyperlink ref="BA10" r:id="rId104" display="www.login.cz.nl" xr:uid="{D1A97DE9-BA5E-41DC-A0C2-0725799FCE1B}"/>
+    <hyperlink ref="BA11" r:id="rId105" display="www.login.just.nl" xr:uid="{2078425F-9C83-4AA3-820D-3801DB190F75}"/>
+    <hyperlink ref="BA12" r:id="rId106" display="www.login.nn-zorg.nl" xr:uid="{3A491BF6-69EC-4639-A95D-71D1A0A6D5F5}"/>
+    <hyperlink ref="BA13" r:id="rId107" display="www.login.ohra-zorg.nl" xr:uid="{F21DF260-3ADF-4FFC-89F8-6D57D34A7F9B}"/>
+    <hyperlink ref="BA14" r:id="rId108" display="www.authenticatie.dsw.nl" xr:uid="{ECBB63B6-798A-4B39-AB6E-5B312E6A2E88}"/>
+    <hyperlink ref="BA15" r:id="rId109" display="www.authenticatie.stadholland.nl" xr:uid="{6733EE79-87A3-4E41-8BF5-2383B09DDB83}"/>
+    <hyperlink ref="BA16" r:id="rId110" display="www.mijn.salland.nl" xr:uid="{D5299527-4779-4E5C-9371-03A039584659}"/>
+    <hyperlink ref="BA17" r:id="rId111" display="www.idin.aevitae.com" xr:uid="{0DB09F74-398F-4AFE-87BB-9C06F7C4D3CE}"/>
+    <hyperlink ref="BA18" r:id="rId112" display="www.inlog.anderzorg.nl" xr:uid="{C4CB4073-EA13-4845-BA77-E73A2C93C5A5}"/>
+    <hyperlink ref="BA19" r:id="rId113" display="www.inlog.menzis.nl" xr:uid="{40549E75-A603-42DE-A106-3AFE97E9F915}"/>
+    <hyperlink ref="BA20" r:id="rId114" display="www.inlog.vinkvink.nl" xr:uid="{080618EA-2DEF-479D-82CD-F61076A7E41B}"/>
+    <hyperlink ref="BA21" r:id="rId115" display="www.inlog.onvz.nl" xr:uid="{A9C8C6F0-DE6E-4EB9-871B-F106E0BCFB8B}"/>
+    <hyperlink ref="BA22" r:id="rId116" display="www.prdledenvvaa.b2clogin.com" xr:uid="{FE321390-15EF-451E-9F9E-C80B543C5A11}"/>
+    <hyperlink ref="BA23" r:id="rId117" display="www.inloggen.mijnunivezorg.nl" xr:uid="{313B98A9-6FCE-4DCE-A251-D5F188F6F88E}"/>
+    <hyperlink ref="BA24" r:id="rId118" display="www.inloggen.vgz.nl" xr:uid="{150B704A-0B2E-4822-B767-4D27CEBF9DF8}"/>
+    <hyperlink ref="BA25" r:id="rId119" display="www.inloggen.vgzbewuzt.nl" xr:uid="{4CA00F3E-582B-4E64-BE24-599F8270A784}"/>
+    <hyperlink ref="BA26" r:id="rId120" display="www.inloggen.mijnzekurzorg.nl" xr:uid="{C9ADAA93-351D-401A-B916-33915CE73013}"/>
     <hyperlink ref="BA27" r:id="rId121" display="www.inloggen.vgz.nl" xr:uid="{A6F5ECBC-E26E-4A20-9B8B-A9CBA50BF8E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF26955-E8B9-4F0F-848F-99674A68800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8487DFA-E5E4-4960-8941-D573906243F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="460">
   <si>
     <t>Company</t>
   </si>
@@ -1413,6 +1413,12 @@
   </si>
   <si>
     <t>aanvragen.vvaazorgverzekering.nl</t>
+  </si>
+  <si>
+    <t>Anycast</t>
+  </si>
+  <si>
+    <t>Location 1 nl, 2 eu, 3 else</t>
   </si>
 </sst>
 </file>
@@ -1555,13 +1561,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
@@ -1641,7 +1640,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1649,6 +1647,7 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1692,6 +1691,7 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1699,7 +1699,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2127,81 +2133,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT29"/>
+  <dimension ref="A1:BV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE9" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="11" width="46.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="8" max="11" width="46.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" customWidth="1"/>
-    <col min="18" max="18" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" customWidth="1"/>
-    <col min="25" max="25" width="13.5546875" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" customWidth="1"/>
-    <col min="28" max="30" width="16.44140625" customWidth="1"/>
-    <col min="31" max="32" width="68.109375" customWidth="1"/>
-    <col min="33" max="33" width="25.33203125" customWidth="1"/>
-    <col min="34" max="35" width="21.5546875" customWidth="1"/>
-    <col min="36" max="36" width="46.44140625" customWidth="1"/>
-    <col min="37" max="37" width="15.44140625" customWidth="1"/>
-    <col min="38" max="38" width="21.109375" customWidth="1"/>
-    <col min="39" max="39" width="24.6640625" customWidth="1"/>
-    <col min="40" max="40" width="14.88671875" customWidth="1"/>
-    <col min="41" max="41" width="32.88671875" customWidth="1"/>
-    <col min="42" max="42" width="32.109375" customWidth="1"/>
-    <col min="43" max="43" width="24.5546875" customWidth="1"/>
-    <col min="44" max="44" width="32.109375" customWidth="1"/>
-    <col min="45" max="45" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="20.44140625" customWidth="1"/>
-    <col min="47" max="47" width="21.33203125" customWidth="1"/>
-    <col min="48" max="48" width="17.6640625" customWidth="1"/>
-    <col min="49" max="49" width="18.21875" customWidth="1"/>
-    <col min="50" max="50" width="24.21875" customWidth="1"/>
-    <col min="51" max="52" width="20.6640625" customWidth="1"/>
-    <col min="53" max="53" width="37.77734375" customWidth="1"/>
-    <col min="54" max="54" width="25.77734375" customWidth="1"/>
-    <col min="55" max="55" width="20.109375" customWidth="1"/>
-    <col min="56" max="57" width="29.33203125" customWidth="1"/>
-    <col min="58" max="58" width="10.88671875" customWidth="1"/>
-    <col min="59" max="59" width="16.6640625" customWidth="1"/>
-    <col min="60" max="60" width="21.33203125" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" customWidth="1"/>
-    <col min="62" max="62" width="28.33203125" customWidth="1"/>
-    <col min="63" max="63" width="48.88671875" customWidth="1"/>
-    <col min="64" max="64" width="19.109375" customWidth="1"/>
-    <col min="65" max="65" width="27" customWidth="1"/>
-    <col min="66" max="66" width="9.33203125" customWidth="1"/>
-    <col min="67" max="67" width="14.88671875" customWidth="1"/>
-    <col min="68" max="68" width="15.44140625" customWidth="1"/>
-    <col min="69" max="69" width="12.109375" customWidth="1"/>
-    <col min="70" max="70" width="12.44140625" customWidth="1"/>
-    <col min="71" max="71" width="18" customWidth="1"/>
-    <col min="72" max="72" width="15.21875" customWidth="1"/>
-    <col min="73" max="77" width="26" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="30" width="16.42578125" customWidth="1"/>
+    <col min="31" max="32" width="68.140625" customWidth="1"/>
+    <col min="33" max="33" width="25.28515625" customWidth="1"/>
+    <col min="34" max="37" width="21.5703125" customWidth="1"/>
+    <col min="38" max="38" width="46.42578125" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" customWidth="1"/>
+    <col min="40" max="40" width="21.140625" customWidth="1"/>
+    <col min="41" max="41" width="24.7109375" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" customWidth="1"/>
+    <col min="43" max="43" width="32.85546875" customWidth="1"/>
+    <col min="44" max="44" width="32.140625" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" customWidth="1"/>
+    <col min="46" max="46" width="32.140625" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" customWidth="1"/>
+    <col min="48" max="48" width="20.42578125" customWidth="1"/>
+    <col min="49" max="49" width="21.28515625" customWidth="1"/>
+    <col min="50" max="50" width="17.7109375" customWidth="1"/>
+    <col min="51" max="51" width="18.28515625" customWidth="1"/>
+    <col min="52" max="52" width="24.28515625" customWidth="1"/>
+    <col min="53" max="54" width="20.7109375" customWidth="1"/>
+    <col min="55" max="55" width="37.7109375" customWidth="1"/>
+    <col min="56" max="56" width="25.7109375" customWidth="1"/>
+    <col min="57" max="57" width="20.140625" customWidth="1"/>
+    <col min="58" max="59" width="29.28515625" customWidth="1"/>
+    <col min="60" max="60" width="10.85546875" customWidth="1"/>
+    <col min="61" max="61" width="16.7109375" customWidth="1"/>
+    <col min="62" max="62" width="21.28515625" customWidth="1"/>
+    <col min="63" max="63" width="11.28515625" customWidth="1"/>
+    <col min="64" max="64" width="28.28515625" customWidth="1"/>
+    <col min="65" max="65" width="48.85546875" customWidth="1"/>
+    <col min="66" max="66" width="19.140625" customWidth="1"/>
+    <col min="67" max="67" width="27" customWidth="1"/>
+    <col min="68" max="68" width="9.28515625" customWidth="1"/>
+    <col min="69" max="69" width="14.85546875" customWidth="1"/>
+    <col min="70" max="70" width="15.42578125" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" customWidth="1"/>
+    <col min="72" max="72" width="12.42578125" customWidth="1"/>
+    <col min="73" max="73" width="18" customWidth="1"/>
+    <col min="74" max="74" width="15.28515625" customWidth="1"/>
+    <col min="75" max="79" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2305,121 +2311,127 @@
         <v>161</v>
       </c>
       <c r="AI1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AK1" t="s">
         <v>355</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>186</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>199</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>200</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>161</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>162</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>163</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>164</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>165</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>166</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>167</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>168</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>352</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>385</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>423</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>266</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>267</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>142</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>276</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>277</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>201</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>202</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>150</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>151</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>152</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>153</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>154</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>155</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>156</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>143</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>318</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>157</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>158</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2522,53 +2534,53 @@
       <c r="AH2" t="s">
         <v>243</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>301</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>301</v>
       </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
       <c r="AP2">
         <v>1</v>
       </c>
       <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
         <v>0.5</v>
       </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
         <v>100</v>
       </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -2576,54 +2588,54 @@
       <c r="AZ2">
         <v>0</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>269</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>270</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>307</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>304</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>304</v>
       </c>
-      <c r="BG2">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI2">
-        <v>1</v>
-      </c>
-      <c r="BJ2">
-        <v>1</v>
-      </c>
       <c r="BK2">
         <v>1</v>
       </c>
       <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
         <v>0.5</v>
       </c>
-      <c r="BM2">
-        <v>1</v>
-      </c>
-      <c r="BN2">
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
         <v>100</v>
       </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
       <c r="BQ2">
         <v>0</v>
       </c>
@@ -2636,8 +2648,14 @@
       <c r="BT2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2740,53 +2758,53 @@
       <c r="AH3" t="s">
         <v>243</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>301</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>301</v>
       </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
       <c r="AP3">
         <v>1</v>
       </c>
       <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
         <v>0.5</v>
       </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
         <v>100</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -2794,54 +2812,54 @@
       <c r="AZ3">
         <v>0</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BD3" t="s">
         <v>269</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BE3" t="s">
         <v>270</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>307</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>304</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" t="s">
         <v>304</v>
       </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
-      <c r="BJ3">
-        <v>1</v>
-      </c>
       <c r="BK3">
         <v>1</v>
       </c>
       <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
         <v>0.5</v>
       </c>
-      <c r="BM3">
-        <v>1</v>
-      </c>
-      <c r="BN3">
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
         <v>100</v>
       </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
       <c r="BQ3">
         <v>0</v>
       </c>
@@ -2854,8 +2872,14 @@
       <c r="BT3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2958,45 +2982,42 @@
       <c r="AH4" t="s">
         <v>392</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
         <v>324</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>323</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
       <c r="AP4">
         <v>1</v>
       </c>
       <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
         <v>0.5</v>
       </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
         <v>100</v>
       </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
       <c r="AV4">
         <v>0</v>
       </c>
@@ -3012,54 +3033,54 @@
       <c r="AZ4">
         <v>0</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>269</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BE4" t="s">
         <v>270</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>307</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>304</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>304</v>
       </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI4">
-        <v>1</v>
-      </c>
-      <c r="BJ4">
-        <v>1</v>
-      </c>
       <c r="BK4">
         <v>1</v>
       </c>
       <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
         <v>0.5</v>
       </c>
-      <c r="BM4">
-        <v>1</v>
-      </c>
-      <c r="BN4">
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
         <v>100</v>
       </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
       <c r="BQ4">
         <v>0</v>
       </c>
@@ -3072,8 +3093,14 @@
       <c r="BT4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3176,53 +3203,53 @@
       <c r="AH5" t="s">
         <v>243</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
         <v>301</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM5" t="s">
         <v>301</v>
       </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
       <c r="AP5">
         <v>1</v>
       </c>
       <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
         <v>0.5</v>
       </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
         <v>100</v>
       </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -3230,54 +3257,54 @@
       <c r="AZ5">
         <v>0</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BD5" t="s">
         <v>269</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BE5" t="s">
         <v>270</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BF5" t="s">
         <v>307</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BG5" t="s">
         <v>304</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BH5" t="s">
         <v>304</v>
       </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="1" t="s">
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI5">
-        <v>1</v>
-      </c>
-      <c r="BJ5">
-        <v>1</v>
-      </c>
       <c r="BK5">
         <v>1</v>
       </c>
       <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
         <v>0.5</v>
       </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
-      <c r="BN5">
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
         <v>100</v>
       </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
       <c r="BQ5">
         <v>0</v>
       </c>
@@ -3290,8 +3317,14 @@
       <c r="BT5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3394,53 +3427,53 @@
       <c r="AH6" t="s">
         <v>243</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AL6" t="s">
         <v>301</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AM6" t="s">
         <v>301</v>
       </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
       <c r="AP6">
         <v>1</v>
       </c>
       <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
         <v>0.5</v>
       </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6">
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
         <v>100</v>
       </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -3448,54 +3481,54 @@
       <c r="AZ6">
         <v>0</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BD6" t="s">
         <v>269</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BE6" t="s">
         <v>270</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BF6" t="s">
         <v>307</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BG6" t="s">
         <v>304</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BH6" t="s">
         <v>304</v>
       </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="1" t="s">
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BJ6">
-        <v>1</v>
-      </c>
       <c r="BK6">
         <v>1</v>
       </c>
       <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
         <v>0.5</v>
       </c>
-      <c r="BM6">
-        <v>1</v>
-      </c>
-      <c r="BN6">
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
         <v>100</v>
       </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
       <c r="BQ6">
         <v>0</v>
       </c>
@@ -3508,8 +3541,14 @@
       <c r="BT6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3606,53 +3645,50 @@
       <c r="AG7" t="s">
         <v>244</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>9</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>9</v>
       </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
         <v>0.5</v>
       </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AS7">
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
         <v>81</v>
       </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7">
         <v>0</v>
@@ -3660,68 +3696,74 @@
       <c r="AZ7">
         <v>0</v>
       </c>
-      <c r="BA7" s="1" t="s">
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BD7" t="s">
         <v>273</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BE7" t="s">
         <v>272</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BF7" t="s">
         <v>324</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BG7" t="s">
         <v>323</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BH7" t="s">
         <v>323</v>
       </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="1" t="s">
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BI7">
-        <v>1</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
       <c r="BK7">
         <v>1</v>
       </c>
       <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
         <v>0.5</v>
       </c>
-      <c r="BM7">
-        <v>1</v>
-      </c>
-      <c r="BN7">
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
         <v>100</v>
       </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>1</v>
-      </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3818,53 +3860,50 @@
       <c r="AG8" t="s">
         <v>244</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AL8" t="s">
         <v>9</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AM8" t="s">
         <v>9</v>
       </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
         <v>0.5</v>
       </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
         <v>81</v>
       </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8">
         <v>0</v>
@@ -3872,68 +3911,74 @@
       <c r="AZ8">
         <v>0</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BD8" t="s">
         <v>273</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BE8" t="s">
         <v>272</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BF8" t="s">
         <v>324</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BG8" t="s">
         <v>323</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BH8" t="s">
         <v>323</v>
       </c>
-      <c r="BG8">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="1" t="s">
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BI8">
-        <v>1</v>
-      </c>
-      <c r="BJ8">
-        <v>1</v>
-      </c>
       <c r="BK8">
         <v>1</v>
       </c>
       <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
         <v>0.5</v>
       </c>
-      <c r="BM8">
-        <v>1</v>
-      </c>
-      <c r="BN8">
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
         <v>100</v>
       </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>1</v>
-      </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4030,53 +4075,50 @@
       <c r="AG9" t="s">
         <v>245</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AL9" t="s">
         <v>323</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
         <v>323</v>
       </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
         <v>0.5</v>
       </c>
-      <c r="AR9">
-        <v>1</v>
-      </c>
-      <c r="AS9">
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
         <v>55</v>
       </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>1</v>
-      </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -4084,54 +4126,54 @@
       <c r="AZ9">
         <v>0</v>
       </c>
-      <c r="BA9" s="1" t="s">
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="BB9" s="3" t="s">
+      <c r="BD9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BE9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BF9" t="s">
         <v>312</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BG9" t="s">
         <v>309</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BH9" t="s">
         <v>309</v>
       </c>
-      <c r="BG9">
-        <v>1</v>
-      </c>
-      <c r="BH9" s="1" t="s">
+      <c r="BI9">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI9">
-        <v>1</v>
-      </c>
-      <c r="BJ9">
-        <v>1</v>
-      </c>
       <c r="BK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9">
+        <v>1</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
         <v>0.5</v>
       </c>
-      <c r="BM9">
-        <v>1</v>
-      </c>
-      <c r="BN9">
+      <c r="BO9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
         <v>97</v>
       </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
       <c r="BQ9">
         <v>0</v>
       </c>
@@ -4144,8 +4186,14 @@
       <c r="BT9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4242,53 +4290,50 @@
       <c r="AG10" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AL10" t="s">
         <v>323</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AM10" t="s">
         <v>323</v>
       </c>
-      <c r="AL10">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
       <c r="AP10">
         <v>0</v>
       </c>
       <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>0.5</v>
       </c>
-      <c r="AR10">
-        <v>1</v>
-      </c>
-      <c r="AS10">
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
         <v>76</v>
       </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -4296,54 +4341,54 @@
       <c r="AZ10">
         <v>0</v>
       </c>
-      <c r="BA10" s="1" t="s">
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="BB10" s="3" t="s">
+      <c r="BD10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BC10" s="3" t="s">
+      <c r="BE10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BF10" t="s">
         <v>312</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BG10" t="s">
         <v>309</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BH10" t="s">
         <v>309</v>
       </c>
-      <c r="BG10">
-        <v>1</v>
-      </c>
-      <c r="BH10" s="1" t="s">
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI10">
-        <v>1</v>
-      </c>
-      <c r="BJ10">
-        <v>1</v>
-      </c>
       <c r="BK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10">
+        <v>1</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
         <v>0.5</v>
       </c>
-      <c r="BM10">
-        <v>1</v>
-      </c>
-      <c r="BN10">
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
         <v>97</v>
       </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
       <c r="BQ10">
         <v>0</v>
       </c>
@@ -4356,8 +4401,14 @@
       <c r="BT10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4454,53 +4505,50 @@
       <c r="AG11" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AL11" t="s">
         <v>323</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>323</v>
       </c>
-      <c r="AL11">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
         <v>0.5</v>
       </c>
-      <c r="AR11">
-        <v>1</v>
-      </c>
-      <c r="AS11">
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
         <v>55</v>
       </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -4508,54 +4556,54 @@
       <c r="AZ11">
         <v>0</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="BB11" s="3" t="s">
+      <c r="BD11" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BC11" s="3" t="s">
+      <c r="BE11" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BF11" t="s">
         <v>312</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BG11" t="s">
         <v>309</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BH11" t="s">
         <v>309</v>
       </c>
-      <c r="BG11">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="1" t="s">
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI11">
-        <v>1</v>
-      </c>
-      <c r="BJ11">
-        <v>1</v>
-      </c>
       <c r="BK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
         <v>0.5</v>
       </c>
-      <c r="BM11">
-        <v>1</v>
-      </c>
-      <c r="BN11">
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
         <v>97</v>
       </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
       <c r="BQ11">
         <v>0</v>
       </c>
@@ -4568,8 +4616,14 @@
       <c r="BT11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4672,53 +4726,50 @@
       <c r="AH12" t="s">
         <v>249</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
         <v>324</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AL12" t="s">
         <v>323</v>
       </c>
-      <c r="AK12" s="1" t="s">
+      <c r="AM12" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="1" t="s">
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN12">
-        <v>1</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
       <c r="AP12">
         <v>1</v>
       </c>
       <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
         <v>0.5</v>
       </c>
-      <c r="AR12">
-        <v>1</v>
-      </c>
-      <c r="AS12">
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
         <v>73</v>
       </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>1</v>
-      </c>
       <c r="AV12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -4726,54 +4777,54 @@
       <c r="AZ12">
         <v>0</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="BB12" s="3" t="s">
+      <c r="BD12" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BC12" s="3" t="s">
+      <c r="BE12" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BF12" t="s">
         <v>312</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BG12" t="s">
         <v>309</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BH12" t="s">
         <v>309</v>
       </c>
-      <c r="BG12">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="1" t="s">
+      <c r="BI12">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI12">
-        <v>1</v>
-      </c>
-      <c r="BJ12">
-        <v>1</v>
-      </c>
       <c r="BK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL12">
+        <v>1</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
         <v>0.5</v>
       </c>
-      <c r="BM12">
-        <v>1</v>
-      </c>
-      <c r="BN12">
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
         <v>97</v>
       </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
       <c r="BQ12">
         <v>0</v>
       </c>
@@ -4786,8 +4837,14 @@
       <c r="BT12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4890,53 +4947,50 @@
       <c r="AH13" t="s">
         <v>251</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AL13" t="s">
         <v>323</v>
       </c>
-      <c r="AK13" s="1" t="s">
+      <c r="AM13" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AL13">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="1" t="s">
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
       <c r="AP13">
         <v>1</v>
       </c>
       <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
         <v>0.5</v>
       </c>
-      <c r="AR13">
-        <v>1</v>
-      </c>
-      <c r="AS13">
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
         <v>73</v>
       </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>1</v>
-      </c>
       <c r="AV13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13">
         <v>0</v>
@@ -4944,54 +4998,54 @@
       <c r="AZ13">
         <v>0</v>
       </c>
-      <c r="BA13" s="1" t="s">
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BB13" s="3" t="s">
+      <c r="BD13" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BC13" s="3" t="s">
+      <c r="BE13" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BF13" t="s">
         <v>312</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BG13" t="s">
         <v>309</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BH13" t="s">
         <v>309</v>
       </c>
-      <c r="BG13">
-        <v>1</v>
-      </c>
-      <c r="BH13" s="1" t="s">
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI13">
-        <v>1</v>
-      </c>
-      <c r="BJ13">
-        <v>1</v>
-      </c>
       <c r="BK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13">
+        <v>1</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
         <v>0.5</v>
       </c>
-      <c r="BM13">
-        <v>1</v>
-      </c>
-      <c r="BN13">
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
         <v>97</v>
       </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
       <c r="BQ13">
         <v>0</v>
       </c>
@@ -5004,8 +5058,14 @@
       <c r="BT13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5108,53 +5168,50 @@
       <c r="AH14" t="s">
         <v>278</v>
       </c>
-      <c r="AI14" s="1" t="s">
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AL14" t="s">
         <v>323</v>
       </c>
-      <c r="AK14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AL14">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
       <c r="AP14">
         <v>1</v>
       </c>
       <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
         <v>0.5</v>
       </c>
-      <c r="AR14">
-        <v>1</v>
-      </c>
-      <c r="AS14">
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
         <v>100</v>
       </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>1</v>
-      </c>
       <c r="AV14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -5162,54 +5219,54 @@
       <c r="AZ14">
         <v>0</v>
       </c>
-      <c r="BA14" s="1" t="s">
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BD14" t="s">
         <v>252</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BE14" t="s">
         <v>278</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BF14" t="s">
         <v>324</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BG14" t="s">
         <v>323</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BH14" t="s">
         <v>323</v>
       </c>
-      <c r="BG14">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="1" t="s">
+      <c r="BI14">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI14">
-        <v>1</v>
-      </c>
-      <c r="BJ14">
-        <v>1</v>
-      </c>
       <c r="BK14">
         <v>1</v>
       </c>
       <c r="BL14">
+        <v>1</v>
+      </c>
+      <c r="BM14">
+        <v>1</v>
+      </c>
+      <c r="BN14">
         <v>0.5</v>
       </c>
-      <c r="BM14">
-        <v>1</v>
-      </c>
-      <c r="BN14">
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
         <v>100</v>
       </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
       <c r="BQ14">
         <v>0</v>
       </c>
@@ -5222,8 +5279,14 @@
       <c r="BT14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5326,53 +5389,50 @@
       <c r="AH15" t="s">
         <v>278</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AL15" t="s">
         <v>323</v>
       </c>
-      <c r="AK15" s="1" t="s">
+      <c r="AM15" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
       <c r="AP15">
         <v>1</v>
       </c>
       <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
         <v>0.5</v>
       </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
         <v>100</v>
       </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
       <c r="AV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15">
         <v>0</v>
@@ -5380,54 +5440,54 @@
       <c r="AZ15">
         <v>0</v>
       </c>
-      <c r="BA15" s="1" t="s">
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BD15" t="s">
         <v>252</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="BE15" t="s">
         <v>278</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BF15" t="s">
         <v>324</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BG15" t="s">
         <v>323</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BH15" t="s">
         <v>323</v>
       </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15" s="1" t="s">
+      <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI15">
-        <v>1</v>
-      </c>
-      <c r="BJ15">
-        <v>1</v>
-      </c>
       <c r="BK15">
         <v>1</v>
       </c>
       <c r="BL15">
+        <v>1</v>
+      </c>
+      <c r="BM15">
+        <v>1</v>
+      </c>
+      <c r="BN15">
         <v>0.5</v>
       </c>
-      <c r="BM15">
-        <v>1</v>
-      </c>
-      <c r="BN15">
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
         <v>100</v>
       </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
       <c r="BQ15">
         <v>0</v>
       </c>
@@ -5440,8 +5500,14 @@
       <c r="BT15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5541,45 +5607,45 @@
       <c r="AH16" t="s">
         <v>389</v>
       </c>
-      <c r="AI16" s="1" t="s">
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK16" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AL16" t="s">
         <v>323</v>
       </c>
-      <c r="AK16" s="1" t="s">
+      <c r="AM16" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AL16">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
-      <c r="AO16">
-        <v>1</v>
-      </c>
       <c r="AP16">
         <v>1</v>
       </c>
       <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
         <v>0.5</v>
       </c>
-      <c r="AR16">
-        <v>1</v>
-      </c>
-      <c r="AS16">
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
         <v>100</v>
       </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
       <c r="AV16">
         <v>0</v>
       </c>
@@ -5595,68 +5661,74 @@
       <c r="AZ16">
         <v>0</v>
       </c>
-      <c r="BA16" s="1" t="s">
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BD16" t="s">
         <v>388</v>
       </c>
-      <c r="BC16" t="s">
+      <c r="BE16" t="s">
         <v>389</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BF16" t="s">
         <v>320</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BG16" t="s">
         <v>309</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BH16" t="s">
         <v>309</v>
       </c>
-      <c r="BG16">
-        <v>1</v>
-      </c>
-      <c r="BH16" s="1" t="s">
+      <c r="BI16">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BI16">
-        <v>1</v>
-      </c>
-      <c r="BJ16">
-        <v>1</v>
-      </c>
       <c r="BK16">
         <v>1</v>
       </c>
       <c r="BL16">
+        <v>1</v>
+      </c>
+      <c r="BM16">
+        <v>1</v>
+      </c>
+      <c r="BN16">
         <v>0.5</v>
       </c>
-      <c r="BM16">
-        <v>1</v>
-      </c>
-      <c r="BN16">
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
         <v>100</v>
       </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
       <c r="BQ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR16">
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5759,45 +5831,45 @@
       <c r="AH17" t="s">
         <v>387</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK17" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
         <v>301</v>
       </c>
-      <c r="AK17" s="1" t="s">
+      <c r="AM17" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AL17">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="1" t="s">
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>0.5</v>
       </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AS17">
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
         <v>68</v>
       </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
       <c r="AV17">
         <v>0</v>
       </c>
@@ -5813,65 +5885,71 @@
       <c r="AZ17">
         <v>0</v>
       </c>
-      <c r="BA17" s="1" t="s">
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BD17" t="s">
         <v>283</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BF17" t="s">
         <v>313</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BG17" t="s">
         <v>314</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BH17" t="s">
         <v>314</v>
       </c>
-      <c r="BG17">
-        <v>1</v>
-      </c>
-      <c r="BH17" s="1" t="s">
+      <c r="BI17">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>1</v>
-      </c>
       <c r="BK17">
         <v>0</v>
       </c>
       <c r="BL17">
+        <v>1</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
         <v>0.5</v>
       </c>
-      <c r="BM17">
-        <v>1</v>
-      </c>
-      <c r="BN17">
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
         <v>79</v>
       </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
       <c r="BQ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR17">
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5968,53 +6046,50 @@
       <c r="AG18" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AL18" t="s">
         <v>301</v>
       </c>
-      <c r="AK18" s="1" t="s">
+      <c r="AM18" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AL18">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="1" t="s">
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
         <v>0.5</v>
       </c>
-      <c r="AR18">
-        <v>1</v>
-      </c>
-      <c r="AS18">
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
         <v>81</v>
       </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>1</v>
-      </c>
       <c r="AV18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18">
         <v>0</v>
@@ -6022,54 +6097,54 @@
       <c r="AZ18">
         <v>0</v>
       </c>
-      <c r="BA18" s="1" t="s">
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BD18" t="s">
         <v>274</v>
       </c>
-      <c r="BC18" t="s">
+      <c r="BE18" t="s">
         <v>275</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BF18" t="s">
         <v>325</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BG18" t="s">
         <v>309</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BH18" t="s">
         <v>309</v>
       </c>
-      <c r="BG18">
-        <v>1</v>
-      </c>
-      <c r="BH18" s="1" t="s">
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI18">
-        <v>1</v>
-      </c>
-      <c r="BJ18">
-        <v>1</v>
-      </c>
       <c r="BK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18">
+        <v>1</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
         <v>0.5</v>
       </c>
-      <c r="BM18">
-        <v>1</v>
-      </c>
-      <c r="BN18">
+      <c r="BO18">
+        <v>1</v>
+      </c>
+      <c r="BP18">
         <v>97</v>
       </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
       <c r="BQ18">
         <v>0</v>
       </c>
@@ -6082,8 +6157,14 @@
       <c r="BT18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -6180,53 +6261,50 @@
       <c r="AG19" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AL19" t="s">
         <v>301</v>
       </c>
-      <c r="AK19" s="1" t="s">
+      <c r="AM19" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="1" t="s">
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
         <v>0.5</v>
       </c>
-      <c r="AR19">
-        <v>1</v>
-      </c>
-      <c r="AS19">
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
         <v>81</v>
       </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>1</v>
-      </c>
       <c r="AV19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19">
         <v>0</v>
@@ -6234,54 +6312,54 @@
       <c r="AZ19">
         <v>0</v>
       </c>
-      <c r="BA19" s="1" t="s">
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BD19" t="s">
         <v>274</v>
       </c>
-      <c r="BC19" t="s">
+      <c r="BE19" t="s">
         <v>275</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BF19" t="s">
         <v>325</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BG19" t="s">
         <v>309</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BH19" t="s">
         <v>309</v>
       </c>
-      <c r="BG19">
-        <v>1</v>
-      </c>
-      <c r="BH19" s="1" t="s">
+      <c r="BI19">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI19">
-        <v>1</v>
-      </c>
-      <c r="BJ19">
-        <v>1</v>
-      </c>
       <c r="BK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
         <v>0.5</v>
       </c>
-      <c r="BM19">
-        <v>1</v>
-      </c>
-      <c r="BN19">
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
         <v>97</v>
       </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
       <c r="BQ19">
         <v>0</v>
       </c>
@@ -6294,8 +6372,14 @@
       <c r="BT19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -6392,53 +6476,50 @@
       <c r="AG20" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AL20" t="s">
         <v>301</v>
       </c>
-      <c r="AK20" s="1" t="s">
+      <c r="AM20" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AL20">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="1" t="s">
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>1</v>
-      </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
         <v>0.5</v>
       </c>
-      <c r="AR20">
-        <v>1</v>
-      </c>
-      <c r="AS20">
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
         <v>81</v>
       </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>1</v>
-      </c>
       <c r="AV20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20">
         <v>0</v>
@@ -6446,54 +6527,54 @@
       <c r="AZ20">
         <v>0</v>
       </c>
-      <c r="BA20" s="1" t="s">
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BD20" t="s">
         <v>274</v>
       </c>
-      <c r="BC20" t="s">
+      <c r="BE20" t="s">
         <v>275</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BF20" t="s">
         <v>325</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BG20" t="s">
         <v>309</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BH20" t="s">
         <v>309</v>
       </c>
-      <c r="BG20">
-        <v>1</v>
-      </c>
-      <c r="BH20" s="1" t="s">
+      <c r="BI20">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI20">
-        <v>1</v>
-      </c>
-      <c r="BJ20">
-        <v>1</v>
-      </c>
       <c r="BK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20">
+        <v>1</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
         <v>0.5</v>
       </c>
-      <c r="BM20">
-        <v>1</v>
-      </c>
-      <c r="BN20">
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
         <v>97</v>
       </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
       <c r="BQ20">
         <v>0</v>
       </c>
@@ -6506,8 +6587,14 @@
       <c r="BT20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -6610,53 +6697,50 @@
       <c r="AH21" t="s">
         <v>390</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AL21" t="s">
         <v>331</v>
       </c>
-      <c r="AK21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AL21">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
       <c r="AP21">
         <v>1</v>
       </c>
       <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
         <v>0.5</v>
       </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AS21">
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
         <v>100</v>
       </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
       <c r="AV21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21">
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21">
         <v>0</v>
@@ -6664,54 +6748,54 @@
       <c r="AZ21">
         <v>0</v>
       </c>
-      <c r="BA21" s="1" t="s">
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BD21" t="s">
         <v>269</v>
       </c>
-      <c r="BC21" t="s">
+      <c r="BE21" t="s">
         <v>270</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BF21" t="s">
         <v>307</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BG21" t="s">
         <v>304</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BH21" t="s">
         <v>304</v>
       </c>
-      <c r="BG21">
-        <v>1</v>
-      </c>
-      <c r="BH21" s="1" t="s">
+      <c r="BI21">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI21">
-        <v>1</v>
-      </c>
-      <c r="BJ21">
-        <v>1</v>
-      </c>
       <c r="BK21">
         <v>1</v>
       </c>
       <c r="BL21">
+        <v>1</v>
+      </c>
+      <c r="BM21">
+        <v>1</v>
+      </c>
+      <c r="BN21">
         <v>0.5</v>
       </c>
-      <c r="BM21">
-        <v>1</v>
-      </c>
-      <c r="BN21">
+      <c r="BO21">
+        <v>1</v>
+      </c>
+      <c r="BP21">
         <v>100</v>
       </c>
-      <c r="BO21">
-        <v>0</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
       <c r="BQ21">
         <v>0</v>
       </c>
@@ -6724,8 +6808,14 @@
       <c r="BT21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -6828,50 +6918,47 @@
       <c r="AH22" t="s">
         <v>390</v>
       </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AL22" t="s">
         <v>331</v>
       </c>
-      <c r="AK22" s="1" t="s">
+      <c r="AM22" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="1" t="s">
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AN22">
-        <v>1</v>
-      </c>
-      <c r="AO22">
-        <v>1</v>
-      </c>
       <c r="AP22">
         <v>1</v>
       </c>
       <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
         <v>0.5</v>
       </c>
-      <c r="AR22">
-        <v>1</v>
-      </c>
-      <c r="AS22">
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
         <v>100</v>
       </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
       <c r="AV22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -6880,70 +6967,76 @@
         <v>1</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BD22" t="s">
         <v>282</v>
       </c>
-      <c r="BC22" t="s">
+      <c r="BE22" t="s">
         <v>280</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BF22" t="s">
         <v>300</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BG22" t="s">
         <v>301</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BH22" t="s">
         <v>301</v>
       </c>
-      <c r="BG22">
-        <v>1</v>
-      </c>
-      <c r="BH22" s="1" t="s">
+      <c r="BI22">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BI22">
-        <v>1</v>
-      </c>
-      <c r="BJ22">
-        <v>0</v>
-      </c>
       <c r="BK22">
         <v>1</v>
       </c>
       <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>1</v>
+      </c>
+      <c r="BN22">
         <v>0.5</v>
       </c>
-      <c r="BM22">
-        <v>1</v>
-      </c>
-      <c r="BN22">
+      <c r="BO22">
+        <v>1</v>
+      </c>
+      <c r="BP22">
         <v>73</v>
       </c>
-      <c r="BO22">
-        <v>0</v>
-      </c>
-      <c r="BP22">
-        <v>1</v>
-      </c>
       <c r="BQ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -7043,53 +7136,54 @@
       <c r="AH23" t="s">
         <v>281</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <f>-AJ26</f>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AL23" t="s">
         <v>301</v>
       </c>
-      <c r="AK23" s="1" t="s">
+      <c r="AM23" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AL23">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="1" t="s">
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>1</v>
-      </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
         <v>0.5</v>
       </c>
-      <c r="AR23">
-        <v>1</v>
-      </c>
-      <c r="AS23">
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
         <v>81</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>1</v>
-      </c>
       <c r="AV23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23">
         <v>0</v>
@@ -7097,51 +7191,51 @@
       <c r="AZ23">
         <v>0</v>
       </c>
-      <c r="BA23" s="1" t="s">
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BD23" t="s">
         <v>284</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BF23" t="s">
         <v>290</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BG23" t="s">
         <v>295</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BH23" t="s">
         <v>295</v>
       </c>
-      <c r="BG23">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="1" t="s">
+      <c r="BI23">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI23">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>1</v>
-      </c>
       <c r="BK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23">
+        <v>1</v>
+      </c>
+      <c r="BM23">
+        <v>1</v>
+      </c>
+      <c r="BN23">
         <v>0.5</v>
       </c>
-      <c r="BM23">
+      <c r="BO23">
         <v>0.5</v>
       </c>
-      <c r="BN23">
+      <c r="BP23">
         <v>81</v>
       </c>
-      <c r="BO23">
-        <v>0</v>
-      </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
       <c r="BQ23">
         <v>0</v>
       </c>
@@ -7154,8 +7248,14 @@
       <c r="BT23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -7252,53 +7352,53 @@
       <c r="AG24" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AL24" t="s">
         <v>301</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AM24" t="s">
         <v>301</v>
       </c>
-      <c r="AL24">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="1" t="s">
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
       <c r="AP24">
         <v>0</v>
       </c>
       <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>0.5</v>
       </c>
-      <c r="AR24">
-        <v>1</v>
-      </c>
-      <c r="AS24">
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
         <v>52</v>
       </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>1</v>
-      </c>
       <c r="AV24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24">
         <v>0</v>
@@ -7306,51 +7406,51 @@
       <c r="AZ24">
         <v>0</v>
       </c>
-      <c r="BA24" s="1" t="s">
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BD24" t="s">
         <v>285</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BF24" t="s">
         <v>290</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BG24" t="s">
         <v>295</v>
       </c>
-      <c r="BF24" t="s">
+      <c r="BH24" t="s">
         <v>295</v>
       </c>
-      <c r="BG24">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="1" t="s">
+      <c r="BI24">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI24">
-        <v>0</v>
-      </c>
-      <c r="BJ24">
-        <v>1</v>
-      </c>
       <c r="BK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24">
+        <v>1</v>
+      </c>
+      <c r="BM24">
+        <v>1</v>
+      </c>
+      <c r="BN24">
         <v>0.5</v>
       </c>
-      <c r="BM24">
+      <c r="BO24">
         <v>0.5</v>
       </c>
-      <c r="BN24">
+      <c r="BP24">
         <v>81</v>
       </c>
-      <c r="BO24">
-        <v>0</v>
-      </c>
-      <c r="BP24">
-        <v>0</v>
-      </c>
       <c r="BQ24">
         <v>0</v>
       </c>
@@ -7363,8 +7463,14 @@
       <c r="BT24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7461,53 +7567,53 @@
       <c r="AG25" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AL25" t="s">
         <v>301</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AM25" t="s">
         <v>301</v>
       </c>
-      <c r="AL25">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="1" t="s">
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
       <c r="AP25">
         <v>0</v>
       </c>
       <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>0.5</v>
       </c>
-      <c r="AR25">
-        <v>1</v>
-      </c>
-      <c r="AS25">
+      <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
         <v>52</v>
       </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>1</v>
-      </c>
       <c r="AV25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25">
         <v>0</v>
@@ -7515,51 +7621,51 @@
       <c r="AZ25">
         <v>0</v>
       </c>
-      <c r="BA25" s="1" t="s">
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BD25" t="s">
         <v>288</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BF25" t="s">
         <v>290</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BG25" t="s">
         <v>295</v>
       </c>
-      <c r="BF25" t="s">
+      <c r="BH25" t="s">
         <v>295</v>
       </c>
-      <c r="BG25">
-        <v>1</v>
-      </c>
-      <c r="BH25" s="1" t="s">
+      <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI25">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>1</v>
-      </c>
       <c r="BK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25">
+        <v>1</v>
+      </c>
+      <c r="BM25">
+        <v>1</v>
+      </c>
+      <c r="BN25">
         <v>0.5</v>
       </c>
-      <c r="BM25">
+      <c r="BO25">
         <v>0.5</v>
       </c>
-      <c r="BN25">
+      <c r="BP25">
         <v>81</v>
       </c>
-      <c r="BO25">
-        <v>0</v>
-      </c>
-      <c r="BP25">
-        <v>0</v>
-      </c>
       <c r="BQ25">
         <v>0</v>
       </c>
@@ -7572,8 +7678,14 @@
       <c r="BT25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7670,53 +7782,50 @@
       <c r="AG26" t="s">
         <v>241</v>
       </c>
-      <c r="AI26" s="4" t="s">
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AL26" t="s">
         <v>347</v>
       </c>
-      <c r="AK26" s="1" t="s">
+      <c r="AM26" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AL26">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="1" t="s">
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>1</v>
-      </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
         <v>0.5</v>
       </c>
-      <c r="AR26">
-        <v>1</v>
-      </c>
-      <c r="AS26">
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
         <v>81</v>
       </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>1</v>
-      </c>
       <c r="AV26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26">
         <v>0</v>
@@ -7724,51 +7833,51 @@
       <c r="AZ26">
         <v>0</v>
       </c>
-      <c r="BA26" s="1" t="s">
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BD26" t="s">
         <v>289</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BF26" t="s">
         <v>290</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BG26" t="s">
         <v>295</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BH26" t="s">
         <v>295</v>
       </c>
-      <c r="BG26">
-        <v>1</v>
-      </c>
-      <c r="BH26" s="1" t="s">
+      <c r="BI26">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI26">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>1</v>
-      </c>
       <c r="BK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL26">
+        <v>1</v>
+      </c>
+      <c r="BM26">
+        <v>1</v>
+      </c>
+      <c r="BN26">
         <v>0.5</v>
       </c>
-      <c r="BM26">
+      <c r="BO26">
         <v>0.5</v>
       </c>
-      <c r="BN26">
+      <c r="BP26">
         <v>81</v>
       </c>
-      <c r="BO26">
-        <v>0</v>
-      </c>
-      <c r="BP26">
-        <v>0</v>
-      </c>
       <c r="BQ26">
         <v>0</v>
       </c>
@@ -7781,8 +7890,14 @@
       <c r="BT26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7879,53 +7994,50 @@
       <c r="AG27" t="s">
         <v>240</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="s">
         <v>334</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AL27" t="s">
         <v>349</v>
       </c>
-      <c r="AK27" s="1" t="s">
+      <c r="AM27" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AL27">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="1" t="s">
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
         <v>0.5</v>
       </c>
-      <c r="AR27">
+      <c r="AT27">
         <v>0.5</v>
       </c>
-      <c r="AS27">
+      <c r="AU27">
         <v>55</v>
       </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>1</v>
-      </c>
       <c r="AV27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27">
         <v>0</v>
@@ -7933,51 +8045,51 @@
       <c r="AZ27">
         <v>0</v>
       </c>
-      <c r="BA27" s="1" t="s">
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BD27" t="s">
         <v>285</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BF27" t="s">
         <v>290</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BG27" t="s">
         <v>295</v>
       </c>
-      <c r="BF27" t="s">
+      <c r="BH27" t="s">
         <v>295</v>
       </c>
-      <c r="BG27">
-        <v>1</v>
-      </c>
-      <c r="BH27" s="1" t="s">
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BI27">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>1</v>
-      </c>
       <c r="BK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27">
+        <v>1</v>
+      </c>
+      <c r="BM27">
+        <v>1</v>
+      </c>
+      <c r="BN27">
         <v>0.5</v>
       </c>
-      <c r="BM27">
+      <c r="BO27">
         <v>0.5</v>
       </c>
-      <c r="BN27">
+      <c r="BP27">
         <v>81</v>
       </c>
-      <c r="BO27">
-        <v>0</v>
-      </c>
-      <c r="BP27">
-        <v>0</v>
-      </c>
       <c r="BQ27">
         <v>0</v>
       </c>
@@ -7990,8 +8102,14 @@
       <c r="BT27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8089,53 +8207,50 @@
         <v>175</v>
       </c>
       <c r="AH28" s="1"/>
-      <c r="AI28" t="s">
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="s">
         <v>177</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AL28" t="s">
         <v>333</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AM28" t="s">
         <v>333</v>
       </c>
-      <c r="AL28">
-        <v>1</v>
-      </c>
-      <c r="AM28" t="s">
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="s">
         <v>191</v>
       </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
       <c r="AP28">
         <v>0</v>
       </c>
       <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>0.5</v>
       </c>
-      <c r="AR28">
-        <v>1</v>
-      </c>
-      <c r="AS28">
+      <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AU28">
         <v>77</v>
       </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>1</v>
-      </c>
       <c r="AV28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28">
         <v>0</v>
@@ -8143,65 +8258,71 @@
       <c r="AZ28">
         <v>0</v>
       </c>
-      <c r="BA28" s="1" t="s">
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BD28" t="s">
         <v>181</v>
       </c>
-      <c r="BD28" t="s">
+      <c r="BF28" t="s">
         <v>182</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BG28" t="s">
         <v>292</v>
       </c>
-      <c r="BF28" t="s">
+      <c r="BH28" t="s">
         <v>292</v>
       </c>
-      <c r="BG28">
-        <v>1</v>
-      </c>
-      <c r="BH28" t="s">
+      <c r="BI28">
+        <v>1</v>
+      </c>
+      <c r="BJ28" t="s">
         <v>192</v>
       </c>
-      <c r="BI28">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>1</v>
-      </c>
       <c r="BK28">
         <v>0</v>
       </c>
       <c r="BL28">
+        <v>1</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
         <v>0.5</v>
       </c>
-      <c r="BM28">
-        <v>1</v>
-      </c>
-      <c r="BN28">
+      <c r="BO28">
+        <v>1</v>
+      </c>
+      <c r="BP28">
         <v>76</v>
       </c>
-      <c r="BO28">
-        <v>0</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
       <c r="BQ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="BU28">
+        <v>0</v>
+      </c>
+      <c r="BV28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -8301,53 +8422,50 @@
       <c r="AG29" t="s">
         <v>354</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="s">
         <v>182</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AL29" t="s">
         <v>292</v>
       </c>
-      <c r="AK29" s="1" t="s">
+      <c r="AM29" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AL29">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="1" t="s">
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>1</v>
-      </c>
       <c r="AP29">
         <v>0</v>
       </c>
       <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
         <v>0.5</v>
       </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AS29">
+      <c r="AT29">
+        <v>1</v>
+      </c>
+      <c r="AU29">
         <v>79</v>
       </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>1</v>
-      </c>
       <c r="AV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -8355,68 +8473,74 @@
       <c r="AZ29">
         <v>0</v>
       </c>
-      <c r="BA29" s="1" t="s">
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BD29" t="s">
         <v>181</v>
       </c>
-      <c r="BD29" t="s">
+      <c r="BF29" t="s">
         <v>182</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BG29" t="s">
         <v>292</v>
       </c>
-      <c r="BF29" t="s">
+      <c r="BH29" t="s">
         <v>292</v>
       </c>
-      <c r="BG29">
-        <v>1</v>
-      </c>
-      <c r="BH29" t="s">
+      <c r="BI29">
+        <v>1</v>
+      </c>
+      <c r="BJ29" t="s">
         <v>192</v>
       </c>
-      <c r="BI29">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>1</v>
-      </c>
       <c r="BK29">
         <v>0</v>
       </c>
       <c r="BL29">
+        <v>1</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
         <v>0.5</v>
       </c>
-      <c r="BM29">
-        <v>1</v>
-      </c>
-      <c r="BN29">
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
         <v>76</v>
       </c>
-      <c r="BO29">
-        <v>0</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
       <c r="BQ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29">
+        <v>0</v>
+      </c>
+      <c r="BV29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8426,7 +8550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D29">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8436,6 +8560,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8445,7 +8579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
+  <conditionalFormatting sqref="D12:E12">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8455,7 +8589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:E12">
+  <conditionalFormatting sqref="D13:E13">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8465,7 +8599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:E13">
+  <conditionalFormatting sqref="D14:E14">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8475,7 +8609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
+  <conditionalFormatting sqref="D15:E15">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8485,18 +8619,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:E15">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E9">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8506,7 +8630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E29">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8515,8 +8639,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29 BR2:BT29 AH28 AE2:AE29 AG4:AJ4 AG21:AI22 AG16:AI17 AG29:AJ29">
-    <cfRule type="colorScale" priority="143">
+  <conditionalFormatting sqref="G2:G29 BT2:BV29 AH28 AE2:AE29 AG4:AH4 AG21:AH22 AG16:AH17 AG29:AH29 AK29:AL29 AK16:AK17 AK21:AK22 AK4:AL4">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8526,21 +8650,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J29">
-    <cfRule type="duplicateValues" dxfId="49" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K31 K34:K1048576">
-    <cfRule type="top10" priority="103" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="103"/>
+    <cfRule type="top10" priority="104" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K13 K16:K29">
-    <cfRule type="duplicateValues" dxfId="47" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K29">
-    <cfRule type="duplicateValues" dxfId="46" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="duplicateValues" dxfId="45" priority="115"/>
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="duplicateValues" dxfId="45" priority="116"/>
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8550,8 +8674,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="duplicateValues" dxfId="44" priority="113"/>
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="duplicateValues" dxfId="44" priority="114"/>
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8560,8 +8684,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O41 BG2:BG41 W2:Y29 AT2:AV3 AT18:AV20 AT23:AV27 AL2:AL41 AT5:AV15">
-    <cfRule type="colorScale" priority="125">
+  <conditionalFormatting sqref="O2:O41 BI2:BI41 W2:Y29 AV2:AX3 AV18:AX20 AV23:AX27 AN2:AN41 AV5:AX15">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8571,7 +8695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:U29">
-    <cfRule type="colorScale" priority="127">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8581,7 +8705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8592,8 +8716,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X29 BP2:BQ29 AH28 AE2:AE29 AG4:AJ4 AG21:AI22 AG16:AI17 AG29:AJ29">
-    <cfRule type="colorScale" priority="140">
+  <conditionalFormatting sqref="X2:X29 BR2:BS29 AH28 AE2:AE29 AG4:AH4 AG21:AH22 AG16:AH17 AG29:AH29 AK29:AL29 AK16:AK17 AK21:AK22 AK4:AL4">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8603,7 +8727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y29">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8613,7 +8737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AD29">
-    <cfRule type="colorScale" priority="138">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8623,68 +8747,68 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG3">
-    <cfRule type="duplicateValues" dxfId="43" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG6">
-    <cfRule type="duplicateValues" dxfId="42" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7:AG8">
-    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9:AG13">
-    <cfRule type="duplicateValues" dxfId="40" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14">
-    <cfRule type="duplicateValues" dxfId="39" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15">
-    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18:AG20">
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23:AG25">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG26">
-    <cfRule type="duplicateValues" dxfId="35" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG27">
-    <cfRule type="duplicateValues" dxfId="34" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG28">
-    <cfRule type="duplicateValues" dxfId="33" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH3">
-    <cfRule type="top10" priority="69" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="69"/>
+    <cfRule type="top10" priority="70" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH6">
-    <cfRule type="duplicateValues" dxfId="29" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="61"/>
-    <cfRule type="top10" priority="60" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="60"/>
+    <cfRule type="top10" priority="61" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH8">
-    <cfRule type="duplicateValues" dxfId="26" priority="50"/>
-    <cfRule type="top10" priority="51" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="51"/>
+    <cfRule type="top10" priority="52" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="25" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH9:AH13">
-    <cfRule type="duplicateValues" dxfId="23" priority="43"/>
-    <cfRule type="top10" priority="42" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
+    <cfRule type="top10" priority="43" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14">
-    <cfRule type="top10" priority="17" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+    <cfRule type="top10" priority="18" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8694,11 +8818,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
-    <cfRule type="top10" priority="11" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="top10" priority="12" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8708,31 +8832,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18:AH20">
-    <cfRule type="top10" priority="33" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="33"/>
+    <cfRule type="top10" priority="34" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="13" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH23:AH25">
-    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
-    <cfRule type="top10" priority="24" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
+    <cfRule type="top10" priority="25" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="10" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH26">
-    <cfRule type="duplicateValues" dxfId="8" priority="77"/>
-    <cfRule type="top10" priority="78" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="78"/>
+    <cfRule type="top10" priority="79" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH27">
-    <cfRule type="duplicateValues" dxfId="5" priority="86"/>
-    <cfRule type="top10" priority="87" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="87"/>
+    <cfRule type="top10" priority="88" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AR3">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="AP2:AT3">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8741,8 +8865,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN4:AR4 AN28:AR29 AN16:AR17 AN21:AR22">
-    <cfRule type="colorScale" priority="130">
+  <conditionalFormatting sqref="AP4:AT4 AP28:AT29 AP16:AT17 AP21:AT22">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8751,8 +8875,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AR6">
-    <cfRule type="colorScale" priority="65">
+  <conditionalFormatting sqref="AP5:AT6">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8761,8 +8885,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AR8">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="AP7:AT8">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8771,8 +8895,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN9:AR13">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="AP9:AT13">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8781,8 +8905,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN14:AR15">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="AP14:AT15">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8791,8 +8915,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN18:AR20">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="AP18:AT20">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8801,8 +8925,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN23:AR25">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="AP23:AT25">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8811,8 +8935,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN26:AR26">
-    <cfRule type="colorScale" priority="83">
+  <conditionalFormatting sqref="AP26:AT26">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8821,8 +8945,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN27:AR27">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="AP27:AT27">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8831,8 +8955,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS3">
-    <cfRule type="colorScale" priority="73">
+  <conditionalFormatting sqref="AU2:AU3">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8843,8 +8967,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS5:AS6">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="AU5:AU6">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8855,8 +8979,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS7:AS8">
-    <cfRule type="colorScale" priority="55">
+  <conditionalFormatting sqref="AU7:AU8">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8867,8 +8991,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS9:AS13">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="AU9:AU13">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8879,8 +9003,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS14:AS15">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AU14:AU15">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8891,8 +9015,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS18:AS20">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="AU18:AU20">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8903,8 +9027,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS23:AS25">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="AU23:AU25">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8915,8 +9039,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS26">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="AU26">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8927,8 +9051,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS27">
-    <cfRule type="colorScale" priority="91">
+  <conditionalFormatting sqref="AU27">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8939,8 +9063,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS28:AS1048576 AS1 AS4 AS16:AS17 AS21:AS22">
-    <cfRule type="colorScale" priority="129">
+  <conditionalFormatting sqref="AU28:AU1048576 AU1 AU4 AU16:AU17 AU21:AU22">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8951,8 +9075,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT28:AT29 AT4 AT16:AT17 AT21:AT22">
-    <cfRule type="colorScale" priority="131">
+  <conditionalFormatting sqref="AV28:AV29 AV4 AV16:AV17 AV21:AV22">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8961,8 +9085,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AU3">
-    <cfRule type="colorScale" priority="75">
+  <conditionalFormatting sqref="AW2:AW3">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8971,97 +9095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU5:AU6">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU7:AU8">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU9:AU13">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU14:AU15">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU18:AU20">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU23:AU25">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU26">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU27">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU28:AU29 AU4 AU16:AU17 AU21:AU22">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AV3">
+  <conditionalFormatting sqref="AW5:AW6">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9071,7 +9105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV5:AV6">
+  <conditionalFormatting sqref="AW7:AW8">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9081,78 +9115,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AV8">
+  <conditionalFormatting sqref="AW9:AW13">
     <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV9:AV13">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV14:AV15">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV18:AV20">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV23:AV25">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV26">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV27">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV28:AV29 AV4 AV16:AV17 AV21:AV22">
-    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9170,6 +9134,158 @@
         <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW18:AW20">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW23:AW25">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW26">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW27">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW28:AW29 AW4 AW16:AW17 AW21:AW22">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX2:AX3">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX5:AX6">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX7:AX8">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX9:AX13">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX14:AX15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX18:AX20">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX23:AX25">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX26">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX27">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX28:AX29 AX4 AX16:AX17 AX21:AX22">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY14:AY15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9178,9 +9294,7 @@
         <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW16:AY29 AX14:AY15 AW2:AZ5 AW6:AY13 AZ6:AZ29">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9189,14 +9303,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB2:BB29">
-    <cfRule type="duplicateValues" dxfId="2" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC2:BC28">
-    <cfRule type="duplicateValues" dxfId="1" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD28:BF28 BA28:BB28 BB17:BF17 F2:F29 BA29:BF29 BA22:BC27 BF22:BF27 BA12:BF13 BB11:BF11 BA14:BC16 BA21:BF21 BA18:BC20 BE18:BF20 BE14:BF16 BA9:BF10 BA7:BC8 BE7:BF8 BA3:BA6 BB2:BF6">
-    <cfRule type="colorScale" priority="133">
+  <conditionalFormatting sqref="AY16:BA29 AZ14:BA15 AY2:BB5 AY6:BA13 BB6:BB29">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9205,8 +9313,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI2:BM29">
-    <cfRule type="colorScale" priority="135">
+  <conditionalFormatting sqref="BD2:BD29">
+    <cfRule type="duplicateValues" dxfId="2" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE2:BE28">
+    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF28:BH28 BC28:BD28 BD17:BH17 F2:F29 BC29:BH29 BC22:BE27 BH22:BH27 BC12:BH13 BD11:BH11 BC14:BE16 BC21:BH21 BC18:BE20 BG18:BH20 BG14:BH16 BC9:BH10 BC7:BE8 BG7:BH8 BC3:BC6 BD2:BH6">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9215,8 +9329,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN1:BN1048576">
-    <cfRule type="colorScale" priority="134">
+  <conditionalFormatting sqref="BK2:BO29">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP1:BP1048576">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9227,8 +9351,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO2:BO29">
-    <cfRule type="colorScale" priority="136">
+  <conditionalFormatting sqref="BQ2:BQ29">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AJ29">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9333,32 +9467,32 @@
     <hyperlink ref="AF19" r:id="rId93" xr:uid="{70A5BAAA-5790-4919-8346-E017C3255984}"/>
     <hyperlink ref="AF14" r:id="rId94" display="www.aanmelden.dsw.nl" xr:uid="{9129E375-E5C7-43F9-AB82-3C6F6638EBD4}"/>
     <hyperlink ref="AE29" r:id="rId95" xr:uid="{952A0304-5B2C-4D4B-BA4A-D4C03F0B7612}"/>
-    <hyperlink ref="BA2" r:id="rId96" display="www.login-select.defriesland.nl" xr:uid="{0DDE0281-20FA-4487-9DA2-33A55F53257D}"/>
-    <hyperlink ref="BA3" r:id="rId97" display="www.login-select.fbto.nl" xr:uid="{036F04D4-28B1-4A93-AF12-F2496F10EE17}"/>
-    <hyperlink ref="BA4" r:id="rId98" display="www.login-select.interpolis.nl" xr:uid="{90E9A6A1-A3BB-4174-8382-22CFE2944455}"/>
-    <hyperlink ref="BA5" r:id="rId99" display="www.login-select.dechristelijkezorgverzekeraar.nl" xr:uid="{7D7AD1B5-E971-43C8-8BCE-E0CEEFEF2C08}"/>
-    <hyperlink ref="BA6" r:id="rId100" display="www.login-select.zilverenkruis.nl" xr:uid="{F6A59FE3-1075-431D-BEED-E05A288E1B1E}"/>
-    <hyperlink ref="BA7" r:id="rId101" display="www.authenticatie.mijnzorg.asr.nl" xr:uid="{EACA0B4B-086C-425D-BF2A-2C9D9021EE71}"/>
-    <hyperlink ref="BA8" r:id="rId102" display="www.authenticatie.mijnzorg-ikkieszelf.asr.nl" xr:uid="{22E99511-D9A2-4E9B-A92C-80D00A18043D}"/>
-    <hyperlink ref="BA9" r:id="rId103" display="www.login.cz.nl" xr:uid="{6C435B83-9690-4EAF-891D-1DC5CB0E91C8}"/>
-    <hyperlink ref="BA10" r:id="rId104" display="www.login.cz.nl" xr:uid="{D1A97DE9-BA5E-41DC-A0C2-0725799FCE1B}"/>
-    <hyperlink ref="BA11" r:id="rId105" display="www.login.just.nl" xr:uid="{2078425F-9C83-4AA3-820D-3801DB190F75}"/>
-    <hyperlink ref="BA12" r:id="rId106" display="www.login.nn-zorg.nl" xr:uid="{3A491BF6-69EC-4639-A95D-71D1A0A6D5F5}"/>
-    <hyperlink ref="BA13" r:id="rId107" display="www.login.ohra-zorg.nl" xr:uid="{F21DF260-3ADF-4FFC-89F8-6D57D34A7F9B}"/>
-    <hyperlink ref="BA14" r:id="rId108" display="www.authenticatie.dsw.nl" xr:uid="{ECBB63B6-798A-4B39-AB6E-5B312E6A2E88}"/>
-    <hyperlink ref="BA15" r:id="rId109" display="www.authenticatie.stadholland.nl" xr:uid="{6733EE79-87A3-4E41-8BF5-2383B09DDB83}"/>
-    <hyperlink ref="BA16" r:id="rId110" display="www.mijn.salland.nl" xr:uid="{D5299527-4779-4E5C-9371-03A039584659}"/>
-    <hyperlink ref="BA17" r:id="rId111" display="www.idin.aevitae.com" xr:uid="{0DB09F74-398F-4AFE-87BB-9C06F7C4D3CE}"/>
-    <hyperlink ref="BA18" r:id="rId112" display="www.inlog.anderzorg.nl" xr:uid="{C4CB4073-EA13-4845-BA77-E73A2C93C5A5}"/>
-    <hyperlink ref="BA19" r:id="rId113" display="www.inlog.menzis.nl" xr:uid="{40549E75-A603-42DE-A106-3AFE97E9F915}"/>
-    <hyperlink ref="BA20" r:id="rId114" display="www.inlog.vinkvink.nl" xr:uid="{080618EA-2DEF-479D-82CD-F61076A7E41B}"/>
-    <hyperlink ref="BA21" r:id="rId115" display="www.inlog.onvz.nl" xr:uid="{A9C8C6F0-DE6E-4EB9-871B-F106E0BCFB8B}"/>
-    <hyperlink ref="BA22" r:id="rId116" display="www.prdledenvvaa.b2clogin.com" xr:uid="{FE321390-15EF-451E-9F9E-C80B543C5A11}"/>
-    <hyperlink ref="BA23" r:id="rId117" display="www.inloggen.mijnunivezorg.nl" xr:uid="{313B98A9-6FCE-4DCE-A251-D5F188F6F88E}"/>
-    <hyperlink ref="BA24" r:id="rId118" display="www.inloggen.vgz.nl" xr:uid="{150B704A-0B2E-4822-B767-4D27CEBF9DF8}"/>
-    <hyperlink ref="BA25" r:id="rId119" display="www.inloggen.vgzbewuzt.nl" xr:uid="{4CA00F3E-582B-4E64-BE24-599F8270A784}"/>
-    <hyperlink ref="BA26" r:id="rId120" display="www.inloggen.mijnzekurzorg.nl" xr:uid="{C9ADAA93-351D-401A-B916-33915CE73013}"/>
-    <hyperlink ref="BA27" r:id="rId121" display="www.inloggen.vgz.nl" xr:uid="{A6F5ECBC-E26E-4A20-9B8B-A9CBA50BF8E2}"/>
+    <hyperlink ref="BC2" r:id="rId96" display="www.login-select.defriesland.nl" xr:uid="{0DDE0281-20FA-4487-9DA2-33A55F53257D}"/>
+    <hyperlink ref="BC3" r:id="rId97" display="www.login-select.fbto.nl" xr:uid="{036F04D4-28B1-4A93-AF12-F2496F10EE17}"/>
+    <hyperlink ref="BC4" r:id="rId98" display="www.login-select.interpolis.nl" xr:uid="{90E9A6A1-A3BB-4174-8382-22CFE2944455}"/>
+    <hyperlink ref="BC5" r:id="rId99" display="www.login-select.dechristelijkezorgverzekeraar.nl" xr:uid="{7D7AD1B5-E971-43C8-8BCE-E0CEEFEF2C08}"/>
+    <hyperlink ref="BC6" r:id="rId100" display="www.login-select.zilverenkruis.nl" xr:uid="{F6A59FE3-1075-431D-BEED-E05A288E1B1E}"/>
+    <hyperlink ref="BC7" r:id="rId101" display="www.authenticatie.mijnzorg.asr.nl" xr:uid="{EACA0B4B-086C-425D-BF2A-2C9D9021EE71}"/>
+    <hyperlink ref="BC8" r:id="rId102" display="www.authenticatie.mijnzorg-ikkieszelf.asr.nl" xr:uid="{22E99511-D9A2-4E9B-A92C-80D00A18043D}"/>
+    <hyperlink ref="BC9" r:id="rId103" display="www.login.cz.nl" xr:uid="{6C435B83-9690-4EAF-891D-1DC5CB0E91C8}"/>
+    <hyperlink ref="BC10" r:id="rId104" display="www.login.cz.nl" xr:uid="{D1A97DE9-BA5E-41DC-A0C2-0725799FCE1B}"/>
+    <hyperlink ref="BC11" r:id="rId105" display="www.login.just.nl" xr:uid="{2078425F-9C83-4AA3-820D-3801DB190F75}"/>
+    <hyperlink ref="BC12" r:id="rId106" display="www.login.nn-zorg.nl" xr:uid="{3A491BF6-69EC-4639-A95D-71D1A0A6D5F5}"/>
+    <hyperlink ref="BC13" r:id="rId107" display="www.login.ohra-zorg.nl" xr:uid="{F21DF260-3ADF-4FFC-89F8-6D57D34A7F9B}"/>
+    <hyperlink ref="BC14" r:id="rId108" display="www.authenticatie.dsw.nl" xr:uid="{ECBB63B6-798A-4B39-AB6E-5B312E6A2E88}"/>
+    <hyperlink ref="BC15" r:id="rId109" display="www.authenticatie.stadholland.nl" xr:uid="{6733EE79-87A3-4E41-8BF5-2383B09DDB83}"/>
+    <hyperlink ref="BC16" r:id="rId110" display="www.mijn.salland.nl" xr:uid="{D5299527-4779-4E5C-9371-03A039584659}"/>
+    <hyperlink ref="BC17" r:id="rId111" display="www.idin.aevitae.com" xr:uid="{0DB09F74-398F-4AFE-87BB-9C06F7C4D3CE}"/>
+    <hyperlink ref="BC18" r:id="rId112" display="www.inlog.anderzorg.nl" xr:uid="{C4CB4073-EA13-4845-BA77-E73A2C93C5A5}"/>
+    <hyperlink ref="BC19" r:id="rId113" display="www.inlog.menzis.nl" xr:uid="{40549E75-A603-42DE-A106-3AFE97E9F915}"/>
+    <hyperlink ref="BC20" r:id="rId114" display="www.inlog.vinkvink.nl" xr:uid="{080618EA-2DEF-479D-82CD-F61076A7E41B}"/>
+    <hyperlink ref="BC21" r:id="rId115" display="www.inlog.onvz.nl" xr:uid="{A9C8C6F0-DE6E-4EB9-871B-F106E0BCFB8B}"/>
+    <hyperlink ref="BC22" r:id="rId116" display="www.prdledenvvaa.b2clogin.com" xr:uid="{FE321390-15EF-451E-9F9E-C80B543C5A11}"/>
+    <hyperlink ref="BC23" r:id="rId117" display="www.inloggen.mijnunivezorg.nl" xr:uid="{313B98A9-6FCE-4DCE-A251-D5F188F6F88E}"/>
+    <hyperlink ref="BC24" r:id="rId118" display="www.inloggen.vgz.nl" xr:uid="{150B704A-0B2E-4822-B767-4D27CEBF9DF8}"/>
+    <hyperlink ref="BC25" r:id="rId119" display="www.inloggen.vgzbewuzt.nl" xr:uid="{4CA00F3E-582B-4E64-BE24-599F8270A784}"/>
+    <hyperlink ref="BC26" r:id="rId120" display="www.inloggen.mijnzekurzorg.nl" xr:uid="{C9ADAA93-351D-401A-B916-33915CE73013}"/>
+    <hyperlink ref="BC27" r:id="rId121" display="www.inloggen.vgz.nl" xr:uid="{A6F5ECBC-E26E-4A20-9B8B-A9CBA50BF8E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9372,9 +9506,9 @@
       <selection activeCell="A18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -9382,7 +9516,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -9396,7 +9530,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -9410,7 +9544,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>298</v>
       </c>
@@ -9424,7 +9558,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -9438,7 +9572,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -9452,7 +9586,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>316</v>
       </c>
@@ -9466,7 +9600,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -9480,7 +9614,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -9494,7 +9628,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -9508,7 +9642,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>335</v>
       </c>
@@ -9522,7 +9656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -9536,7 +9670,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>343</v>
       </c>
@@ -9550,7 +9684,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -9558,7 +9692,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>351</v>
       </c>
@@ -9572,7 +9706,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -9580,7 +9714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -9619,15 +9753,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9641,7 +9775,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -9655,7 +9789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -9666,7 +9800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -9677,7 +9811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -9688,7 +9822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -9699,7 +9833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -9713,7 +9847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -9724,7 +9858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -9735,7 +9869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9746,7 +9880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -9757,7 +9891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -9768,7 +9902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -9779,7 +9913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -9790,7 +9924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9801,7 +9935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -9812,7 +9946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -9823,7 +9957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -9834,7 +9968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -9845,7 +9979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -9856,7 +9990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -9867,7 +10001,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9878,7 +10012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -9889,7 +10023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -9900,7 +10034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9911,7 +10045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -9922,7 +10056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -9933,7 +10067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -9944,7 +10078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9955,7 +10089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9966,7 +10100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -9977,7 +10111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -9988,7 +10122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -9999,7 +10133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -10010,7 +10144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -10021,7 +10155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -10032,7 +10166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -10043,7 +10177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -10054,7 +10188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -10065,7 +10199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -10076,7 +10210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -10087,7 +10221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
@@ -10098,7 +10232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -10121,56 +10255,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB691B-88E4-4552-BE42-2A756A8BB771}">
   <dimension ref="A2:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="23.109375" customWidth="1"/>
+    <col min="1" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -10178,7 +10312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -10186,7 +10320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -10194,7 +10328,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -10202,7 +10336,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -10213,7 +10347,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -10221,7 +10355,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -10229,7 +10363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -10237,7 +10371,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -10245,7 +10379,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -10256,7 +10390,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -10264,7 +10398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -10272,7 +10406,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -10280,7 +10414,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -10288,7 +10422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -10296,7 +10430,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -10304,12 +10438,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -10317,97 +10451,97 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>212</v>
       </c>
@@ -10415,7 +10549,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>232</v>
       </c>
@@ -10426,7 +10560,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -10434,17 +10568,17 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>219</v>
       </c>
@@ -10458,27 +10592,27 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>226</v>
       </c>
@@ -10495,7 +10629,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>237</v>
       </c>
@@ -10503,12 +10637,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -10516,12 +10650,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>207</v>
       </c>
@@ -10529,12 +10663,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -10542,32 +10676,32 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>271</v>
       </c>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8487DFA-E5E4-4960-8941-D573906243F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C490E-09E7-4390-AB98-9A40CBA2EB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2136,7 +2136,7 @@
   <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG34" sqref="AG34"/>
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59788CAF-83B1-4CC2-866B-128CDDE1CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0CBA45-C63A-4A32-90BD-21344626C5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="458">
   <si>
     <t>Company</t>
   </si>
@@ -1029,9 +1029,6 @@
   </si>
   <si>
     <t>Amazon germany</t>
-  </si>
-  <si>
-    <t>Amazone</t>
   </si>
   <si>
     <t>Home in Europa</t>
@@ -1489,51 +1486,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <fill>
         <patternFill>
@@ -1602,93 +1555,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1774,121 +1641,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1961,115 +1714,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2477,80 +2122,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG11" sqref="BG11"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="11" width="46.44140625" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="8" max="11" width="46.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" customWidth="1"/>
-    <col min="19" max="19" width="28.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="28.28515625" customWidth="1"/>
     <col min="20" max="20" width="28" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" customWidth="1"/>
-    <col min="22" max="22" width="27.33203125" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="13.5546875" customWidth="1"/>
-    <col min="27" max="27" width="12.109375" customWidth="1"/>
-    <col min="28" max="28" width="19.6640625" customWidth="1"/>
-    <col min="29" max="31" width="16.44140625" customWidth="1"/>
-    <col min="32" max="33" width="68.109375" customWidth="1"/>
-    <col min="34" max="34" width="25.33203125" customWidth="1"/>
-    <col min="35" max="38" width="21.5546875" customWidth="1"/>
-    <col min="39" max="39" width="46.44140625" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" customWidth="1"/>
-    <col min="41" max="41" width="21.109375" customWidth="1"/>
-    <col min="42" max="42" width="24.6640625" customWidth="1"/>
-    <col min="43" max="43" width="14.88671875" customWidth="1"/>
-    <col min="44" max="44" width="32.88671875" customWidth="1"/>
-    <col min="45" max="45" width="32.109375" customWidth="1"/>
-    <col min="46" max="46" width="24.5546875" customWidth="1"/>
-    <col min="47" max="47" width="32.109375" customWidth="1"/>
-    <col min="48" max="48" width="15.44140625" customWidth="1"/>
-    <col min="49" max="49" width="20.44140625" customWidth="1"/>
-    <col min="50" max="50" width="21.33203125" customWidth="1"/>
-    <col min="51" max="51" width="17.6640625" customWidth="1"/>
-    <col min="52" max="52" width="18.33203125" customWidth="1"/>
-    <col min="53" max="53" width="24.33203125" customWidth="1"/>
-    <col min="54" max="55" width="20.6640625" customWidth="1"/>
-    <col min="56" max="56" width="37.6640625" customWidth="1"/>
-    <col min="57" max="57" width="25.6640625" customWidth="1"/>
-    <col min="58" max="59" width="20.109375" customWidth="1"/>
-    <col min="60" max="61" width="29.33203125" customWidth="1"/>
-    <col min="62" max="62" width="10.88671875" customWidth="1"/>
-    <col min="63" max="63" width="16.6640625" customWidth="1"/>
-    <col min="64" max="64" width="21.33203125" customWidth="1"/>
-    <col min="65" max="65" width="11.33203125" customWidth="1"/>
-    <col min="66" max="66" width="28.33203125" customWidth="1"/>
-    <col min="67" max="67" width="48.88671875" customWidth="1"/>
-    <col min="68" max="68" width="19.109375" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="31" width="16.42578125" customWidth="1"/>
+    <col min="32" max="33" width="68.140625" customWidth="1"/>
+    <col min="34" max="34" width="25.28515625" customWidth="1"/>
+    <col min="35" max="38" width="21.5703125" customWidth="1"/>
+    <col min="39" max="39" width="46.42578125" customWidth="1"/>
+    <col min="40" max="40" width="15.42578125" customWidth="1"/>
+    <col min="41" max="41" width="21.140625" customWidth="1"/>
+    <col min="42" max="42" width="24.7109375" customWidth="1"/>
+    <col min="43" max="43" width="14.85546875" customWidth="1"/>
+    <col min="44" max="44" width="32.85546875" customWidth="1"/>
+    <col min="45" max="45" width="32.140625" customWidth="1"/>
+    <col min="46" max="46" width="24.5703125" customWidth="1"/>
+    <col min="47" max="47" width="32.140625" customWidth="1"/>
+    <col min="48" max="48" width="15.42578125" customWidth="1"/>
+    <col min="49" max="49" width="20.42578125" customWidth="1"/>
+    <col min="50" max="50" width="21.28515625" customWidth="1"/>
+    <col min="51" max="51" width="17.7109375" customWidth="1"/>
+    <col min="52" max="52" width="18.28515625" customWidth="1"/>
+    <col min="53" max="53" width="24.28515625" customWidth="1"/>
+    <col min="54" max="55" width="20.7109375" customWidth="1"/>
+    <col min="56" max="56" width="37.7109375" customWidth="1"/>
+    <col min="57" max="57" width="25.7109375" customWidth="1"/>
+    <col min="58" max="59" width="20.140625" customWidth="1"/>
+    <col min="60" max="61" width="29.28515625" customWidth="1"/>
+    <col min="62" max="62" width="10.85546875" customWidth="1"/>
+    <col min="63" max="63" width="16.7109375" customWidth="1"/>
+    <col min="64" max="64" width="21.28515625" customWidth="1"/>
+    <col min="65" max="65" width="11.28515625" customWidth="1"/>
+    <col min="66" max="66" width="28.28515625" customWidth="1"/>
+    <col min="67" max="67" width="48.85546875" customWidth="1"/>
+    <col min="68" max="68" width="19.140625" customWidth="1"/>
     <col min="69" max="69" width="27" customWidth="1"/>
-    <col min="70" max="70" width="9.33203125" customWidth="1"/>
-    <col min="71" max="71" width="14.88671875" customWidth="1"/>
-    <col min="72" max="72" width="15.44140625" customWidth="1"/>
-    <col min="73" max="73" width="12.109375" customWidth="1"/>
-    <col min="74" max="74" width="12.44140625" customWidth="1"/>
+    <col min="70" max="70" width="9.28515625" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" customWidth="1"/>
+    <col min="72" max="72" width="15.42578125" customWidth="1"/>
+    <col min="73" max="73" width="12.140625" customWidth="1"/>
+    <col min="74" max="74" width="12.42578125" customWidth="1"/>
     <col min="75" max="75" width="18" customWidth="1"/>
-    <col min="76" max="76" width="15.33203125" customWidth="1"/>
+    <col min="76" max="76" width="15.28515625" customWidth="1"/>
     <col min="77" max="81" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2221,7 @@
         <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J1" t="s">
         <v>261</v>
@@ -2585,7 +2230,7 @@
         <v>169</v>
       </c>
       <c r="L1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M1" t="s">
         <v>325</v>
@@ -2627,7 +2272,7 @@
         <v>160</v>
       </c>
       <c r="Z1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA1" t="s">
         <v>135</v>
@@ -2639,31 +2284,31 @@
         <v>137</v>
       </c>
       <c r="AD1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AE1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF1" t="s">
         <v>133</v>
       </c>
       <c r="AG1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AH1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI1" t="s">
         <v>161</v>
       </c>
       <c r="AJ1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AK1" t="s">
         <v>457</v>
       </c>
-      <c r="AK1" t="s">
-        <v>458</v>
-      </c>
       <c r="AL1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM1" t="s">
         <v>185</v>
@@ -2702,7 +2347,7 @@
         <v>168</v>
       </c>
       <c r="AY1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AZ1" t="s">
         <v>139</v>
@@ -2714,10 +2359,10 @@
         <v>141</v>
       </c>
       <c r="BC1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BD1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BE1" t="s">
         <v>265</v>
@@ -2726,7 +2371,7 @@
         <v>266</v>
       </c>
       <c r="BG1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BH1" t="s">
         <v>142</v>
@@ -2780,7 +2425,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2806,7 +2451,7 @@
         <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J2" t="s">
         <v>241</v>
@@ -2818,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N2" t="s">
         <v>300</v>
@@ -2875,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="AF2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AH2" t="s">
         <v>241</v>
@@ -2893,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM2" t="s">
         <v>300</v>
@@ -2947,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BE2" t="s">
         <v>268</v>
@@ -3010,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +2681,7 @@
         <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J3" t="s">
         <v>241</v>
@@ -3048,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N3" t="s">
         <v>300</v>
@@ -3105,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="AF3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AH3" t="s">
         <v>241</v>
@@ -3123,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM3" t="s">
         <v>300</v>
@@ -3177,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BE3" t="s">
         <v>268</v>
@@ -3240,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3266,7 +2911,7 @@
         <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J4" t="s">
         <v>241</v>
@@ -3278,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N4" t="s">
         <v>300</v>
@@ -3335,16 +2980,16 @@
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AH4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AI4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -3404,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BE4" t="s">
         <v>268</v>
@@ -3467,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3493,7 +3138,7 @@
         <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J5" t="s">
         <v>241</v>
@@ -3505,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N5" t="s">
         <v>300</v>
@@ -3562,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH5" t="s">
         <v>241</v>
@@ -3580,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM5" t="s">
         <v>300</v>
@@ -3634,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BE5" t="s">
         <v>268</v>
@@ -3697,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3723,7 +3368,7 @@
         <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J6" t="s">
         <v>241</v>
@@ -3735,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N6" t="s">
         <v>300</v>
@@ -3792,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AH6" t="s">
         <v>241</v>
@@ -3810,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM6" t="s">
         <v>300</v>
@@ -3864,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BE6" t="s">
         <v>268</v>
@@ -3927,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3953,7 +3598,7 @@
         <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J7" t="s">
         <v>243</v>
@@ -3962,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N7" t="s">
         <v>9</v>
@@ -4019,10 +3664,10 @@
         <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AH7" t="s">
         <v>243</v>
@@ -4031,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM7" t="s">
         <v>9</v>
@@ -4085,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BE7" t="s">
         <v>272</v>
@@ -4148,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4174,7 +3819,7 @@
         <v>84</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J8" t="s">
         <v>243</v>
@@ -4183,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N8" t="s">
         <v>9</v>
@@ -4240,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="AF8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AH8" t="s">
         <v>243</v>
@@ -4252,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM8" t="s">
         <v>9</v>
@@ -4306,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BE8" t="s">
         <v>272</v>
@@ -4369,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4395,7 +4040,7 @@
         <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J9" t="s">
         <v>244</v>
@@ -4404,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N9" t="s">
         <v>322</v>
@@ -4461,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="AF9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AH9" t="s">
         <v>244</v>
@@ -4473,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AM9" t="s">
         <v>322</v>
@@ -4527,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BE9" s="3" t="s">
         <v>273</v>
@@ -4590,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4616,7 +4261,7 @@
         <v>246</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>245</v>
@@ -4625,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N10" t="s">
         <v>322</v>
@@ -4682,10 +4327,10 @@
         <v>1</v>
       </c>
       <c r="AF10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>245</v>
@@ -4694,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM10" t="s">
         <v>322</v>
@@ -4748,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BE10" s="3" t="s">
         <v>273</v>
@@ -4811,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4837,7 +4482,7 @@
         <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>244</v>
@@ -4846,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N11" t="s">
         <v>322</v>
@@ -4903,10 +4548,10 @@
         <v>1</v>
       </c>
       <c r="AF11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>244</v>
@@ -4915,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AM11" t="s">
         <v>322</v>
@@ -4969,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BE11" s="3" t="s">
         <v>273</v>
@@ -5032,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5058,7 +4703,7 @@
         <v>89</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>252</v>
@@ -5127,10 +4772,10 @@
         <v>1</v>
       </c>
       <c r="AF12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH12" s="1" t="s">
         <v>252</v>
@@ -5196,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BE12" s="3" t="s">
         <v>273</v>
@@ -5259,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5285,7 +4930,7 @@
         <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>249</v>
@@ -5354,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>249</v>
@@ -5423,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BE13" s="3" t="s">
         <v>273</v>
@@ -5486,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5512,7 +5157,7 @@
         <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>251</v>
@@ -5524,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N14" t="s">
         <v>322</v>
@@ -5581,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AH14" s="1" t="s">
         <v>251</v>
@@ -5596,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM14" t="s">
         <v>322</v>
@@ -5650,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BE14" t="s">
         <v>251</v>
@@ -5713,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5739,7 +5384,7 @@
         <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>251</v>
@@ -5751,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N15" t="s">
         <v>322</v>
@@ -5808,10 +5453,10 @@
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AH15" s="1" t="s">
         <v>251</v>
@@ -5823,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM15" t="s">
         <v>322</v>
@@ -5877,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BE15" t="s">
         <v>251</v>
@@ -5940,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5966,7 +5611,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>253</v>
@@ -5975,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N16" t="s">
         <v>300</v>
@@ -6032,22 +5677,22 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI16" t="s">
         <v>387</v>
       </c>
-      <c r="AI16" t="s">
-        <v>388</v>
-      </c>
       <c r="AJ16">
         <v>1</v>
       </c>
       <c r="AK16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL16" s="1" t="s">
         <v>323</v>
@@ -6104,13 +5749,13 @@
         <v>0</v>
       </c>
       <c r="BD16" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BE16" t="s">
+        <v>386</v>
+      </c>
+      <c r="BF16" t="s">
         <v>387</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>388</v>
       </c>
       <c r="BG16" s="3">
         <v>1</v>
@@ -6167,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -6193,7 +5838,7 @@
         <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>255</v>
@@ -6262,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH17" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI17" t="s">
         <v>385</v>
       </c>
-      <c r="AI17" t="s">
-        <v>386</v>
-      </c>
       <c r="AJ17">
         <v>1</v>
       </c>
       <c r="AK17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL17" s="1" t="s">
         <v>306</v>
@@ -6334,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BE17" t="s">
         <v>282</v>
@@ -6394,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6420,7 +6065,7 @@
         <v>93</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>258</v>
@@ -6429,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N18" t="s">
         <v>300</v>
@@ -6486,10 +6131,10 @@
         <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>258</v>
@@ -6498,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM18" t="s">
         <v>300</v>
@@ -6552,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BE18" t="s">
         <v>273</v>
@@ -6615,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -6641,7 +6286,7 @@
         <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>258</v>
@@ -6650,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N19" t="s">
         <v>300</v>
@@ -6707,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>258</v>
@@ -6719,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM19" t="s">
         <v>300</v>
@@ -6773,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="BD19" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BE19" t="s">
         <v>273</v>
@@ -6836,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -6862,7 +6507,7 @@
         <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>258</v>
@@ -6871,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N20" t="s">
         <v>300</v>
@@ -6928,10 +6573,10 @@
         <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AH20" s="1" t="s">
         <v>258</v>
@@ -6940,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM20" t="s">
         <v>300</v>
@@ -6994,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BE20" t="s">
         <v>273</v>
@@ -7057,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -7083,7 +6728,7 @@
         <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>259</v>
@@ -7152,16 +6797,16 @@
         <v>0</v>
       </c>
       <c r="AF21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AH21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -7170,10 +6815,10 @@
         <v>326</v>
       </c>
       <c r="AM21" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="AO21">
         <v>1</v>
@@ -7221,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BE21" t="s">
         <v>268</v>
@@ -7284,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -7310,7 +6955,7 @@
         <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>255</v>
@@ -7379,16 +7024,16 @@
         <v>0</v>
       </c>
       <c r="AF22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AH22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -7397,10 +7042,10 @@
         <v>326</v>
       </c>
       <c r="AM22" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="AO22">
         <v>1</v>
@@ -7448,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="BD22" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BE22" t="s">
         <v>281</v>
@@ -7511,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -7537,7 +7182,7 @@
         <v>88</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>262</v>
@@ -7546,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N23" t="s">
         <v>300</v>
@@ -7603,10 +7248,10 @@
         <v>1</v>
       </c>
       <c r="AF23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>262</v>
@@ -7622,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM23" t="s">
         <v>300</v>
@@ -7676,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BE23" t="s">
         <v>283</v>
@@ -7736,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -7762,7 +7407,7 @@
         <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>263</v>
@@ -7771,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N24" t="s">
         <v>300</v>
@@ -7828,10 +7473,10 @@
         <v>1</v>
       </c>
       <c r="AF24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AH24" s="1" t="s">
         <v>263</v>
@@ -7843,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM24" t="s">
         <v>300</v>
@@ -7957,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7983,7 +7628,7 @@
         <v>68</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>263</v>
@@ -7992,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N25" t="s">
         <v>300</v>
@@ -8049,10 +7694,10 @@
         <v>1</v>
       </c>
       <c r="AF25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>263</v>
@@ -8064,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM25" t="s">
         <v>300</v>
@@ -8118,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BE25" t="s">
         <v>287</v>
@@ -8178,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8204,7 +7849,7 @@
         <v>75</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J26" t="s">
         <v>240</v>
@@ -8213,13 +7858,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="N26" t="s">
         <v>345</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -8270,10 +7915,10 @@
         <v>1</v>
       </c>
       <c r="AF26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AH26" t="s">
         <v>240</v>
@@ -8282,13 +7927,13 @@
         <v>0</v>
       </c>
       <c r="AL26" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM26" t="s">
         <v>345</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AN26" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="AO26">
         <v>1</v>
@@ -8336,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BE26" t="s">
         <v>288</v>
@@ -8396,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8422,7 +8067,7 @@
         <v>80</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J27" t="s">
         <v>239</v>
@@ -8431,13 +8076,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -8488,10 +8133,10 @@
         <v>1</v>
       </c>
       <c r="AF27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AH27" t="s">
         <v>239</v>
@@ -8500,13 +8145,13 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AO27">
         <v>1</v>
@@ -8614,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8637,10 +8282,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J28" t="s">
         <v>175</v>
@@ -8652,10 +8297,10 @@
         <v>177</v>
       </c>
       <c r="N28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -8706,10 +8351,10 @@
         <v>1</v>
       </c>
       <c r="AF28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AH28" t="s">
         <v>175</v>
@@ -8722,10 +8367,10 @@
         <v>177</v>
       </c>
       <c r="AM28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO28">
         <v>1</v>
@@ -8833,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -8859,7 +8504,7 @@
         <v>81</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>256</v>
@@ -8928,13 +8573,13 @@
         <v>0</v>
       </c>
       <c r="AF29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AH29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -9191,8 +8836,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="duplicateValues" dxfId="43" priority="115"/>
-    <cfRule type="colorScale" priority="116">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L29">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9297,16 +8952,16 @@
     <cfRule type="duplicateValues" dxfId="32" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="duplicateValues" dxfId="31" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="70"/>
     <cfRule type="top10" priority="71" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI5:AI6">
     <cfRule type="duplicateValues" dxfId="28" priority="61"/>
-    <cfRule type="top10" priority="62" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="27" priority="63"/>
     <cfRule type="duplicateValues" dxfId="26" priority="64"/>
+    <cfRule type="top10" priority="62" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AI8">
     <cfRule type="duplicateValues" dxfId="25" priority="52"/>
@@ -9317,14 +8972,10 @@
   <conditionalFormatting sqref="AI9:AI13">
     <cfRule type="duplicateValues" dxfId="22" priority="43"/>
     <cfRule type="top10" priority="44" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI14">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
-    <cfRule type="top10" priority="19" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9333,6 +8984,10 @@
         <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="top10" priority="19" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15">
     <cfRule type="duplicateValues" dxfId="16" priority="12"/>
@@ -9355,10 +9010,10 @@
     <cfRule type="duplicateValues" dxfId="11" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI23:AI25">
-    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
     <cfRule type="top10" priority="26" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI26">
     <cfRule type="duplicateValues" dxfId="7" priority="79"/>
@@ -9840,9 +9495,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE2:BE29">
-    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BD28:BE28 BE17:BJ17 F2:F29 BD29:BJ29 BD22:BG27 BJ22:BJ27 BD12:BJ13 BD14:BG16 BD21:BJ21 BD18:BG20 BI18:BJ20 BI14:BJ16 BD9:BJ10 BD7:BG8 BI7:BJ8 BD3:BD6 BE2:BJ6 BG11 BG28:BJ28">
     <cfRule type="colorScale" priority="135">
       <colorScale>
@@ -9852,6 +9504,9 @@
         <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE2:BE29">
+    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM2:BQ29">
     <cfRule type="colorScale" priority="137">
@@ -9877,16 +9532,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="BS2:BS29">
     <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-        <color theme="9" tint="0.79998168889431442"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L29">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10030,9 +9675,9 @@
       <selection activeCell="A18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -10040,7 +9685,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -10054,7 +9699,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -10068,7 +9713,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>297</v>
       </c>
@@ -10082,7 +9727,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -10096,7 +9741,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>310</v>
       </c>
@@ -10110,7 +9755,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>315</v>
       </c>
@@ -10124,7 +9769,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>320</v>
       </c>
@@ -10138,7 +9783,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -10152,85 +9797,85 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
         <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" t="s">
         <v>339</v>
       </c>
-      <c r="B13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" t="s">
         <v>342</v>
       </c>
-      <c r="B14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C14" t="s">
-        <v>340</v>
-      </c>
-      <c r="D14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" t="s">
         <v>348</v>
       </c>
-      <c r="C16" t="s">
-        <v>349</v>
-      </c>
       <c r="D16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -10238,7 +9883,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -10277,15 +9922,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10299,7 +9944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -10313,7 +9958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -10324,7 +9969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -10335,7 +9980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -10346,7 +9991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -10357,7 +10002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -10371,7 +10016,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -10382,7 +10027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10393,7 +10038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10404,7 +10049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -10415,7 +10060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -10426,7 +10071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -10437,7 +10082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -10448,7 +10093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10459,7 +10104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -10470,7 +10115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -10481,7 +10126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -10492,7 +10137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -10503,7 +10148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -10514,7 +10159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -10525,7 +10170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -10536,7 +10181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -10547,7 +10192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -10558,7 +10203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10569,7 +10214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -10580,7 +10225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -10591,7 +10236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -10602,7 +10247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -10613,7 +10258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -10624,7 +10269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -10635,7 +10280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -10646,7 +10291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -10657,7 +10302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -10668,7 +10313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -10679,7 +10324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -10690,7 +10335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -10701,7 +10346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -10712,7 +10357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -10723,7 +10368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -10734,7 +10379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -10745,7 +10390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
@@ -10756,7 +10401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -10783,52 +10428,52 @@
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="23.109375" customWidth="1"/>
+    <col min="1" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -10836,7 +10481,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -10844,7 +10489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -10852,7 +10497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -10860,7 +10505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -10871,7 +10516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -10879,7 +10524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -10887,7 +10532,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -10895,7 +10540,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -10903,7 +10548,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -10914,7 +10559,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -10922,7 +10567,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -10930,7 +10575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -10938,7 +10583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -10946,7 +10591,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -10954,7 +10599,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -10962,12 +10607,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -10975,97 +10620,97 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>211</v>
       </c>
@@ -11073,7 +10718,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>231</v>
       </c>
@@ -11084,7 +10729,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -11092,17 +10737,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>218</v>
       </c>
@@ -11116,27 +10761,27 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>225</v>
       </c>
@@ -11153,7 +10798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>236</v>
       </c>
@@ -11161,12 +10806,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>203</v>
       </c>
@@ -11174,12 +10819,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -11187,12 +10832,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -11200,32 +10845,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>270</v>
       </c>

--- a/data_health_insurance.xlsx
+++ b/data_health_insurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marij\PycharmProjects\health_insurance_cloud_networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0CBA45-C63A-4A32-90BD-21344626C5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CFCF50-B0D6-4EFF-82AC-95105A8A97B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="462">
   <si>
     <t>Company</t>
   </si>
@@ -1413,6 +1413,18 @@
   </si>
   <si>
     <t>Location 1 nl, 2 eu, 3 else</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Registration maxmind</t>
+  </si>
+  <si>
+    <t>Login maxmind</t>
+  </si>
+  <si>
+    <t>Home maxmind</t>
   </si>
 </sst>
 </file>
@@ -1548,6 +1560,7 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1555,7 +1568,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1634,6 +1646,7 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1641,7 +1654,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1700,6 +1712,7 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1714,7 +1727,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2120,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX29"/>
+  <dimension ref="A1:CA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG5" sqref="BG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,61 +2153,61 @@
     <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="28.28515625" customWidth="1"/>
-    <col min="20" max="20" width="28" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" customWidth="1"/>
-    <col min="29" max="31" width="16.42578125" customWidth="1"/>
-    <col min="32" max="33" width="68.140625" customWidth="1"/>
-    <col min="34" max="34" width="25.28515625" customWidth="1"/>
-    <col min="35" max="38" width="21.5703125" customWidth="1"/>
-    <col min="39" max="39" width="46.42578125" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" customWidth="1"/>
-    <col min="41" max="41" width="21.140625" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" customWidth="1"/>
-    <col min="43" max="43" width="14.85546875" customWidth="1"/>
-    <col min="44" max="44" width="32.85546875" customWidth="1"/>
-    <col min="45" max="45" width="32.140625" customWidth="1"/>
-    <col min="46" max="46" width="24.5703125" customWidth="1"/>
+    <col min="17" max="18" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" customWidth="1"/>
+    <col min="21" max="21" width="28" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="29" max="29" width="19.7109375" customWidth="1"/>
+    <col min="30" max="32" width="16.42578125" customWidth="1"/>
+    <col min="33" max="34" width="68.140625" customWidth="1"/>
+    <col min="35" max="35" width="25.28515625" customWidth="1"/>
+    <col min="36" max="39" width="21.5703125" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" customWidth="1"/>
+    <col min="42" max="42" width="21.140625" customWidth="1"/>
+    <col min="43" max="44" width="24.7109375" customWidth="1"/>
+    <col min="45" max="45" width="14.85546875" customWidth="1"/>
+    <col min="46" max="46" width="32.85546875" customWidth="1"/>
     <col min="47" max="47" width="32.140625" customWidth="1"/>
-    <col min="48" max="48" width="15.42578125" customWidth="1"/>
-    <col min="49" max="49" width="20.42578125" customWidth="1"/>
-    <col min="50" max="50" width="21.28515625" customWidth="1"/>
-    <col min="51" max="51" width="17.7109375" customWidth="1"/>
-    <col min="52" max="52" width="18.28515625" customWidth="1"/>
-    <col min="53" max="53" width="24.28515625" customWidth="1"/>
-    <col min="54" max="55" width="20.7109375" customWidth="1"/>
-    <col min="56" max="56" width="37.7109375" customWidth="1"/>
-    <col min="57" max="57" width="25.7109375" customWidth="1"/>
-    <col min="58" max="59" width="20.140625" customWidth="1"/>
-    <col min="60" max="61" width="29.28515625" customWidth="1"/>
-    <col min="62" max="62" width="10.85546875" customWidth="1"/>
-    <col min="63" max="63" width="16.7109375" customWidth="1"/>
-    <col min="64" max="64" width="21.28515625" customWidth="1"/>
-    <col min="65" max="65" width="11.28515625" customWidth="1"/>
-    <col min="66" max="66" width="28.28515625" customWidth="1"/>
-    <col min="67" max="67" width="48.85546875" customWidth="1"/>
-    <col min="68" max="68" width="19.140625" customWidth="1"/>
-    <col min="69" max="69" width="27" customWidth="1"/>
-    <col min="70" max="70" width="9.28515625" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" customWidth="1"/>
-    <col min="72" max="72" width="15.42578125" customWidth="1"/>
-    <col min="73" max="73" width="12.140625" customWidth="1"/>
-    <col min="74" max="74" width="12.42578125" customWidth="1"/>
-    <col min="75" max="75" width="18" customWidth="1"/>
-    <col min="76" max="76" width="15.28515625" customWidth="1"/>
-    <col min="77" max="81" width="26" customWidth="1"/>
+    <col min="48" max="48" width="24.5703125" customWidth="1"/>
+    <col min="49" max="49" width="32.140625" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" customWidth="1"/>
+    <col min="51" max="51" width="20.42578125" customWidth="1"/>
+    <col min="52" max="52" width="21.28515625" customWidth="1"/>
+    <col min="53" max="53" width="17.7109375" customWidth="1"/>
+    <col min="54" max="54" width="18.28515625" customWidth="1"/>
+    <col min="55" max="55" width="24.28515625" customWidth="1"/>
+    <col min="56" max="57" width="20.7109375" customWidth="1"/>
+    <col min="58" max="58" width="37.7109375" customWidth="1"/>
+    <col min="59" max="59" width="25.7109375" customWidth="1"/>
+    <col min="60" max="61" width="20.140625" customWidth="1"/>
+    <col min="62" max="63" width="29.28515625" customWidth="1"/>
+    <col min="64" max="64" width="10.85546875" customWidth="1"/>
+    <col min="65" max="65" width="16.7109375" customWidth="1"/>
+    <col min="66" max="67" width="21.28515625" customWidth="1"/>
+    <col min="68" max="68" width="11.28515625" customWidth="1"/>
+    <col min="69" max="69" width="28.28515625" customWidth="1"/>
+    <col min="70" max="70" width="48.85546875" customWidth="1"/>
+    <col min="71" max="71" width="19.140625" customWidth="1"/>
+    <col min="72" max="72" width="27" customWidth="1"/>
+    <col min="73" max="73" width="9.28515625" customWidth="1"/>
+    <col min="74" max="74" width="14.85546875" customWidth="1"/>
+    <col min="75" max="75" width="15.42578125" customWidth="1"/>
+    <col min="76" max="76" width="12.140625" customWidth="1"/>
+    <col min="77" max="77" width="12.42578125" customWidth="1"/>
+    <col min="78" max="78" width="18" customWidth="1"/>
+    <col min="79" max="79" width="15.28515625" customWidth="1"/>
+    <col min="80" max="84" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2248,184 +2260,193 @@
         <v>190</v>
       </c>
       <c r="R1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S1" t="s">
         <v>169</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>170</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>171</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>172</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>173</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>174</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>160</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>330</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>371</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>382</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>422</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>351</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>161</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>456</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>457</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>353</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>185</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>186</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>198</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>199</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AS1" t="s">
         <v>161</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>162</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>163</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>164</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>165</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>166</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>167</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>168</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>350</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>139</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>140</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>141</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>383</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>421</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>265</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>266</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>456</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>142</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>275</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>276</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>201</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
+        <v>460</v>
+      </c>
+      <c r="BP1" t="s">
         <v>150</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>151</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>152</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>153</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>154</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>155</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>156</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>143</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>317</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>157</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>158</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2474,12 +2495,12 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
       <c r="S2">
         <v>1</v>
       </c>
@@ -2487,19 +2508,19 @@
         <v>1</v>
       </c>
       <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>0.5</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
       <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>100</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -2508,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -2519,71 +2540,71 @@
       <c r="AE2">
         <v>1</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
         <v>357</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>393</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>241</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>242</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
       <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>300</v>
       </c>
       <c r="AN2" t="s">
         <v>300</v>
       </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
       <c r="AS2">
         <v>1</v>
       </c>
       <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
         <v>0.5</v>
       </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
         <v>100</v>
       </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>1</v>
-      </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -2591,60 +2612,60 @@
       <c r="BC2">
         <v>0</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>268</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>269</v>
       </c>
-      <c r="BG2">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>306</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>303</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>303</v>
       </c>
-      <c r="BK2">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM2">
-        <v>1</v>
-      </c>
-      <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BO2">
-        <v>1</v>
+      <c r="BO2" t="s">
+        <v>295</v>
       </c>
       <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
         <v>0.5</v>
       </c>
-      <c r="BQ2">
-        <v>1</v>
-      </c>
-      <c r="BR2">
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
         <v>100</v>
       </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
       <c r="BV2">
         <v>0</v>
       </c>
@@ -2654,8 +2675,17 @@
       <c r="BX2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2704,12 +2734,12 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
+        <v>295</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
       <c r="S3">
         <v>1</v>
       </c>
@@ -2717,19 +2747,19 @@
         <v>1</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>0.5</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
       <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>100</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -2738,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -2749,71 +2779,71 @@
       <c r="AE3">
         <v>1</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
         <v>358</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>394</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>241</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>242</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
       <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>300</v>
       </c>
       <c r="AN3" t="s">
         <v>300</v>
       </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AO3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
       <c r="AS3">
         <v>1</v>
       </c>
       <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
         <v>0.5</v>
       </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
         <v>100</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -2821,60 +2851,60 @@
       <c r="BC3">
         <v>0</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>268</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" t="s">
         <v>269</v>
       </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3" t="s">
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>306</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BK3" t="s">
         <v>303</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BL3" t="s">
         <v>303</v>
       </c>
-      <c r="BK3">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM3">
-        <v>1</v>
-      </c>
-      <c r="BN3">
-        <v>1</v>
-      </c>
-      <c r="BO3">
-        <v>1</v>
+      <c r="BO3" t="s">
+        <v>295</v>
       </c>
       <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
         <v>0.5</v>
       </c>
-      <c r="BQ3">
-        <v>1</v>
-      </c>
-      <c r="BR3">
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
         <v>100</v>
       </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
       <c r="BV3">
         <v>0</v>
       </c>
@@ -2884,8 +2914,17 @@
       <c r="BX3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2934,12 +2973,12 @@
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R4" t="s">
         <v>191</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
         <v>1</v>
       </c>
@@ -2947,19 +2986,19 @@
         <v>1</v>
       </c>
       <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>0.5</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
       <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>100</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -2977,131 +3016,131 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="s">
         <v>359</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>428</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>391</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>390</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
         <v>323</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>322</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>0.5</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>100</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>268</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>306</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
+      <c r="BO4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
         <v>0.5</v>
       </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
         <v>100</v>
       </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>269</v>
-      </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>306</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>303</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>303</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BM4">
-        <v>1</v>
-      </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4">
-        <v>1</v>
-      </c>
-      <c r="BP4">
-        <v>0.5</v>
-      </c>
-      <c r="BQ4">
-        <v>1</v>
-      </c>
-      <c r="BR4">
-        <v>100</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
       <c r="BV4">
         <v>0</v>
       </c>
@@ -3111,8 +3150,17 @@
       <c r="BX4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3161,12 +3209,12 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
+        <v>295</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
         <v>1</v>
       </c>
@@ -3174,19 +3222,19 @@
         <v>1</v>
       </c>
       <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
         <v>0.5</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
       <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>100</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -3195,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -3206,71 +3254,71 @@
       <c r="AE5">
         <v>1</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
         <v>360</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>396</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>241</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>242</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
       <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>300</v>
       </c>
       <c r="AN5" t="s">
         <v>300</v>
       </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AO5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
       <c r="AS5">
         <v>1</v>
       </c>
       <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
         <v>0.5</v>
       </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
         <v>100</v>
       </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -3278,60 +3326,60 @@
       <c r="BC5">
         <v>0</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BG5" t="s">
         <v>268</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BH5" t="s">
         <v>269</v>
       </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5" t="s">
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>306</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BK5" t="s">
         <v>303</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BL5" t="s">
         <v>303</v>
       </c>
-      <c r="BK5">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="1" t="s">
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
-      <c r="BN5">
-        <v>1</v>
-      </c>
-      <c r="BO5">
-        <v>1</v>
+      <c r="BO5" t="s">
+        <v>295</v>
       </c>
       <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
         <v>0.5</v>
       </c>
-      <c r="BQ5">
-        <v>1</v>
-      </c>
-      <c r="BR5">
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
         <v>100</v>
       </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
       <c r="BV5">
         <v>0</v>
       </c>
@@ -3341,8 +3389,17 @@
       <c r="BX5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3391,12 +3448,12 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
+        <v>295</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
       <c r="S6">
         <v>1</v>
       </c>
@@ -3404,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>0.5</v>
       </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
       <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>100</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -3425,10 +3482,10 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -3436,71 +3493,71 @@
       <c r="AE6">
         <v>1</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
         <v>361</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>397</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>241</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>242</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
       <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>300</v>
       </c>
       <c r="AN6" t="s">
         <v>300</v>
       </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AO6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
       <c r="AS6">
         <v>1</v>
       </c>
       <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
         <v>0.5</v>
       </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
         <v>100</v>
       </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3508,60 +3565,60 @@
       <c r="BC6">
         <v>0</v>
       </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BG6" t="s">
         <v>268</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BH6" t="s">
         <v>269</v>
       </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BH6" t="s">
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6" t="s">
         <v>306</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BK6" t="s">
         <v>303</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BL6" t="s">
         <v>303</v>
       </c>
-      <c r="BK6">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="1" t="s">
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM6">
-        <v>1</v>
-      </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
+      <c r="BO6" t="s">
+        <v>295</v>
       </c>
       <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
         <v>0.5</v>
       </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
-      <c r="BR6">
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
         <v>100</v>
       </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
       <c r="BV6">
         <v>0</v>
       </c>
@@ -3571,8 +3628,17 @@
       <c r="BX6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3621,29 +3687,29 @@
       <c r="Q7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R7">
-        <v>0</v>
+      <c r="R7" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
         <v>0.5</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
       <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>81</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -3663,65 +3729,65 @@
       <c r="AE7">
         <v>1</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
         <v>362</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>398</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>243</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>9</v>
       </c>
       <c r="AN7" t="s">
         <v>9</v>
       </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AO7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
+      <c r="AR7" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
         <v>0.5</v>
       </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
         <v>81</v>
       </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -3729,71 +3795,80 @@
       <c r="BC7">
         <v>0</v>
       </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BG7" t="s">
         <v>272</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BH7" t="s">
         <v>271</v>
       </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="s">
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="s">
         <v>323</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BK7" t="s">
         <v>322</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BL7" t="s">
         <v>322</v>
       </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="1" t="s">
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BM7">
-        <v>1</v>
-      </c>
-      <c r="BN7">
-        <v>1</v>
-      </c>
-      <c r="BO7">
-        <v>1</v>
+      <c r="BO7" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
         <v>0.5</v>
       </c>
-      <c r="BQ7">
-        <v>1</v>
-      </c>
-      <c r="BR7">
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
         <v>100</v>
       </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>1</v>
-      </c>
-      <c r="BU7">
-        <v>1</v>
-      </c>
       <c r="BV7">
         <v>0</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3842,29 +3917,29 @@
       <c r="Q8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R8">
-        <v>0</v>
+      <c r="R8" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>0.5</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
       <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>81</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -3884,65 +3959,65 @@
       <c r="AE8">
         <v>1</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
         <v>363</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>398</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>243</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>9</v>
       </c>
       <c r="AN8" t="s">
         <v>9</v>
       </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AO8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>1</v>
+      <c r="AR8" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
         <v>0.5</v>
       </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AV8">
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
         <v>81</v>
       </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -3950,71 +4025,80 @@
       <c r="BC8">
         <v>0</v>
       </c>
-      <c r="BD8" s="1" t="s">
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BG8" t="s">
         <v>272</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BH8" t="s">
         <v>271</v>
       </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="s">
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="s">
         <v>323</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BK8" t="s">
         <v>322</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>322</v>
       </c>
-      <c r="BK8">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="1" t="s">
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BM8">
-        <v>1</v>
-      </c>
-      <c r="BN8">
-        <v>1</v>
-      </c>
-      <c r="BO8">
-        <v>1</v>
+      <c r="BO8" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
         <v>0.5</v>
       </c>
-      <c r="BQ8">
-        <v>1</v>
-      </c>
-      <c r="BR8">
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
         <v>100</v>
       </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>1</v>
-      </c>
-      <c r="BU8">
-        <v>1</v>
-      </c>
       <c r="BV8">
         <v>0</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4063,29 +4147,29 @@
       <c r="Q9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R9">
-        <v>0</v>
+      <c r="R9" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
         <v>0.5</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
       <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>55</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -4105,65 +4189,65 @@
       <c r="AE9">
         <v>1</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
         <v>364</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>399</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>244</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>322</v>
       </c>
       <c r="AN9" t="s">
         <v>322</v>
       </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AO9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
+      <c r="AR9" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
         <v>0.5</v>
       </c>
-      <c r="AU9">
-        <v>1</v>
-      </c>
-      <c r="AV9">
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
         <v>55</v>
       </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>1</v>
-      </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -4171,60 +4255,60 @@
       <c r="BC9">
         <v>0</v>
       </c>
-      <c r="BD9" s="1" t="s">
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="BE9" s="3" t="s">
+      <c r="BG9" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BH9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BG9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH9" t="s">
+      <c r="BI9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ9" t="s">
         <v>311</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BK9" t="s">
         <v>308</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BL9" t="s">
         <v>308</v>
       </c>
-      <c r="BK9">
-        <v>1</v>
-      </c>
-      <c r="BL9" s="1" t="s">
+      <c r="BM9">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM9">
-        <v>1</v>
-      </c>
-      <c r="BN9">
-        <v>1</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
+      <c r="BO9" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
         <v>0.5</v>
       </c>
-      <c r="BQ9">
-        <v>1</v>
-      </c>
-      <c r="BR9">
+      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BU9">
         <v>97</v>
       </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
       <c r="BV9">
         <v>0</v>
       </c>
@@ -4234,8 +4318,17 @@
       <c r="BX9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4282,31 +4375,31 @@
         <v>1</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>0.5</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
       <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
         <v>76</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -4326,65 +4419,65 @@
       <c r="AE10">
         <v>1</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
         <v>366</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>400</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AI10" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>322</v>
       </c>
       <c r="AN10" t="s">
         <v>322</v>
       </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AO10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>1</v>
-      </c>
       <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
         <v>0.5</v>
       </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-      <c r="AV10">
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
         <v>76</v>
       </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
       <c r="AY10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -4392,60 +4485,60 @@
       <c r="BC10">
         <v>0</v>
       </c>
-      <c r="BD10" s="1" t="s">
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="BE10" s="3" t="s">
+      <c r="BG10" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BF10" s="3" t="s">
+      <c r="BH10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BG10" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH10" t="s">
+      <c r="BI10" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ10" t="s">
         <v>311</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BK10" t="s">
         <v>308</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BL10" t="s">
         <v>308</v>
       </c>
-      <c r="BK10">
-        <v>1</v>
-      </c>
-      <c r="BL10" s="1" t="s">
+      <c r="BM10">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM10">
-        <v>1</v>
-      </c>
-      <c r="BN10">
-        <v>1</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
+      <c r="BO10" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
         <v>0.5</v>
       </c>
-      <c r="BQ10">
-        <v>1</v>
-      </c>
-      <c r="BR10">
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
         <v>97</v>
       </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
-        <v>0</v>
-      </c>
-      <c r="BU10">
-        <v>0</v>
-      </c>
       <c r="BV10">
         <v>0</v>
       </c>
@@ -4455,8 +4548,17 @@
       <c r="BX10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4503,34 +4605,34 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
         <v>0.5</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
       <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
         <v>55</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -4547,65 +4649,65 @@
       <c r="AE11">
         <v>1</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
         <v>365</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>402</v>
       </c>
-      <c r="AH11" s="1" t="s">
+      <c r="AI11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>322</v>
       </c>
       <c r="AN11" t="s">
         <v>322</v>
       </c>
-      <c r="AO11">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="1" t="s">
+      <c r="AO11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR11" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
         <v>0.5</v>
       </c>
-      <c r="AU11">
-        <v>1</v>
-      </c>
-      <c r="AV11">
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
         <v>55</v>
       </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
       <c r="AY11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -4613,60 +4715,60 @@
       <c r="BC11">
         <v>0</v>
       </c>
-      <c r="BD11" s="1" t="s">
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="BE11" s="3" t="s">
+      <c r="BG11" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BF11" s="3" t="s">
+      <c r="BH11" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BG11">
-        <v>1</v>
-      </c>
-      <c r="BH11" t="s">
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>311</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BK11" t="s">
         <v>308</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BL11" t="s">
         <v>308</v>
       </c>
-      <c r="BK11">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="1" t="s">
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM11">
-        <v>1</v>
-      </c>
-      <c r="BN11">
-        <v>1</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
+      <c r="BO11" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
         <v>0.5</v>
       </c>
-      <c r="BQ11">
-        <v>1</v>
-      </c>
-      <c r="BR11">
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
         <v>97</v>
       </c>
-      <c r="BS11">
-        <v>0</v>
-      </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
       <c r="BV11">
         <v>0</v>
       </c>
@@ -4676,8 +4778,17 @@
       <c r="BX11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4729,35 +4840,35 @@
       <c r="Q12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R12">
-        <v>1</v>
+      <c r="R12" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
         <v>0.5</v>
       </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
       <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
         <v>73</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0.5</v>
@@ -4766,73 +4877,73 @@
         <v>0.5</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE12">
         <v>1</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="s">
         <v>367</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>401</v>
       </c>
-      <c r="AH12" s="1" t="s">
+      <c r="AI12" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>248</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>323</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>322</v>
       </c>
-      <c r="AN12" s="1" t="s">
+      <c r="AO12" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="1" t="s">
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
+      <c r="AR12" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS12">
         <v>1</v>
       </c>
       <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
         <v>0.5</v>
       </c>
-      <c r="AU12">
-        <v>1</v>
-      </c>
-      <c r="AV12">
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
         <v>73</v>
       </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>1</v>
-      </c>
       <c r="AY12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -4840,60 +4951,60 @@
       <c r="BC12">
         <v>0</v>
       </c>
-      <c r="BD12" s="1" t="s">
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="BE12" s="3" t="s">
+      <c r="BG12" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BF12" s="3" t="s">
+      <c r="BH12" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BG12" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH12" t="s">
+      <c r="BI12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ12" t="s">
         <v>311</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BK12" t="s">
         <v>308</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BL12" t="s">
         <v>308</v>
       </c>
-      <c r="BK12">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="1" t="s">
+      <c r="BM12">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM12">
-        <v>1</v>
-      </c>
-      <c r="BN12">
-        <v>1</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
+      <c r="BO12" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP12">
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <v>1</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
         <v>0.5</v>
       </c>
-      <c r="BQ12">
-        <v>1</v>
-      </c>
-      <c r="BR12">
+      <c r="BT12">
+        <v>1</v>
+      </c>
+      <c r="BU12">
         <v>97</v>
       </c>
-      <c r="BS12">
-        <v>0</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
       <c r="BV12">
         <v>0</v>
       </c>
@@ -4903,8 +5014,17 @@
       <c r="BX12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4956,29 +5076,29 @@
       <c r="Q13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R13">
-        <v>1</v>
+      <c r="R13" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
         <v>0.5</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
       <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>73</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -4998,68 +5118,68 @@
       <c r="AE13">
         <v>1</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
         <v>368</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>403</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>250</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>322</v>
       </c>
-      <c r="AN13" s="1" t="s">
+      <c r="AO13" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AO13">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="1" t="s">
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ13">
-        <v>1</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
+      <c r="AR13" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS13">
         <v>1</v>
       </c>
       <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
         <v>0.5</v>
       </c>
-      <c r="AU13">
-        <v>1</v>
-      </c>
-      <c r="AV13">
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
         <v>73</v>
       </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>1</v>
-      </c>
       <c r="AY13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -5067,60 +5187,60 @@
       <c r="BC13">
         <v>0</v>
       </c>
-      <c r="BD13" s="1" t="s">
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="BE13" s="3" t="s">
+      <c r="BG13" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BF13" s="3" t="s">
+      <c r="BH13" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BG13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH13" t="s">
+      <c r="BI13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>311</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BK13" t="s">
         <v>308</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BL13" t="s">
         <v>308</v>
       </c>
-      <c r="BK13">
-        <v>1</v>
-      </c>
-      <c r="BL13" s="1" t="s">
+      <c r="BM13">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM13">
-        <v>1</v>
-      </c>
-      <c r="BN13">
-        <v>1</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
+      <c r="BO13" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP13">
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
         <v>0.5</v>
       </c>
-      <c r="BQ13">
-        <v>1</v>
-      </c>
-      <c r="BR13">
+      <c r="BT13">
+        <v>1</v>
+      </c>
+      <c r="BU13">
         <v>97</v>
       </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
       <c r="BV13">
         <v>0</v>
       </c>
@@ -5130,8 +5250,17 @@
       <c r="BX13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5183,8 +5312,8 @@
       <c r="Q14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R14">
-        <v>1</v>
+      <c r="R14" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -5193,19 +5322,19 @@
         <v>1</v>
       </c>
       <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
         <v>0.5</v>
       </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
       <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
         <v>100</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -5223,70 +5352,70 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="s">
         <v>369</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>452</v>
       </c>
-      <c r="AH14" s="1" t="s">
+      <c r="AI14" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>277</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>322</v>
       </c>
-      <c r="AN14" s="1" t="s">
+      <c r="AO14" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>1</v>
+      <c r="AR14" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS14">
         <v>1</v>
       </c>
       <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
         <v>0.5</v>
       </c>
-      <c r="AU14">
-        <v>1</v>
-      </c>
-      <c r="AV14">
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
         <v>100</v>
       </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>1</v>
-      </c>
       <c r="AY14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14">
         <v>0</v>
@@ -5294,60 +5423,60 @@
       <c r="BC14">
         <v>0</v>
       </c>
-      <c r="BD14" s="1" t="s">
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BG14" t="s">
         <v>251</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BH14" t="s">
         <v>277</v>
       </c>
-      <c r="BG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="s">
+      <c r="BI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>323</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BK14" t="s">
         <v>322</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>322</v>
       </c>
-      <c r="BK14">
-        <v>1</v>
-      </c>
-      <c r="BL14" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="BM14">
         <v>1</v>
       </c>
-      <c r="BN14">
-        <v>1</v>
-      </c>
-      <c r="BO14">
-        <v>1</v>
+      <c r="BN14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO14" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="BP14">
+        <v>1</v>
+      </c>
+      <c r="BQ14">
+        <v>1</v>
+      </c>
+      <c r="BR14">
+        <v>1</v>
+      </c>
+      <c r="BS14">
         <v>0.5</v>
       </c>
-      <c r="BQ14">
-        <v>1</v>
-      </c>
-      <c r="BR14">
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14">
         <v>100</v>
       </c>
-      <c r="BS14">
-        <v>0</v>
-      </c>
-      <c r="BT14">
-        <v>0</v>
-      </c>
-      <c r="BU14">
-        <v>0</v>
-      </c>
       <c r="BV14">
         <v>0</v>
       </c>
@@ -5357,8 +5486,17 @@
       <c r="BX14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -5410,8 +5548,8 @@
       <c r="Q15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R15">
-        <v>1</v>
+      <c r="R15" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -5420,19 +5558,19 @@
         <v>1</v>
       </c>
       <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
         <v>0.5</v>
       </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
       <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
         <v>100</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -5447,73 +5585,73 @@
         <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="s">
         <v>370</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>451</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AI15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>277</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>322</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AO15" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
+      <c r="AR15" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS15">
         <v>1</v>
       </c>
       <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
         <v>0.5</v>
       </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
         <v>100</v>
       </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>1</v>
-      </c>
       <c r="AY15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15">
         <v>0</v>
@@ -5521,60 +5659,60 @@
       <c r="BC15">
         <v>0</v>
       </c>
-      <c r="BD15" s="1" t="s">
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BG15" t="s">
         <v>251</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BH15" t="s">
         <v>277</v>
       </c>
-      <c r="BG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="s">
+      <c r="BI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="s">
         <v>323</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BK15" t="s">
         <v>322</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BL15" t="s">
         <v>322</v>
       </c>
-      <c r="BK15">
-        <v>1</v>
-      </c>
-      <c r="BL15" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="BM15">
         <v>1</v>
       </c>
-      <c r="BN15">
-        <v>1</v>
-      </c>
-      <c r="BO15">
-        <v>1</v>
+      <c r="BN15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO15" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="BP15">
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BR15">
+        <v>1</v>
+      </c>
+      <c r="BS15">
         <v>0.5</v>
       </c>
-      <c r="BQ15">
-        <v>1</v>
-      </c>
-      <c r="BR15">
+      <c r="BT15">
+        <v>1</v>
+      </c>
+      <c r="BU15">
         <v>100</v>
       </c>
-      <c r="BS15">
-        <v>0</v>
-      </c>
-      <c r="BT15">
-        <v>0</v>
-      </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
       <c r="BV15">
         <v>0</v>
       </c>
@@ -5584,8 +5722,17 @@
       <c r="BX15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5632,11 +5779,11 @@
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R16" t="s">
         <v>191</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
@@ -5644,25 +5791,25 @@
         <v>0</v>
       </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>0.5</v>
       </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
       <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
         <v>52</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>0.5</v>
@@ -5671,68 +5818,68 @@
         <v>0.5</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
         <v>372</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>453</v>
       </c>
-      <c r="AH16" s="1" t="s">
+      <c r="AI16" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>387</v>
       </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="s">
         <v>354</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AM16" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>322</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="AO16" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AO16">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-      <c r="AR16">
-        <v>1</v>
+      <c r="AR16" t="s">
+        <v>458</v>
       </c>
       <c r="AS16">
         <v>1</v>
       </c>
       <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
         <v>0.5</v>
       </c>
-      <c r="AU16">
-        <v>1</v>
-      </c>
-      <c r="AV16">
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
         <v>100</v>
       </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
       <c r="AY16">
         <v>0</v>
       </c>
@@ -5748,60 +5895,60 @@
       <c r="BC16">
         <v>0</v>
       </c>
-      <c r="BD16" s="1" t="s">
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BG16" t="s">
         <v>386</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BH16" t="s">
         <v>387</v>
       </c>
-      <c r="BG16" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH16" t="s">
+      <c r="BI16" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ16" t="s">
         <v>319</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BK16" t="s">
         <v>308</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BL16" t="s">
         <v>308</v>
       </c>
-      <c r="BK16">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="BM16">
         <v>1</v>
       </c>
-      <c r="BN16">
-        <v>1</v>
-      </c>
-      <c r="BO16">
-        <v>1</v>
+      <c r="BN16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP16">
+        <v>1</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16">
+        <v>1</v>
+      </c>
+      <c r="BS16">
         <v>0.5</v>
       </c>
-      <c r="BQ16">
-        <v>1</v>
-      </c>
-      <c r="BR16">
+      <c r="BT16">
+        <v>1</v>
+      </c>
+      <c r="BU16">
         <v>100</v>
       </c>
-      <c r="BS16">
-        <v>0</v>
-      </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
-        <v>1</v>
-      </c>
       <c r="BV16">
         <v>0</v>
       </c>
@@ -5809,10 +5956,19 @@
         <v>0</v>
       </c>
       <c r="BX16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5864,27 +6020,27 @@
       <c r="Q17" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R17">
-        <v>1</v>
+      <c r="R17" t="s">
+        <v>295</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>0.5</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
       <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>70</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
         <v>0</v>
       </c>
@@ -5892,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -5904,65 +6060,65 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="s">
         <v>373</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>450</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>384</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>385</v>
       </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="s">
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="s">
         <v>354</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AM17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>300</v>
       </c>
-      <c r="AN17" s="1" t="s">
+      <c r="AO17" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="1" t="s">
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
+      <c r="AR17" t="s">
+        <v>295</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
         <v>0.5</v>
       </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
         <v>68</v>
       </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
       <c r="AY17">
         <v>0</v>
       </c>
@@ -5978,57 +6134,57 @@
       <c r="BC17">
         <v>0</v>
       </c>
-      <c r="BD17" s="1" t="s">
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BG17" t="s">
         <v>282</v>
       </c>
-      <c r="BG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="s">
+      <c r="BI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="s">
         <v>312</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BK17" t="s">
         <v>313</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BL17" t="s">
         <v>313</v>
       </c>
-      <c r="BK17">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="1" t="s">
+      <c r="BM17">
+        <v>1</v>
+      </c>
+      <c r="BN17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>1</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
+      <c r="BO17" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
         <v>0.5</v>
       </c>
-      <c r="BQ17">
-        <v>1</v>
-      </c>
-      <c r="BR17">
+      <c r="BT17">
+        <v>1</v>
+      </c>
+      <c r="BU17">
         <v>79</v>
       </c>
-      <c r="BS17">
-        <v>0</v>
-      </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-      <c r="BU17">
-        <v>1</v>
-      </c>
       <c r="BV17">
         <v>0</v>
       </c>
@@ -6036,10 +6192,19 @@
         <v>0</v>
       </c>
       <c r="BX17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6088,29 +6253,29 @@
       <c r="Q18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R18">
-        <v>0</v>
+      <c r="R18" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
         <v>0.5</v>
       </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
       <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
         <v>81</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -6130,65 +6295,65 @@
       <c r="AE18">
         <v>1</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
         <v>374</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>409</v>
       </c>
-      <c r="AH18" s="1" t="s">
+      <c r="AI18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>300</v>
       </c>
-      <c r="AN18" s="1" t="s">
+      <c r="AO18" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="1" t="s">
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>1</v>
+      <c r="AR18" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
         <v>0.5</v>
       </c>
-      <c r="AU18">
-        <v>1</v>
-      </c>
-      <c r="AV18">
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
         <v>81</v>
       </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
       <c r="AY18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -6196,60 +6361,60 @@
       <c r="BC18">
         <v>0</v>
       </c>
-      <c r="BD18" s="1" t="s">
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BG18" t="s">
         <v>273</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BH18" t="s">
         <v>274</v>
       </c>
-      <c r="BG18" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH18" t="s">
+      <c r="BI18" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ18" t="s">
         <v>324</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BK18" t="s">
         <v>308</v>
       </c>
-      <c r="BJ18" t="s">
+      <c r="BL18" t="s">
         <v>308</v>
       </c>
-      <c r="BK18">
-        <v>1</v>
-      </c>
-      <c r="BL18" s="1" t="s">
+      <c r="BM18">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM18">
-        <v>1</v>
-      </c>
-      <c r="BN18">
-        <v>1</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
+      <c r="BO18" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18">
+        <v>1</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
         <v>0.5</v>
       </c>
-      <c r="BQ18">
-        <v>1</v>
-      </c>
-      <c r="BR18">
+      <c r="BT18">
+        <v>1</v>
+      </c>
+      <c r="BU18">
         <v>97</v>
       </c>
-      <c r="BS18">
-        <v>0</v>
-      </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
-      <c r="BU18">
-        <v>0</v>
-      </c>
       <c r="BV18">
         <v>0</v>
       </c>
@@ -6259,8 +6424,17 @@
       <c r="BX18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -6309,29 +6483,29 @@
       <c r="Q19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R19">
-        <v>0</v>
+      <c r="R19" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
         <v>0.5</v>
       </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
       <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
         <v>81</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -6351,65 +6525,65 @@
       <c r="AE19">
         <v>1</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="s">
         <v>375</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>411</v>
       </c>
-      <c r="AH19" s="1" t="s">
+      <c r="AI19" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="1" t="s">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>300</v>
       </c>
-      <c r="AN19" s="1" t="s">
+      <c r="AO19" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="1" t="s">
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>1</v>
+      <c r="AR19" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
         <v>0.5</v>
       </c>
-      <c r="AU19">
-        <v>1</v>
-      </c>
-      <c r="AV19">
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
         <v>81</v>
       </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
       <c r="AY19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19">
         <v>0</v>
@@ -6417,60 +6591,60 @@
       <c r="BC19">
         <v>0</v>
       </c>
-      <c r="BD19" s="1" t="s">
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BG19" t="s">
         <v>273</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BH19" t="s">
         <v>274</v>
       </c>
-      <c r="BG19" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH19" t="s">
+      <c r="BI19" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ19" t="s">
         <v>324</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BK19" t="s">
         <v>308</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BL19" t="s">
         <v>308</v>
       </c>
-      <c r="BK19">
-        <v>1</v>
-      </c>
-      <c r="BL19" s="1" t="s">
+      <c r="BM19">
+        <v>1</v>
+      </c>
+      <c r="BN19" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM19">
-        <v>1</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
+      <c r="BO19" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
         <v>0.5</v>
       </c>
-      <c r="BQ19">
-        <v>1</v>
-      </c>
-      <c r="BR19">
+      <c r="BT19">
+        <v>1</v>
+      </c>
+      <c r="BU19">
         <v>97</v>
       </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
       <c r="BV19">
         <v>0</v>
       </c>
@@ -6480,8 +6654,17 @@
       <c r="BX19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -6530,29 +6713,29 @@
       <c r="Q20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R20">
-        <v>0</v>
+      <c r="R20" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
         <v>0.5</v>
       </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
       <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
         <v>81</v>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -6572,65 +6755,65 @@
       <c r="AE20">
         <v>1</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
         <v>376</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>417</v>
       </c>
-      <c r="AH20" s="1" t="s">
+      <c r="AI20" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>300</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="AO20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AO20">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="1" t="s">
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>1</v>
+      <c r="AR20" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
         <v>0.5</v>
       </c>
-      <c r="AU20">
-        <v>1</v>
-      </c>
-      <c r="AV20">
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
         <v>81</v>
       </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>1</v>
-      </c>
       <c r="AY20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20">
         <v>0</v>
@@ -6638,60 +6821,60 @@
       <c r="BC20">
         <v>0</v>
       </c>
-      <c r="BD20" s="1" t="s">
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BG20" t="s">
         <v>273</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BH20" t="s">
         <v>274</v>
       </c>
-      <c r="BG20" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH20" t="s">
+      <c r="BI20" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ20" t="s">
         <v>324</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BK20" t="s">
         <v>308</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BL20" t="s">
         <v>308</v>
       </c>
-      <c r="BK20">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="1" t="s">
+      <c r="BM20">
+        <v>1</v>
+      </c>
+      <c r="BN20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM20">
-        <v>1</v>
-      </c>
-      <c r="BN20">
-        <v>1</v>
-      </c>
-      <c r="BO20">
-        <v>0</v>
+      <c r="BO20" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="BP20">
+        <v>1</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
         <v>0.5</v>
       </c>
-      <c r="BQ20">
-        <v>1</v>
-      </c>
-      <c r="BR20">
+      <c r="BT20">
+        <v>1</v>
+      </c>
+      <c r="BU20">
         <v>97</v>
       </c>
-      <c r="BS20">
-        <v>0</v>
-      </c>
-      <c r="BT20">
-        <v>0</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
-      </c>
       <c r="BV20">
         <v>0</v>
       </c>
@@ -6701,8 +6884,17 @@
       <c r="BX20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -6754,27 +6946,27 @@
       <c r="Q21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R21">
-        <v>1</v>
+      <c r="R21" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
         <v>0.5</v>
       </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
       <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>73</v>
       </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
       <c r="Y21">
         <v>0</v>
       </c>
@@ -6782,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -6794,70 +6986,70 @@
         <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="s">
         <v>377</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>454</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>389</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>388</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>303</v>
       </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AO21" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR21" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
       <c r="AS21">
         <v>1</v>
       </c>
       <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
         <v>0.5</v>
       </c>
-      <c r="AU21">
-        <v>1</v>
-      </c>
-      <c r="AV21">
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
         <v>100</v>
       </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
       <c r="AY21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21">
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21">
         <v>0</v>
@@ -6865,60 +7057,60 @@
       <c r="BC21">
         <v>0</v>
       </c>
-      <c r="BD21" s="1" t="s">
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BG21" t="s">
         <v>268</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BH21" t="s">
         <v>269</v>
       </c>
-      <c r="BG21" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH21" t="s">
+      <c r="BI21" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ21" t="s">
         <v>306</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BK21" t="s">
         <v>303</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BL21" t="s">
         <v>303</v>
       </c>
-      <c r="BK21">
-        <v>1</v>
-      </c>
-      <c r="BL21" s="1" t="s">
+      <c r="BM21">
+        <v>1</v>
+      </c>
+      <c r="BN21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM21">
-        <v>1</v>
-      </c>
-      <c r="BN21">
-        <v>1</v>
-      </c>
-      <c r="BO21">
-        <v>1</v>
+      <c r="BO21" t="s">
+        <v>295</v>
       </c>
       <c r="BP21">
+        <v>1</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21">
+        <v>1</v>
+      </c>
+      <c r="BS21">
         <v>0.5</v>
       </c>
-      <c r="BQ21">
-        <v>1</v>
-      </c>
-      <c r="BR21">
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BU21">
         <v>100</v>
       </c>
-      <c r="BS21">
-        <v>0</v>
-      </c>
-      <c r="BT21">
-        <v>0</v>
-      </c>
-      <c r="BU21">
-        <v>0</v>
-      </c>
       <c r="BV21">
         <v>0</v>
       </c>
@@ -6928,8 +7120,17 @@
       <c r="BX21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -6981,27 +7182,27 @@
       <c r="Q22" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R22">
-        <v>1</v>
+      <c r="R22" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>0.5</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
       <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
         <v>68</v>
       </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
       <c r="Y22">
         <v>0</v>
       </c>
@@ -7009,79 +7210,79 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="s">
         <v>378</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>455</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>389</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>388</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="1" t="s">
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>303</v>
       </c>
-      <c r="AN22" s="1" t="s">
+      <c r="AO22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AO22">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="1" t="s">
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR22" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
-      <c r="AR22">
-        <v>1</v>
-      </c>
       <c r="AS22">
         <v>1</v>
       </c>
       <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22">
         <v>0.5</v>
       </c>
-      <c r="AU22">
-        <v>1</v>
-      </c>
-      <c r="AV22">
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
         <v>100</v>
       </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
       <c r="AY22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22">
         <v>1</v>
@@ -7090,73 +7291,82 @@
         <v>1</v>
       </c>
       <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BG22" t="s">
         <v>281</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BH22" t="s">
         <v>279</v>
       </c>
-      <c r="BG22" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH22" t="s">
+      <c r="BI22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ22" t="s">
         <v>299</v>
       </c>
-      <c r="BI22" t="s">
+      <c r="BK22" t="s">
         <v>300</v>
       </c>
-      <c r="BJ22" t="s">
+      <c r="BL22" t="s">
         <v>300</v>
       </c>
-      <c r="BK22">
-        <v>1</v>
-      </c>
-      <c r="BL22" s="1" t="s">
+      <c r="BM22">
+        <v>1</v>
+      </c>
+      <c r="BN22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BO22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BM22">
-        <v>1</v>
-      </c>
-      <c r="BN22">
-        <v>0</v>
-      </c>
-      <c r="BO22">
-        <v>1</v>
-      </c>
       <c r="BP22">
+        <v>1</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>1</v>
+      </c>
+      <c r="BS22">
         <v>0.5</v>
       </c>
-      <c r="BQ22">
-        <v>1</v>
-      </c>
-      <c r="BR22">
+      <c r="BT22">
+        <v>1</v>
+      </c>
+      <c r="BU22">
         <v>73</v>
       </c>
-      <c r="BS22">
-        <v>0</v>
-      </c>
-      <c r="BT22">
-        <v>1</v>
-      </c>
-      <c r="BU22">
-        <v>1</v>
-      </c>
       <c r="BV22">
         <v>0</v>
       </c>
       <c r="BW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -7205,29 +7415,29 @@
       <c r="Q23" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R23">
-        <v>0</v>
+      <c r="R23" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
         <v>0.5</v>
       </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
       <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>81</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>1</v>
@@ -7247,72 +7457,72 @@
       <c r="AE23">
         <v>1</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="s">
         <v>381</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>415</v>
       </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AI23" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>280</v>
       </c>
-      <c r="AJ23">
-        <v>1</v>
-      </c>
       <c r="AK23">
-        <f>-AK26</f>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <f>-AL26</f>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
         <v>300</v>
       </c>
-      <c r="AN23" s="1" t="s">
+      <c r="AO23" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AO23">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="1" t="s">
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>1</v>
+      <c r="AR23" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
         <v>0.5</v>
       </c>
-      <c r="AU23">
-        <v>1</v>
-      </c>
-      <c r="AV23">
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
         <v>81</v>
       </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>1</v>
-      </c>
       <c r="AY23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23">
         <v>0</v>
@@ -7320,57 +7530,57 @@
       <c r="BC23">
         <v>0</v>
       </c>
-      <c r="BD23" s="1" t="s">
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BG23" t="s">
         <v>283</v>
       </c>
-      <c r="BG23" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH23" t="s">
+      <c r="BI23" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ23" t="s">
         <v>289</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="BK23" t="s">
         <v>294</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BL23" t="s">
         <v>294</v>
       </c>
-      <c r="BK23">
-        <v>1</v>
-      </c>
-      <c r="BL23" s="1" t="s">
+      <c r="BM23">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>1</v>
-      </c>
-      <c r="BO23">
-        <v>1</v>
+      <c r="BO23" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>1</v>
+      </c>
+      <c r="BR23">
+        <v>1</v>
+      </c>
+      <c r="BS23">
         <v>0.5</v>
       </c>
-      <c r="BQ23">
+      <c r="BT23">
         <v>0.5</v>
       </c>
-      <c r="BR23">
+      <c r="BU23">
         <v>81</v>
       </c>
-      <c r="BS23">
-        <v>0</v>
-      </c>
-      <c r="BT23">
-        <v>0</v>
-      </c>
-      <c r="BU23">
-        <v>0</v>
-      </c>
       <c r="BV23">
         <v>0</v>
       </c>
@@ -7380,8 +7590,17 @@
       <c r="BX23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -7428,11 +7647,11 @@
         <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
       <c r="S24">
         <v>0</v>
       </c>
@@ -7440,25 +7659,25 @@
         <v>0</v>
       </c>
       <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>0.5</v>
       </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
       <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
         <v>52</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0.5</v>
@@ -7467,73 +7686,73 @@
         <v>0.5</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE24">
         <v>1</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="s">
         <v>380</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>412</v>
       </c>
-      <c r="AH24" s="1" t="s">
+      <c r="AI24" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AJ24">
-        <v>1</v>
-      </c>
       <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>300</v>
       </c>
       <c r="AN24" t="s">
         <v>300</v>
       </c>
-      <c r="AO24">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="1" t="s">
+      <c r="AO24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
       <c r="AS24">
         <v>0</v>
       </c>
       <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
         <v>0.5</v>
       </c>
-      <c r="AU24">
-        <v>1</v>
-      </c>
-      <c r="AV24">
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
         <v>52</v>
       </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>1</v>
-      </c>
       <c r="AY24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24">
         <v>0</v>
@@ -7541,57 +7760,57 @@
       <c r="BC24">
         <v>0</v>
       </c>
-      <c r="BD24" s="1" t="s">
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BG24" t="s">
         <v>284</v>
       </c>
-      <c r="BG24" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH24" t="s">
+      <c r="BI24" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ24" t="s">
         <v>289</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BK24" t="s">
         <v>294</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BL24" t="s">
         <v>294</v>
       </c>
-      <c r="BK24">
-        <v>1</v>
-      </c>
-      <c r="BL24" s="1" t="s">
+      <c r="BM24">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
-        <v>1</v>
-      </c>
-      <c r="BO24">
-        <v>1</v>
+      <c r="BO24" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24">
+        <v>1</v>
+      </c>
+      <c r="BS24">
         <v>0.5</v>
       </c>
-      <c r="BQ24">
+      <c r="BT24">
         <v>0.5</v>
       </c>
-      <c r="BR24">
+      <c r="BU24">
         <v>81</v>
       </c>
-      <c r="BS24">
-        <v>0</v>
-      </c>
-      <c r="BT24">
-        <v>0</v>
-      </c>
-      <c r="BU24">
-        <v>0</v>
-      </c>
       <c r="BV24">
         <v>0</v>
       </c>
@@ -7601,8 +7820,17 @@
       <c r="BX24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY24">
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7649,11 +7877,11 @@
         <v>1</v>
       </c>
       <c r="Q25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
         <v>0</v>
       </c>
@@ -7661,25 +7889,25 @@
         <v>0</v>
       </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>0.5</v>
       </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
       <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
         <v>52</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>0.5</v>
@@ -7688,73 +7916,73 @@
         <v>0.5</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE25">
         <v>1</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
         <v>379</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>413</v>
       </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AI25" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
       <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>300</v>
       </c>
       <c r="AN25" t="s">
         <v>300</v>
       </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="1" t="s">
+      <c r="AO25" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
       <c r="AS25">
         <v>0</v>
       </c>
       <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>0.5</v>
       </c>
-      <c r="AU25">
-        <v>1</v>
-      </c>
-      <c r="AV25">
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
         <v>52</v>
       </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-      <c r="AX25">
-        <v>1</v>
-      </c>
       <c r="AY25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25">
         <v>0</v>
@@ -7762,57 +7990,57 @@
       <c r="BC25">
         <v>0</v>
       </c>
-      <c r="BD25" s="1" t="s">
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BG25" t="s">
         <v>287</v>
       </c>
-      <c r="BG25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH25" t="s">
+      <c r="BI25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ25" t="s">
         <v>289</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BK25" t="s">
         <v>294</v>
       </c>
-      <c r="BJ25" t="s">
+      <c r="BL25" t="s">
         <v>294</v>
       </c>
-      <c r="BK25">
-        <v>1</v>
-      </c>
-      <c r="BL25" s="1" t="s">
+      <c r="BM25">
+        <v>1</v>
+      </c>
+      <c r="BN25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
-        <v>1</v>
-      </c>
-      <c r="BO25">
-        <v>1</v>
+      <c r="BO25" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25">
+        <v>1</v>
+      </c>
+      <c r="BS25">
         <v>0.5</v>
       </c>
-      <c r="BQ25">
+      <c r="BT25">
         <v>0.5</v>
       </c>
-      <c r="BR25">
+      <c r="BU25">
         <v>81</v>
       </c>
-      <c r="BS25">
-        <v>0</v>
-      </c>
-      <c r="BT25">
-        <v>0</v>
-      </c>
-      <c r="BU25">
-        <v>0</v>
-      </c>
       <c r="BV25">
         <v>0</v>
       </c>
@@ -7822,8 +8050,17 @@
       <c r="BX25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7872,29 +8109,29 @@
       <c r="Q26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R26">
-        <v>0</v>
+      <c r="R26" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
         <v>0.5</v>
       </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
       <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
         <v>81</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -7903,10 +8140,10 @@
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -7914,65 +8151,65 @@
       <c r="AE26">
         <v>1</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
         <v>356</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>414</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>240</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="4" t="s">
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
         <v>345</v>
       </c>
-      <c r="AN26" s="1" t="s">
+      <c r="AO26" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AO26">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="1" t="s">
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>1</v>
+      <c r="AR26" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
         <v>0.5</v>
       </c>
-      <c r="AU26">
-        <v>1</v>
-      </c>
-      <c r="AV26">
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
         <v>81</v>
       </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
       <c r="AY26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26">
         <v>0</v>
@@ -7980,57 +8217,57 @@
       <c r="BC26">
         <v>0</v>
       </c>
-      <c r="BD26" s="1" t="s">
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BG26" t="s">
         <v>288</v>
       </c>
-      <c r="BG26">
-        <v>1</v>
-      </c>
-      <c r="BH26" t="s">
+      <c r="BI26">
+        <v>1</v>
+      </c>
+      <c r="BJ26" t="s">
         <v>289</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BK26" t="s">
         <v>294</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BL26" t="s">
         <v>294</v>
       </c>
-      <c r="BK26">
-        <v>1</v>
-      </c>
-      <c r="BL26" s="1" t="s">
+      <c r="BM26">
+        <v>1</v>
+      </c>
+      <c r="BN26" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>1</v>
-      </c>
-      <c r="BO26">
-        <v>1</v>
+      <c r="BO26" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26">
+        <v>1</v>
+      </c>
+      <c r="BS26">
         <v>0.5</v>
       </c>
-      <c r="BQ26">
+      <c r="BT26">
         <v>0.5</v>
       </c>
-      <c r="BR26">
+      <c r="BU26">
         <v>81</v>
       </c>
-      <c r="BS26">
-        <v>0</v>
-      </c>
-      <c r="BT26">
-        <v>0</v>
-      </c>
-      <c r="BU26">
-        <v>0</v>
-      </c>
       <c r="BV26">
         <v>0</v>
       </c>
@@ -8040,8 +8277,17 @@
       <c r="BX26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY26">
+        <v>0</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8090,29 +8336,29 @@
       <c r="Q27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R27">
-        <v>0</v>
+      <c r="R27" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>0.5</v>
       </c>
       <c r="W27">
+        <v>0.5</v>
+      </c>
+      <c r="X27">
         <v>55</v>
       </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -8121,10 +8367,10 @@
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -8132,65 +8378,65 @@
       <c r="AE27">
         <v>1</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="s">
         <v>355</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>407</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>239</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="s">
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="s">
         <v>332</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AN27" t="s">
         <v>347</v>
       </c>
-      <c r="AN27" s="1" t="s">
+      <c r="AO27" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AO27">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="1" t="s">
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
+      <c r="AR27" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
         <v>0.5</v>
       </c>
-      <c r="AU27">
+      <c r="AW27">
         <v>0.5</v>
       </c>
-      <c r="AV27">
+      <c r="AX27">
         <v>55</v>
       </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
       <c r="AY27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27">
         <v>0</v>
@@ -8198,57 +8444,57 @@
       <c r="BC27">
         <v>0</v>
       </c>
-      <c r="BD27" s="1" t="s">
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BG27" t="s">
         <v>284</v>
       </c>
-      <c r="BG27">
-        <v>1</v>
-      </c>
-      <c r="BH27" t="s">
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27" t="s">
         <v>289</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BK27" t="s">
         <v>294</v>
       </c>
-      <c r="BJ27" t="s">
+      <c r="BL27" t="s">
         <v>294</v>
       </c>
-      <c r="BK27">
-        <v>1</v>
-      </c>
-      <c r="BL27" s="1" t="s">
+      <c r="BM27">
+        <v>1</v>
+      </c>
+      <c r="BN27" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM27">
-        <v>0</v>
-      </c>
-      <c r="BN27">
-        <v>1</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
+      <c r="BO27" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27">
+        <v>1</v>
+      </c>
+      <c r="BS27">
         <v>0.5</v>
       </c>
-      <c r="BQ27">
+      <c r="BT27">
         <v>0.5</v>
       </c>
-      <c r="BR27">
+      <c r="BU27">
         <v>81</v>
       </c>
-      <c r="BS27">
-        <v>0</v>
-      </c>
-      <c r="BT27">
-        <v>0</v>
-      </c>
-      <c r="BU27">
-        <v>0</v>
-      </c>
       <c r="BV27">
         <v>0</v>
       </c>
@@ -8258,8 +8504,17 @@
       <c r="BX27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8308,29 +8563,29 @@
       <c r="Q28" t="s">
         <v>191</v>
       </c>
-      <c r="R28">
-        <v>0</v>
+      <c r="R28" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>0.5</v>
       </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
       <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
         <v>77</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -8350,66 +8605,66 @@
       <c r="AE28">
         <v>1</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="s">
         <v>423</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>419</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>175</v>
       </c>
-      <c r="AI28" s="1"/>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="s">
+      <c r="AJ28" s="1"/>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="s">
         <v>177</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>331</v>
       </c>
       <c r="AN28" t="s">
         <v>331</v>
       </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>1</v>
+      <c r="AO28" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS28">
         <v>0</v>
       </c>
       <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
         <v>0.5</v>
       </c>
-      <c r="AU28">
-        <v>1</v>
-      </c>
-      <c r="AV28">
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
         <v>77</v>
       </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
       <c r="AY28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28">
         <v>0</v>
@@ -8417,68 +8672,77 @@
       <c r="BC28">
         <v>0</v>
       </c>
-      <c r="BD28" s="1" t="s">
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BG28" t="s">
         <v>181</v>
       </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28" t="s">
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="s">
         <v>182</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BK28" t="s">
         <v>291</v>
       </c>
-      <c r="BJ28" t="s">
+      <c r="BL28" t="s">
         <v>291</v>
       </c>
-      <c r="BK28">
-        <v>1</v>
-      </c>
-      <c r="BL28" t="s">
+      <c r="BM28">
+        <v>1</v>
+      </c>
+      <c r="BN28" t="s">
         <v>191</v>
       </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>0</v>
+      <c r="BO28" t="s">
+        <v>191</v>
       </c>
       <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>1</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
         <v>0.5</v>
       </c>
-      <c r="BQ28">
-        <v>1</v>
-      </c>
-      <c r="BR28">
+      <c r="BT28">
+        <v>1</v>
+      </c>
+      <c r="BU28">
         <v>76</v>
       </c>
-      <c r="BS28">
-        <v>0</v>
-      </c>
-      <c r="BT28">
-        <v>1</v>
-      </c>
-      <c r="BU28">
-        <v>1</v>
-      </c>
       <c r="BV28">
         <v>0</v>
       </c>
       <c r="BW28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="BY28">
+        <v>0</v>
+      </c>
+      <c r="BZ28">
+        <v>0</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -8530,29 +8794,29 @@
       <c r="Q29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="R29">
-        <v>1</v>
+      <c r="R29" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
         <v>0.5</v>
       </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
       <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
         <v>73</v>
       </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -8561,76 +8825,76 @@
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>1</v>
       </c>
       <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="s">
         <v>424</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>449</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>352</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="s">
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="s">
         <v>182</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AN29" t="s">
         <v>291</v>
       </c>
-      <c r="AN29" s="1" t="s">
+      <c r="AO29" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AO29">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="1" t="s">
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
+      <c r="AR29" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="AS29">
         <v>0</v>
       </c>
       <c r="AT29">
+        <v>1</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
         <v>0.5</v>
       </c>
-      <c r="AU29">
-        <v>1</v>
-      </c>
-      <c r="AV29">
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
         <v>79</v>
       </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
       <c r="AY29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29">
         <v>0</v>
@@ -8638,70 +8902,154 @@
       <c r="BC29">
         <v>0</v>
       </c>
-      <c r="BD29" s="1" t="s">
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BG29" t="s">
         <v>181</v>
       </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29" t="s">
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="s">
         <v>182</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BK29" t="s">
         <v>291</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BL29" t="s">
         <v>291</v>
       </c>
-      <c r="BK29">
-        <v>1</v>
-      </c>
-      <c r="BL29" t="s">
+      <c r="BM29">
+        <v>1</v>
+      </c>
+      <c r="BN29" t="s">
         <v>191</v>
       </c>
-      <c r="BM29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>0</v>
+      <c r="BO29" t="s">
+        <v>191</v>
       </c>
       <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
         <v>0.5</v>
       </c>
-      <c r="BQ29">
-        <v>1</v>
-      </c>
-      <c r="BR29">
+      <c r="BT29">
+        <v>1</v>
+      </c>
+      <c r="BU29">
         <v>76</v>
       </c>
-      <c r="BS29">
-        <v>0</v>
-      </c>
-      <c r="BT29">
-        <v>1</v>
-      </c>
-      <c r="BU29">
-        <v>1</v>
-      </c>
       <c r="BV29">
         <v>0</v>
       </c>
       <c r="BW29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX29">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="BY29">
+        <v>0</v>
+      </c>
+      <c r="BZ29">
+        <v>0</v>
+      </c>
+      <c r="CA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="AR30" s="1"/>
+    </row>
+    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="AR31" s="1"/>
+    </row>
+    <row r="33" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR33" s="1"/>
+    </row>
+    <row r="34" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR34" s="1"/>
+    </row>
+    <row r="35" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR35" s="1"/>
+    </row>
+    <row r="36" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR36" s="1"/>
+    </row>
+    <row r="37" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR37" s="1"/>
+    </row>
+    <row r="38" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR38" s="1"/>
+    </row>
+    <row r="39" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR39" s="1"/>
+    </row>
+    <row r="40" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR40" s="1"/>
+    </row>
+    <row r="41" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR41" s="1"/>
+    </row>
+    <row r="42" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR42" s="1"/>
+    </row>
+    <row r="43" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR43" s="1"/>
+    </row>
+    <row r="46" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR46" s="1"/>
+    </row>
+    <row r="47" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR47" s="1"/>
+    </row>
+    <row r="48" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR48" s="1"/>
+    </row>
+    <row r="49" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR49" s="1"/>
+    </row>
+    <row r="50" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR50" s="1"/>
+    </row>
+    <row r="51" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR51" s="1"/>
+    </row>
+    <row r="52" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR52" s="1"/>
+    </row>
+    <row r="53" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR53" s="1"/>
+    </row>
+    <row r="54" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR54" s="1"/>
+    </row>
+    <row r="55" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR55" s="1"/>
+    </row>
+    <row r="56" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR56" s="1"/>
+    </row>
+    <row r="57" spans="44:44" x14ac:dyDescent="0.25">
+      <c r="AR57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D9 BE11:BF11 BH11:BJ11 BG10">
+  <conditionalFormatting sqref="D2:D9 BG11:BH11 BJ11:BL11 BI10">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8801,7 +9149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29 BV2:BX29 AI28 AF2:AF29 AH4:AI4 AH21:AI22 AH16:AI17 AH29:AI29 AL29:AM29 AL16:AL17 AL21:AL22 AL4:AM4">
+  <conditionalFormatting sqref="G2:G29 BY2:CA29 AJ28 AG2:AG29 AI4:AJ4 AI21:AJ22 AI16:AJ17 AI29:AJ29 AM29:AN29 AM16:AM17 AM21:AM22 AM4:AN4">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8836,6 +9184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
+    <cfRule type="duplicateValues" dxfId="43" priority="115"/>
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8844,7 +9193,6 @@
         <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="43" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L29">
     <cfRule type="colorScale" priority="1">
@@ -8856,7 +9204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P41 BK2:BK41 X2:Z29 AW2:AY3 AW18:AY20 AW23:AY27 AO2:AO41 AW5:AY15">
+  <conditionalFormatting sqref="P2:P41 BM2:BM41 Y2:AA29 AY2:BA3 AY18:BA20 AY23:BA27 AP2:AP41 AY5:BA15">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8866,7 +9214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:V29">
+  <conditionalFormatting sqref="S2:W29">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8876,7 +9224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1048576">
+  <conditionalFormatting sqref="X1:X1048576">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -8888,7 +9236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y29 BT2:BU29 AI28 AF2:AF29 AH4:AI4 AH21:AI22 AH16:AI17 AH29:AI29 AL29:AM29 AL16:AL17 AL21:AL22 AL4:AM4">
+  <conditionalFormatting sqref="Z2:Z29 BW2:BX29 AJ28 AG2:AG29 AI4:AJ4 AI21:AJ22 AI16:AJ17 AI29:AJ29 AM29:AN29 AM16:AM17 AM21:AM22 AM4:AN4">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8898,7 +9246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z29">
+  <conditionalFormatting sqref="AA2:AA29">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8908,7 +9256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AE29">
+  <conditionalFormatting sqref="AB2:AF29">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8918,64 +9266,68 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH3">
+  <conditionalFormatting sqref="AI2:AI3">
     <cfRule type="duplicateValues" dxfId="42" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AH6">
+  <conditionalFormatting sqref="AI5:AI6">
     <cfRule type="duplicateValues" dxfId="41" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AH8">
+  <conditionalFormatting sqref="AI7:AI8">
     <cfRule type="duplicateValues" dxfId="40" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH13">
+  <conditionalFormatting sqref="AI9:AI13">
     <cfRule type="duplicateValues" dxfId="39" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
+  <conditionalFormatting sqref="AI14">
     <cfRule type="duplicateValues" dxfId="38" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
+  <conditionalFormatting sqref="AI15">
     <cfRule type="duplicateValues" dxfId="37" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH18:AH20">
+  <conditionalFormatting sqref="AI18:AI20">
     <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH23:AH25">
+  <conditionalFormatting sqref="AI23:AI25">
     <cfRule type="duplicateValues" dxfId="35" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH26">
+  <conditionalFormatting sqref="AI26">
     <cfRule type="duplicateValues" dxfId="34" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
+  <conditionalFormatting sqref="AI27">
     <cfRule type="duplicateValues" dxfId="33" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
+  <conditionalFormatting sqref="AI28">
     <cfRule type="duplicateValues" dxfId="32" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="duplicateValues" dxfId="31" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="70"/>
+  <conditionalFormatting sqref="AJ2:AJ3">
+    <cfRule type="duplicateValues" dxfId="31" priority="70"/>
     <cfRule type="top10" priority="71" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AI6">
+  <conditionalFormatting sqref="AJ5:AJ6">
     <cfRule type="duplicateValues" dxfId="28" priority="61"/>
+    <cfRule type="top10" priority="62" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="27" priority="63"/>
     <cfRule type="duplicateValues" dxfId="26" priority="64"/>
-    <cfRule type="top10" priority="62" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI7:AI8">
+  <conditionalFormatting sqref="AJ7:AJ8">
     <cfRule type="duplicateValues" dxfId="25" priority="52"/>
     <cfRule type="top10" priority="53" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="24" priority="54"/>
     <cfRule type="duplicateValues" dxfId="23" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI9:AI13">
+  <conditionalFormatting sqref="AJ9:AJ13">
     <cfRule type="duplicateValues" dxfId="22" priority="43"/>
     <cfRule type="top10" priority="44" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI14">
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="top10" priority="19" percent="1" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8984,12 +9336,8 @@
         <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-    <cfRule type="top10" priority="19" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI15">
+  <conditionalFormatting sqref="AJ15">
     <cfRule type="duplicateValues" dxfId="16" priority="12"/>
     <cfRule type="top10" priority="13" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="15" priority="14"/>
@@ -9003,31 +9351,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI18:AI20">
+  <conditionalFormatting sqref="AJ18:AJ20">
     <cfRule type="duplicateValues" dxfId="13" priority="34"/>
     <cfRule type="top10" priority="35" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="12" priority="36"/>
     <cfRule type="duplicateValues" dxfId="11" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI23:AI25">
+  <conditionalFormatting sqref="AJ23:AJ25">
+    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
     <cfRule type="top10" priority="26" percent="1" rank="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI26">
+  <conditionalFormatting sqref="AJ26">
     <cfRule type="duplicateValues" dxfId="7" priority="79"/>
     <cfRule type="top10" priority="80" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="6" priority="81"/>
     <cfRule type="duplicateValues" dxfId="5" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI27">
+  <conditionalFormatting sqref="AJ27">
     <cfRule type="duplicateValues" dxfId="4" priority="88"/>
     <cfRule type="top10" priority="89" percent="1" rank="10"/>
     <cfRule type="duplicateValues" dxfId="3" priority="90"/>
     <cfRule type="duplicateValues" dxfId="2" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AK29">
+  <conditionalFormatting sqref="AK2:AL29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9037,7 +9385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AU3">
+  <conditionalFormatting sqref="AS2:AW3">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9047,7 +9395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ4:AU4 AQ28:AU29 AQ16:AU17 AQ21:AU22">
+  <conditionalFormatting sqref="AS4:AW4 AS28:AW29 AS16:AW17 AS21:AW22">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9057,7 +9405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ5:AU6">
+  <conditionalFormatting sqref="AS5:AW6">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9067,7 +9415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7:AU8">
+  <conditionalFormatting sqref="AS7:AW8">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9077,7 +9425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ9:AU13">
+  <conditionalFormatting sqref="AS9:AW13">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9087,7 +9435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ14:AU15">
+  <conditionalFormatting sqref="AS14:AW15">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9097,7 +9445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ18:AU20">
+  <conditionalFormatting sqref="AS18:AW20">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9107,7 +9455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23:AU25">
+  <conditionalFormatting sqref="AS23:AW25">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9117,7 +9465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26:AU26">
+  <conditionalFormatting sqref="AS26:AW26">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9127,7 +9475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27:AU27">
+  <conditionalFormatting sqref="AS27:AW27">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9137,7 +9485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AV3">
+  <conditionalFormatting sqref="AX2:AX3">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -9149,7 +9497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV5:AV6">
+  <conditionalFormatting sqref="AX5:AX6">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -9161,7 +9509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AV8">
+  <conditionalFormatting sqref="AX7:AX8">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -9173,7 +9521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV9:AV13">
+  <conditionalFormatting sqref="AX9:AX13">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9185,7 +9533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV14:AV15">
+  <conditionalFormatting sqref="AX14:AX15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9197,7 +9545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV18:AV20">
+  <conditionalFormatting sqref="AX18:AX20">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -9209,7 +9557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV23:AV25">
+  <conditionalFormatting sqref="AX23:AX25">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -9221,7 +9569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV26">
+  <conditionalFormatting sqref="AX26">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -9233,7 +9581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV27">
+  <conditionalFormatting sqref="AX27">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -9245,7 +9593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV28:AV1048576 AV1 AV4 AV16:AV17 AV21:AV22">
+  <conditionalFormatting sqref="AX28:AX1048576 AX1 AX4 AX16:AX17 AX21:AX22">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -9257,7 +9605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW28:AW29 AW4 AW16:AW17 AW21:AW22">
+  <conditionalFormatting sqref="AY28:AY29 AY4 AY16:AY17 AY21:AY22">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9267,7 +9615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX2:AX3">
+  <conditionalFormatting sqref="AZ2:AZ3">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9277,7 +9625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX5:AX6">
+  <conditionalFormatting sqref="AZ5:AZ6">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9287,7 +9635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX7:AX8">
+  <conditionalFormatting sqref="AZ7:AZ8">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9297,7 +9645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX13">
+  <conditionalFormatting sqref="AZ9:AZ13">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9307,7 +9655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX14:AX15">
+  <conditionalFormatting sqref="AZ14:AZ15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9317,7 +9665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX18:AX20">
+  <conditionalFormatting sqref="AZ18:AZ20">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9327,7 +9675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX23:AX25">
+  <conditionalFormatting sqref="AZ23:AZ25">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9337,7 +9685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
+  <conditionalFormatting sqref="AZ26">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9347,7 +9695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX27">
+  <conditionalFormatting sqref="AZ27">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9357,7 +9705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX28:AX29 AX4 AX16:AX17 AX21:AX22">
+  <conditionalFormatting sqref="AZ28:AZ29 AZ4 AZ16:AZ17 AZ21:AZ22">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9367,7 +9715,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY2:AY3">
+  <conditionalFormatting sqref="BA2:BA3">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9377,7 +9725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY5:AY6">
+  <conditionalFormatting sqref="BA5:BA6">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9387,7 +9735,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY7:AY8">
+  <conditionalFormatting sqref="BA7:BA8">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9397,7 +9745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY9:AY13">
+  <conditionalFormatting sqref="BA9:BA13">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9407,7 +9755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY14:AY15">
+  <conditionalFormatting sqref="BA14:BA15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9417,7 +9765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY18:AY20">
+  <conditionalFormatting sqref="BA18:BA20">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9427,7 +9775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY23:AY25">
+  <conditionalFormatting sqref="BA23:BA25">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9437,7 +9785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY26">
+  <conditionalFormatting sqref="BA26">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9447,7 +9795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY27">
+  <conditionalFormatting sqref="BA27">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9457,7 +9805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY28:AY29 AY4 AY16:AY17 AY21:AY22">
+  <conditionalFormatting sqref="BA28:BA29 BA4 BA16:BA17 BA21:BA22">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9467,7 +9815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ14:AZ15">
+  <conditionalFormatting sqref="BB14:BB15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9485,7 +9833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ16:BB29 BA14:BB15 AZ2:BC5 AZ6:BB13 BC6:BC29">
+  <conditionalFormatting sqref="BB16:BD29 BC14:BD15 BB2:BE5 BB6:BD13 BE6:BE29">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9495,7 +9843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD28:BE28 BE17:BJ17 F2:F29 BD29:BJ29 BD22:BG27 BJ22:BJ27 BD12:BJ13 BD14:BG16 BD21:BJ21 BD18:BG20 BI18:BJ20 BI14:BJ16 BD9:BJ10 BD7:BG8 BI7:BJ8 BD3:BD6 BE2:BJ6 BG11 BG28:BJ28">
+  <conditionalFormatting sqref="BF28:BG28 BG17:BL17 F2:F29 BF29:BL29 BF22:BI27 BL22:BL27 BF12:BL13 BF14:BI16 BF21:BL21 BF18:BI20 BK18:BL20 BK14:BL16 BF9:BL10 BF7:BI8 BK7:BL8 BF3:BF6 BG2:BL6 BI11 BI28:BL28">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9505,10 +9853,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE2:BE29">
+  <conditionalFormatting sqref="BG2:BG29">
     <cfRule type="duplicateValues" dxfId="1" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BQ29">
+  <conditionalFormatting sqref="BP2:BT29">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9518,7 +9866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR1:BR1048576">
+  <conditionalFormatting sqref="BU1:BU1048576">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -9530,7 +9878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS2:BS29">
+  <conditionalFormatting sqref="BV2:BV29">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9569,16 +9917,16 @@
     <hyperlink ref="H18" r:id="rId26" xr:uid="{ABAE2D6D-40BF-4AF7-9DCB-E101DCA5CE73}"/>
     <hyperlink ref="H20" r:id="rId27" xr:uid="{4A8003B5-3A4F-4C14-BF30-BEE7EC63462C}"/>
     <hyperlink ref="H21" r:id="rId28" xr:uid="{198706E4-5B2B-4756-9005-E9AFC0E00908}"/>
-    <hyperlink ref="AF28" r:id="rId29" xr:uid="{2D8742CC-7FF5-4600-A7F8-3CB28046E08E}"/>
-    <hyperlink ref="AF4" r:id="rId30" xr:uid="{3B5DACAC-DF3A-4370-95B6-401E89942937}"/>
-    <hyperlink ref="AF10" r:id="rId31" xr:uid="{956A4CBE-7E83-4385-BA43-E0876D5D6A66}"/>
-    <hyperlink ref="AF11" r:id="rId32" xr:uid="{ACBEE397-C2DF-412A-B6FF-12B6FCE6C821}"/>
-    <hyperlink ref="AF15" r:id="rId33" xr:uid="{E75323CA-87B5-456F-AC39-C5858CACEB2C}"/>
-    <hyperlink ref="AF14" r:id="rId34" xr:uid="{C71534F7-5D5D-48ED-8B3D-C4F9F0637D6F}"/>
-    <hyperlink ref="AF16" r:id="rId35" xr:uid="{C73D7E9F-25DB-4190-A983-1CEEEC57A64C}"/>
-    <hyperlink ref="AF17" r:id="rId36" xr:uid="{07FAEE3C-7C87-4EF5-9859-8332D21BC6CC}"/>
-    <hyperlink ref="AF21" r:id="rId37" xr:uid="{05532FDF-5CF3-4558-95FA-DF260A79465E}"/>
-    <hyperlink ref="AF22" r:id="rId38" xr:uid="{D1E48C50-DC4D-4758-8A7E-95D42A33D032}"/>
+    <hyperlink ref="AG28" r:id="rId29" xr:uid="{2D8742CC-7FF5-4600-A7F8-3CB28046E08E}"/>
+    <hyperlink ref="AG4" r:id="rId30" xr:uid="{3B5DACAC-DF3A-4370-95B6-401E89942937}"/>
+    <hyperlink ref="AG10" r:id="rId31" xr:uid="{956A4CBE-7E83-4385-BA43-E0876D5D6A66}"/>
+    <hyperlink ref="AG11" r:id="rId32" xr:uid="{ACBEE397-C2DF-412A-B6FF-12B6FCE6C821}"/>
+    <hyperlink ref="AG15" r:id="rId33" xr:uid="{E75323CA-87B5-456F-AC39-C5858CACEB2C}"/>
+    <hyperlink ref="AG14" r:id="rId34" xr:uid="{C71534F7-5D5D-48ED-8B3D-C4F9F0637D6F}"/>
+    <hyperlink ref="AG16" r:id="rId35" xr:uid="{C73D7E9F-25DB-4190-A983-1CEEEC57A64C}"/>
+    <hyperlink ref="AG17" r:id="rId36" xr:uid="{07FAEE3C-7C87-4EF5-9859-8332D21BC6CC}"/>
+    <hyperlink ref="AG21" r:id="rId37" xr:uid="{05532FDF-5CF3-4558-95FA-DF260A79465E}"/>
+    <hyperlink ref="AG22" r:id="rId38" xr:uid="{D1E48C50-DC4D-4758-8A7E-95D42A33D032}"/>
     <hyperlink ref="I4" r:id="rId39" xr:uid="{43D36B98-7655-4A56-AC8D-50CC356D8381}"/>
     <hyperlink ref="I2" r:id="rId40" xr:uid="{04AA6B1A-E7AA-4529-9474-D36CED17C499}"/>
     <hyperlink ref="I3" r:id="rId41" xr:uid="{581C9E15-8BA4-40FE-87C7-26D0D6F0A602}"/>
@@ -9607,61 +9955,61 @@
     <hyperlink ref="I25" r:id="rId64" xr:uid="{08FEA981-1552-4A9C-9590-7E6336F9BF62}"/>
     <hyperlink ref="I19" r:id="rId65" xr:uid="{5141E2F4-893B-4293-B6A5-548E8E7A0229}"/>
     <hyperlink ref="I14" r:id="rId66" xr:uid="{B3CB2A82-6AF4-4048-BD30-3CA31B2F92C9}"/>
-    <hyperlink ref="AG4" r:id="rId67" display="www.bankieren.rabobank.nl" xr:uid="{5FE1D236-540D-4861-87E9-A93C0FDCBE28}"/>
-    <hyperlink ref="AG2" r:id="rId68" xr:uid="{273588AF-838B-4FE7-8A5B-64FEE4B18D95}"/>
-    <hyperlink ref="AG3" r:id="rId69" xr:uid="{9BB4DD91-F663-4B40-8602-861FCE5B4767}"/>
-    <hyperlink ref="AG5" r:id="rId70" xr:uid="{B70F1634-D038-4C10-8A51-B9A8429E126B}"/>
-    <hyperlink ref="AG7" r:id="rId71" xr:uid="{76DF8E59-5E62-4985-A626-17692C379A0D}"/>
-    <hyperlink ref="AG6" r:id="rId72" xr:uid="{1CAD71BC-40A5-4571-91B2-6F8FDB7872C8}"/>
-    <hyperlink ref="AG11" r:id="rId73" xr:uid="{7A7669CE-71F4-44AA-BCFD-3B8CD70B2880}"/>
-    <hyperlink ref="AG8" r:id="rId74" xr:uid="{2B10A3C9-F829-48FE-B3CF-421A80B015ED}"/>
-    <hyperlink ref="AG9" r:id="rId75" xr:uid="{82152D3E-B618-41DF-8EBD-787A97AE3ADB}"/>
-    <hyperlink ref="AG10" r:id="rId76" xr:uid="{EA827CEE-735B-4D89-87B6-E29D31944E70}"/>
-    <hyperlink ref="AG21" r:id="rId77" display="www.aanvragen.onvz.nl" xr:uid="{FE4E1AC0-5F8B-40B0-A29A-3A6452E6C624}"/>
-    <hyperlink ref="AG20" r:id="rId78" xr:uid="{C734F6DC-379D-4CE0-A310-8FC858FB6B18}"/>
-    <hyperlink ref="AG18" r:id="rId79" xr:uid="{B59B8212-17F3-409F-9DD1-AC175DF81B6A}"/>
-    <hyperlink ref="AG17" r:id="rId80" display="www.aanvragen.aevitae.com" xr:uid="{775FFE01-18F0-424C-B3D2-A092D3625942}"/>
-    <hyperlink ref="AG15" r:id="rId81" display="www.aanmelden.stadholland.nl" xr:uid="{E1394DBA-303A-4DD1-B385-42DC7BAFE3A8}"/>
-    <hyperlink ref="AG16" r:id="rId82" display="www.aanvraag.salland.nl" xr:uid="{6113B00B-62A3-419B-836D-F75B09B13901}"/>
-    <hyperlink ref="AG13" r:id="rId83" xr:uid="{8E6D4EBC-CC03-4559-8866-1D400AD58BE1}"/>
-    <hyperlink ref="AG12" r:id="rId84" xr:uid="{75B82680-59C6-42CF-8AC4-2BCCD726334E}"/>
-    <hyperlink ref="AG23" r:id="rId85" xr:uid="{62AFE57D-7F31-43FD-BC99-F250F62EBAE3}"/>
-    <hyperlink ref="AG22" r:id="rId86" display="www.aanvragen.vvaa.nl" xr:uid="{62EF86B0-E0B0-46DA-BF58-C963E208C98A}"/>
-    <hyperlink ref="AG24" r:id="rId87" xr:uid="{FCA93A1C-D6C6-41DE-B232-B26716C72526}"/>
-    <hyperlink ref="AG28" r:id="rId88" xr:uid="{3DF09DAA-A424-46A2-A17D-56E060B4C95B}"/>
-    <hyperlink ref="AG29" r:id="rId89" display="www.service.zorgenzekerheid.nl" xr:uid="{EEAC4137-F912-46BE-8F4E-9E8BA97DFC6D}"/>
-    <hyperlink ref="AG27" r:id="rId90" xr:uid="{1DC83C01-A74B-42BC-BD4E-5E0E4676C789}"/>
-    <hyperlink ref="AG26" r:id="rId91" xr:uid="{2DB195F0-5F71-41C7-B41B-5A9668CAB889}"/>
-    <hyperlink ref="AG25" r:id="rId92" xr:uid="{DF10C723-F06F-42D2-BBC2-631BB4973626}"/>
-    <hyperlink ref="AG19" r:id="rId93" xr:uid="{70A5BAAA-5790-4919-8346-E017C3255984}"/>
-    <hyperlink ref="AG14" r:id="rId94" display="www.aanmelden.dsw.nl" xr:uid="{9129E375-E5C7-43F9-AB82-3C6F6638EBD4}"/>
-    <hyperlink ref="AF29" r:id="rId95" xr:uid="{952A0304-5B2C-4D4B-BA4A-D4C03F0B7612}"/>
-    <hyperlink ref="BD2" r:id="rId96" display="www.login-select.defriesland.nl" xr:uid="{0DDE0281-20FA-4487-9DA2-33A55F53257D}"/>
-    <hyperlink ref="BD3" r:id="rId97" display="www.login-select.fbto.nl" xr:uid="{036F04D4-28B1-4A93-AF12-F2496F10EE17}"/>
-    <hyperlink ref="BD4" r:id="rId98" display="www.login-select.interpolis.nl" xr:uid="{90E9A6A1-A3BB-4174-8382-22CFE2944455}"/>
-    <hyperlink ref="BD5" r:id="rId99" display="www.login-select.dechristelijkezorgverzekeraar.nl" xr:uid="{7D7AD1B5-E971-43C8-8BCE-E0CEEFEF2C08}"/>
-    <hyperlink ref="BD6" r:id="rId100" display="www.login-select.zilverenkruis.nl" xr:uid="{F6A59FE3-1075-431D-BEED-E05A288E1B1E}"/>
-    <hyperlink ref="BD7" r:id="rId101" display="www.authenticatie.mijnzorg.asr.nl" xr:uid="{EACA0B4B-086C-425D-BF2A-2C9D9021EE71}"/>
-    <hyperlink ref="BD8" r:id="rId102" display="www.authenticatie.mijnzorg-ikkieszelf.asr.nl" xr:uid="{22E99511-D9A2-4E9B-A92C-80D00A18043D}"/>
-    <hyperlink ref="BD9" r:id="rId103" display="www.login.cz.nl" xr:uid="{6C435B83-9690-4EAF-891D-1DC5CB0E91C8}"/>
-    <hyperlink ref="BD10" r:id="rId104" display="www.login.cz.nl" xr:uid="{D1A97DE9-BA5E-41DC-A0C2-0725799FCE1B}"/>
-    <hyperlink ref="BD11" r:id="rId105" display="www.login.just.nl" xr:uid="{2078425F-9C83-4AA3-820D-3801DB190F75}"/>
-    <hyperlink ref="BD12" r:id="rId106" display="www.login.nn-zorg.nl" xr:uid="{3A491BF6-69EC-4639-A95D-71D1A0A6D5F5}"/>
-    <hyperlink ref="BD13" r:id="rId107" display="www.login.ohra-zorg.nl" xr:uid="{F21DF260-3ADF-4FFC-89F8-6D57D34A7F9B}"/>
-    <hyperlink ref="BD14" r:id="rId108" display="www.authenticatie.dsw.nl" xr:uid="{ECBB63B6-798A-4B39-AB6E-5B312E6A2E88}"/>
-    <hyperlink ref="BD15" r:id="rId109" display="www.authenticatie.stadholland.nl" xr:uid="{6733EE79-87A3-4E41-8BF5-2383B09DDB83}"/>
-    <hyperlink ref="BD16" r:id="rId110" display="www.mijn.salland.nl" xr:uid="{D5299527-4779-4E5C-9371-03A039584659}"/>
-    <hyperlink ref="BD17" r:id="rId111" display="www.idin.aevitae.com" xr:uid="{0DB09F74-398F-4AFE-87BB-9C06F7C4D3CE}"/>
-    <hyperlink ref="BD18" r:id="rId112" display="www.inlog.anderzorg.nl" xr:uid="{C4CB4073-EA13-4845-BA77-E73A2C93C5A5}"/>
-    <hyperlink ref="BD19" r:id="rId113" display="www.inlog.menzis.nl" xr:uid="{40549E75-A603-42DE-A106-3AFE97E9F915}"/>
-    <hyperlink ref="BD20" r:id="rId114" display="www.inlog.vinkvink.nl" xr:uid="{080618EA-2DEF-479D-82CD-F61076A7E41B}"/>
-    <hyperlink ref="BD21" r:id="rId115" display="www.inlog.onvz.nl" xr:uid="{A9C8C6F0-DE6E-4EB9-871B-F106E0BCFB8B}"/>
-    <hyperlink ref="BD22" r:id="rId116" display="www.prdledenvvaa.b2clogin.com" xr:uid="{FE321390-15EF-451E-9F9E-C80B543C5A11}"/>
-    <hyperlink ref="BD23" r:id="rId117" display="www.inloggen.mijnunivezorg.nl" xr:uid="{313B98A9-6FCE-4DCE-A251-D5F188F6F88E}"/>
-    <hyperlink ref="BD24" r:id="rId118" display="www.inloggen.vgz.nl" xr:uid="{150B704A-0B2E-4822-B767-4D27CEBF9DF8}"/>
-    <hyperlink ref="BD25" r:id="rId119" display="www.inloggen.vgzbewuzt.nl" xr:uid="{4CA00F3E-582B-4E64-BE24-599F8270A784}"/>
-    <hyperlink ref="BD26" r:id="rId120" display="www.inloggen.mijnzekurzorg.nl" xr:uid="{C9ADAA93-351D-401A-B916-33915CE73013}"/>
-    <hyperlink ref="BD27" r:id="rId121" display="www.inloggen.vgz.nl" xr:uid="{A6F5ECBC-E26E-4A20-9B8B-A9CBA50BF8E2}"/>
+    <hyperlink ref="AH4" r:id="rId67" display="www.bankieren.rabobank.nl" xr:uid="{5FE1D236-540D-4861-87E9-A93C0FDCBE28}"/>
+    <hyperlink ref="AH2" r:id="rId68" xr:uid="{273588AF-838B-4FE7-8A5B-64FEE4B18D95}"/>
+    <hyperlink ref="AH3" r:id="rId69" xr:uid="{9BB4DD91-F663-4B40-8602-861FCE5B4767}"/>
+    <hyperlink ref="AH5" r:id="rId70" xr:uid="{B70F1634-D038-4C10-8A51-B9A8429E126B}"/>
+    <hyperlink ref="AH7" r:id="rId71" xr:uid="{76DF8E59-5E62-4985-A626-17692C379A0D}"/>
+    <hyperlink ref="AH6" r:id="rId72" xr:uid="{1CAD71BC-40A5-4571-91B2-6F8FDB7872C8}"/>
+    <hyperlink ref="AH11" r:id="rId73" xr:uid="{7A7669CE-71F4-44AA-BCFD-3B8CD70B2880}"/>
+    <hyperlink ref="AH8" r:id="rId74" xr:uid="{2B10A3C9-F829-48FE-B3CF-421A80B015ED}"/>
+    <hyperlink ref="AH9" r:id="rId75" xr:uid="{82152D3E-B618-41DF-8EBD-787A97AE3ADB}"/>
+    <hyperlink ref="AH10" r:id="rId76" xr:uid="{EA827CEE-735B-4D89-87B6-E29D31944E70}"/>
+    <hyperlink ref="AH21" r:id="rId77" display="www.aanvragen.onvz.nl" xr:uid="{FE4E1AC0-5F8B-40B0-A29A-3A6452E6C624}"/>
+    <hyperlink ref="AH20" r:id="rId78" xr:uid="{C734F6DC-379D-4CE0-A310-8FC858FB6B18}"/>
+    <hyperlink ref="AH18" r:id="rId79" xr:uid="{B59B8212-17F3-409F-9DD1-AC175DF81B6A}"/>
+    <hyperlink ref="AH17" r:id="rId80" display="www.aanvragen.aevitae.com" xr:uid="{775FFE01-18F0-424C-B3D2-A092D3625942}"/>
+    <hyperlink ref="AH15" r:id="rId81" display="www.aanmelden.stadholland.nl" xr:uid="{E1394DBA-303A-4DD1-B385-42DC7BAFE3A8}"/>
+    <hyperlink ref="AH16" r:id="rId82" display="www.aanvraag.salland.nl" xr:uid="{6113B00B-62A3-419B-836D-F75B09B13901}"/>
+    <hyperlink ref="AH13" r:id="rId83" xr:uid="{8E6D4EBC-CC03-4559-8866-1D400AD58BE1}"/>
+    <hyperlink ref="AH12" r:id="rId84" xr:uid="{75B82680-59C6-42CF-8AC4-2BCCD726334E}"/>
+    <hyperlink ref="AH23" r:id="rId85" xr:uid="{62AFE57D-7F31-43FD-BC99-F250F62EBAE3}"/>
+    <hyperlink ref="AH22" r:id="rId86" display="www.aanvragen.vvaa.nl" xr:uid="{62EF86B0-E0B0-46DA-BF58-C963E208C98A}"/>
+    <hyperlink ref="AH24" r:id="rId87" xr:uid="{FCA93A1C-D6C6-41DE-B232-B26716C72526}"/>
+    <hyperlink ref="AH28" r:id="rId88" xr:uid="{3DF09DAA-A424-46A2-A17D-56E060B4C95B}"/>
+    <hyperlink ref="AH29" r:id="rId89" display="www.service.zorgenzekerheid.nl" xr:uid="{EEAC4137-F912-46BE-8F4E-9E8BA97DFC6D}"/>
+    <hyperlink ref="AH27" r:id="rId90" xr:uid="{1DC83C01-A74B-42BC-BD4E-5E0E4676C789}"/>
+    <hyperlink ref="AH26" r:id="rId91" xr:uid="{2DB195F0-5F71-41C7-B41B-5A9668CAB889}"/>
+    <hyperlink ref="AH25" r:id="rId92" xr:uid="{DF10C723-F06F-42D2-BBC2-631BB4973626}"/>
+    <hyperlink ref="AH19" r:id="rId93" xr:uid="{70A5BAAA-5790-4919-8346-E017C3255984}"/>
+    <hyperlink ref="AH14" r:id="rId94" display="www.aanmelden.dsw.nl" xr:uid="{9129E375-E5C7-43F9-AB82-3C6F6638EBD4}"/>
+    <hyperlink ref="AG29" r:id="rId95" xr:uid="{952A0304-5B2C-4D4B-BA4A-D4C03F0B7612}"/>
+    <hyperlink ref="BF2" r:id="rId96" display="www.login-select.defriesland.nl" xr:uid="{0DDE0281-20FA-4487-9DA2-33A55F53257D}"/>
+    <hyperlink ref="BF3" r:id="rId97" display="www.login-select.fbto.nl" xr:uid="{036F04D4-28B1-4A93-AF12-F2496F10EE17}"/>
+    <hyperlink ref="BF4" r:id="rId98" display="www.login-select.interpolis.nl" xr:uid="{90E9A6A1-A3BB-4174-8382-22CFE2944455}"/>
+    <hyperlink ref="BF5" r:id="rId99" display="www.login-select.dechristelijkezorgverzekeraar.nl" xr:uid="{7D7AD1B5-E971-43C8-8BCE-E0CEEFEF2C08}"/>
+    <hyperlink ref="BF6" r:id="rId100" display="www.login-select.zilverenkruis.nl" xr:uid="{F6A59FE3-1075-431D-BEED-E05A288E1B1E}"/>
+    <hyperlink ref="BF7" r:id="rId101" display="www.authenticatie.mijnzorg.asr.nl" xr:uid="{EACA0B4B-086C-425D-BF2A-2C9D9021EE71}"/>
+    <hyperlink ref="BF8" r:id="rId102" display="www.authenticatie.mijnzorg-ikkieszelf.asr.nl" xr:uid="{22E99511-D9A2-4E9B-A92C-80D00A18043D}"/>
+    <hyperlink ref="BF9" r:id="rId103" display="www.login.cz.nl" xr:uid="{6C435B83-9690-4EAF-891D-1DC5CB0E91C8}"/>
+    <hyperlink ref="BF10" r:id="rId104" display="www.login.cz.nl" xr:uid="{D1A97DE9-BA5E-41DC-A0C2-0725799FCE1B}"/>
+    <hyperlink ref="BF11" r:id="rId105" display="www.login.just.nl" xr:uid="{2078425F-9C83-4AA3-820D-3801DB190F75}"/>
+    <hyperlink ref="BF12" r:id="rId106" display="www.login.nn-zorg.nl" xr:uid="{3A491BF6-69EC-4639-A95D-71D1A0A6D5F5}"/>
+    <hyperlink ref="BF13" r:id="rId107" display="www.login.ohra-zorg.nl" xr:uid="{F21DF260-3ADF-4FFC-89F8-6D57D34A7F9B}"/>
+    <hyperlink ref="BF14" r:id="rId108" display="www.authenticatie.dsw.nl" xr:uid="{ECBB63B6-798A-4B39-AB6E-5B312E6A2E88}"/>
+    <hyperlink ref="BF15" r:id="rId109" display="www.authenticatie.stadholland.nl" xr:uid="{6733EE79-87A3-4E41-8BF5-2383B09DDB83}"/>
+    <hyperlink ref="BF16" r:id="rId110" display="www.mijn.salland.nl" xr:uid="{D5299527-4779-4E5C-9371-03A039584659}"/>
+    <hyperlink ref="BF17" r:id="rId111" display="www.idin.aevitae.com" xr:uid="{0DB09F74-398F-4AFE-87BB-9C06F7C4D3CE}"/>
+    <hyperlink ref="BF18" r:id="rId112" display="www.inlog.anderzorg.nl" xr:uid="{C4CB4073-EA13-4845-BA77-E73A2C93C5A5}"/>
+    <hyperlink ref="BF19" r:id="rId113" display="www.inlog.menzis.nl" xr:uid="{40549E75-A603-42DE-A106-3AFE97E9F915}"/>
+    <hyperlink ref="BF20" r:id="rId114" display="www.inlog.vinkvink.nl" xr:uid="{080618EA-2DEF-479D-82CD-F61076A7E41B}"/>
+    <hyperlink ref="BF21" r:id="rId115" display="www.inlog.onvz.nl" xr:uid="{A9C8C6F0-DE6E-4EB9-871B-F106E0BCFB8B}"/>
+    <hyperlink ref="BF22" r:id="rId116" display="www.prdledenvvaa.b2clogin.com" xr:uid="{FE321390-15EF-451E-9F9E-C80B543C5A11}"/>
+    <hyperlink ref="BF23" r:id="rId117" display="www.inloggen.mijnunivezorg.nl" xr:uid="{313B98A9-6FCE-4DCE-A251-D5F188F6F88E}"/>
+    <hyperlink ref="BF24" r:id="rId118" display="www.inloggen.vgz.nl" xr:uid="{150B704A-0B2E-4822-B767-4D27CEBF9DF8}"/>
+    <hyperlink ref="BF25" r:id="rId119" display="www.inloggen.vgzbewuzt.nl" xr:uid="{4CA00F3E-582B-4E64-BE24-599F8270A784}"/>
+    <hyperlink ref="BF26" r:id="rId120" display="www.inloggen.mijnzekurzorg.nl" xr:uid="{C9ADAA93-351D-401A-B916-33915CE73013}"/>
+    <hyperlink ref="BF27" r:id="rId121" display="www.inloggen.vgz.nl" xr:uid="{A6F5ECBC-E26E-4A20-9B8B-A9CBA50BF8E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
